--- a/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
@@ -418,28 +418,28 @@
         <v>0.1078113842995947</v>
       </c>
       <c r="D2">
-        <v>0.02807955547474705</v>
+        <v>0.02807955547451613</v>
       </c>
       <c r="E2">
-        <v>0.02559880918521351</v>
+        <v>0.02559880918524371</v>
       </c>
       <c r="F2">
-        <v>2.221605349597212</v>
+        <v>2.22160534959724</v>
       </c>
       <c r="G2">
-        <v>1.787420617253261</v>
+        <v>1.787420617253275</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.00685705492681965</v>
+        <v>0.006857054926833861</v>
       </c>
       <c r="J2">
-        <v>8.124049666057118</v>
+        <v>8.124049666057033</v>
       </c>
       <c r="K2">
-        <v>0.05322657439986145</v>
+        <v>0.05322657439985079</v>
       </c>
       <c r="L2">
         <v>4.987260301922106</v>
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09197290338379105</v>
+        <v>0.09197290338357789</v>
       </c>
       <c r="D3">
-        <v>0.02122984316490673</v>
+        <v>0.02122984316470422</v>
       </c>
       <c r="E3">
-        <v>0.02407470246549259</v>
+        <v>0.02407470246549615</v>
       </c>
       <c r="F3">
         <v>1.888623421526532</v>
       </c>
       <c r="G3">
-        <v>1.514614565532241</v>
+        <v>1.514614565532227</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.007541881484756985</v>
+        <v>0.007541881484761426</v>
       </c>
       <c r="J3">
-        <v>6.977529258335579</v>
+        <v>6.977529258335522</v>
       </c>
       <c r="K3">
-        <v>0.04690766142249636</v>
+        <v>0.04690766142250169</v>
       </c>
       <c r="L3">
-        <v>4.282596780522823</v>
+        <v>4.282596780522866</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08275900915823797</v>
+        <v>0.08275900915846535</v>
       </c>
       <c r="D4">
-        <v>0.01778674785795076</v>
+        <v>0.01778674785796497</v>
       </c>
       <c r="E4">
-        <v>0.02319265681417093</v>
+        <v>0.02319265681416383</v>
       </c>
       <c r="F4">
         <v>1.704395384505773</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.008147647654825008</v>
+        <v>0.008147647654817014</v>
       </c>
       <c r="J4">
-        <v>6.290419394100439</v>
+        <v>6.290419394100383</v>
       </c>
       <c r="K4">
-        <v>0.04309558561018001</v>
+        <v>0.04309558561017646</v>
       </c>
       <c r="L4">
-        <v>3.860983107219042</v>
+        <v>3.860983107219027</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07911103429046307</v>
+        <v>0.07911103429022148</v>
       </c>
       <c r="D5">
-        <v>0.0165428438909494</v>
+        <v>0.01654284389093164</v>
       </c>
       <c r="E5">
-        <v>0.02284533869875283</v>
+        <v>0.02284533869874572</v>
       </c>
       <c r="F5">
-        <v>1.633600290269314</v>
+        <v>1.633600290269328</v>
       </c>
       <c r="G5">
-        <v>1.306889099936953</v>
+        <v>1.306889099936924</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.008435262639042485</v>
+        <v>0.008435262639061136</v>
       </c>
       <c r="J5">
-        <v>6.013795564222704</v>
+        <v>6.013795564222647</v>
       </c>
       <c r="K5">
-        <v>0.04155563130539441</v>
+        <v>0.04155563130540152</v>
       </c>
       <c r="L5">
-        <v>3.691398953083919</v>
+        <v>3.691398953083933</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07851117308581479</v>
+        <v>0.078511173085829</v>
       </c>
       <c r="D6">
-        <v>0.01634506921149992</v>
+        <v>0.01634506921160295</v>
       </c>
       <c r="E6">
-        <v>0.02278836221486458</v>
+        <v>0.02278836221487879</v>
       </c>
       <c r="F6">
         <v>1.622082344025245</v>
       </c>
       <c r="G6">
-        <v>1.297537854427262</v>
+        <v>1.297537854427247</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.008485331540483365</v>
+        <v>0.008485331540487806</v>
       </c>
       <c r="J6">
-        <v>5.9680440547628</v>
+        <v>5.968044054762771</v>
       </c>
       <c r="K6">
-        <v>0.04130064584670201</v>
+        <v>0.04130064584669668</v>
       </c>
       <c r="L6">
         <v>3.663359733291784</v>
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08270940504743862</v>
+        <v>0.0827094050474102</v>
       </c>
       <c r="D7">
-        <v>0.01776936628192871</v>
+        <v>0.01776936628195713</v>
       </c>
       <c r="E7">
-        <v>0.02318792536461167</v>
+        <v>0.02318792536459391</v>
       </c>
       <c r="F7">
-        <v>1.703424253539936</v>
+        <v>1.703424253539922</v>
       </c>
       <c r="G7">
-        <v>1.36363891795105</v>
+        <v>1.363638917951022</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.008151368451039254</v>
+        <v>0.008151368451032148</v>
       </c>
       <c r="J7">
-        <v>6.286676097963976</v>
+        <v>6.286676097964005</v>
       </c>
       <c r="K7">
-        <v>0.04307476684806311</v>
+        <v>0.04307476684805778</v>
       </c>
       <c r="L7">
-        <v>3.858687681752002</v>
+        <v>3.858687681751988</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1022298633025116</v>
+        <v>0.10222986330227</v>
       </c>
       <c r="D8">
-        <v>0.02553778570471366</v>
+        <v>0.02553778570472431</v>
       </c>
       <c r="E8">
-        <v>0.0250612253621636</v>
+        <v>0.02506122536217248</v>
       </c>
       <c r="F8">
-        <v>2.10206197193142</v>
+        <v>2.102061971931391</v>
       </c>
       <c r="G8">
-        <v>1.689303885525476</v>
+        <v>1.689303885525462</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.007050867147401441</v>
+        <v>0.007050867147382789</v>
       </c>
       <c r="J8">
-        <v>7.724662801802452</v>
+        <v>7.724662801802424</v>
       </c>
       <c r="K8">
-        <v>0.05103141441162151</v>
+        <v>0.05103141441160197</v>
       </c>
       <c r="L8">
-        <v>4.741633722761463</v>
+        <v>4.741633722761406</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1458083446844256</v>
+        <v>0.145808344684724</v>
       </c>
       <c r="D9">
-        <v>0.04872953129851965</v>
+        <v>0.04872953129842728</v>
       </c>
       <c r="E9">
-        <v>0.02923887757791732</v>
+        <v>0.02923887757793509</v>
       </c>
       <c r="F9">
-        <v>3.090694138307299</v>
+        <v>3.090694138307271</v>
       </c>
       <c r="G9">
-        <v>2.505290151177306</v>
+        <v>2.50529015117732</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.006698554483365982</v>
+        <v>0.006698554483373087</v>
       </c>
       <c r="J9">
-        <v>10.72741332556248</v>
+        <v>10.72741332556254</v>
       </c>
       <c r="K9">
-        <v>0.06737339031383982</v>
+        <v>0.06737339031383627</v>
       </c>
       <c r="L9">
-        <v>6.592331865035675</v>
+        <v>6.59233186503576</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1834122808063086</v>
+        <v>0.183412280806337</v>
       </c>
       <c r="D10">
-        <v>0.07433305937065171</v>
+        <v>0.07433305937075119</v>
       </c>
       <c r="E10">
-        <v>0.03275469753961424</v>
+        <v>0.03275469753959293</v>
       </c>
       <c r="F10">
-        <v>4.031868275376894</v>
+        <v>4.031868275376866</v>
       </c>
       <c r="G10">
-        <v>3.289318311479732</v>
+        <v>3.289318311479761</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.008179286088693338</v>
+        <v>0.008179286088743076</v>
       </c>
       <c r="J10">
         <v>13.1372880637912</v>
       </c>
       <c r="K10">
-        <v>0.08020555025559517</v>
+        <v>0.08020555025558807</v>
       </c>
       <c r="L10">
-        <v>8.084071780533122</v>
+        <v>8.084071780533151</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,31 +760,31 @@
         <v>0.202546911564184</v>
       </c>
       <c r="D11">
-        <v>0.08917177040216018</v>
+        <v>0.08917177040216728</v>
       </c>
       <c r="E11">
-        <v>0.03449521268785105</v>
+        <v>0.03449521268786171</v>
       </c>
       <c r="F11">
-        <v>4.537710421064304</v>
+        <v>4.537710421064361</v>
       </c>
       <c r="G11">
-        <v>3.712838517713138</v>
+        <v>3.712838517713152</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.00945232652459449</v>
+        <v>0.00945232652457495</v>
       </c>
       <c r="J11">
-        <v>14.30932502873293</v>
+        <v>14.30932502873301</v>
       </c>
       <c r="K11">
-        <v>0.08634873719942604</v>
+        <v>0.08634873719944736</v>
       </c>
       <c r="L11">
-        <v>8.811644493223156</v>
+        <v>8.811644493223127</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2101894167108895</v>
+        <v>0.2101894167106764</v>
       </c>
       <c r="D12">
-        <v>0.09542666783348608</v>
+        <v>0.09542666783359266</v>
       </c>
       <c r="E12">
-        <v>0.03517981741241982</v>
+        <v>0.03517981741245535</v>
       </c>
       <c r="F12">
         <v>4.744476300559342</v>
       </c>
       <c r="G12">
-        <v>3.886324100695177</v>
+        <v>3.886324100695134</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01004920337777993</v>
+        <v>0.01004920337778703</v>
       </c>
       <c r="J12">
-        <v>14.76805011344254</v>
+        <v>14.76805011344243</v>
       </c>
       <c r="K12">
-        <v>0.08873483728129372</v>
+        <v>0.08873483728124398</v>
       </c>
       <c r="L12">
-        <v>9.096784907247894</v>
+        <v>9.096784907247866</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2085236521164973</v>
+        <v>0.2085236521170373</v>
       </c>
       <c r="D13">
-        <v>0.09404756526607372</v>
+        <v>0.09404756526594582</v>
       </c>
       <c r="E13">
-        <v>0.03503113849432182</v>
+        <v>0.03503113849431827</v>
       </c>
       <c r="F13">
         <v>4.699184728563978</v>
       </c>
       <c r="G13">
-        <v>3.848305105132567</v>
+        <v>3.848305105132582</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.009914957812812375</v>
+        <v>0.009914957812818592</v>
       </c>
       <c r="J13">
-        <v>14.66851036421625</v>
+        <v>14.66851036421622</v>
       </c>
       <c r="K13">
         <v>0.08821796413347727</v>
       </c>
       <c r="L13">
-        <v>9.034893587264747</v>
+        <v>9.03489358726469</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.203166951038682</v>
+        <v>0.203166951038213</v>
       </c>
       <c r="D14">
-        <v>0.0896723147519225</v>
+        <v>0.08967231475194382</v>
       </c>
       <c r="E14">
-        <v>0.03455098805018153</v>
+        <v>0.03455098805017798</v>
       </c>
       <c r="F14">
-        <v>4.554386652966542</v>
+        <v>4.554386652966599</v>
       </c>
       <c r="G14">
-        <v>3.726822982553955</v>
+        <v>3.726822982553969</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.009498922940057497</v>
+        <v>0.009498922940053944</v>
       </c>
       <c r="J14">
-        <v>14.34673698678765</v>
+        <v>14.34673698678762</v>
       </c>
       <c r="K14">
-        <v>0.08654373038406149</v>
+        <v>0.08654373038405438</v>
       </c>
       <c r="L14">
-        <v>8.834891558609485</v>
+        <v>8.834891558609456</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1999413510219199</v>
+        <v>0.1999413510216783</v>
       </c>
       <c r="D15">
-        <v>0.08708177192428224</v>
+        <v>0.08708177192417565</v>
       </c>
       <c r="E15">
-        <v>0.03426038876691528</v>
+        <v>0.03426038876698456</v>
       </c>
       <c r="F15">
-        <v>4.467825129970521</v>
+        <v>4.467825129970549</v>
       </c>
       <c r="G15">
-        <v>3.654248497235244</v>
+        <v>3.654248497235258</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.009260096702008447</v>
+        <v>0.009260096702012</v>
       </c>
       <c r="J15">
-        <v>14.1517291951304</v>
+        <v>14.15172919513049</v>
       </c>
       <c r="K15">
-        <v>0.08552658196629892</v>
+        <v>0.08552658196632024</v>
       </c>
       <c r="L15">
-        <v>8.713732945011827</v>
+        <v>8.713732945011941</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -950,10 +950,10 @@
         <v>0.1822106258779002</v>
       </c>
       <c r="D16">
-        <v>0.07344095179921339</v>
+        <v>0.07344095179934129</v>
       </c>
       <c r="E16">
-        <v>0.03264419901764626</v>
+        <v>0.03264419901764803</v>
       </c>
       <c r="F16">
         <v>4.000681858312561</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.008110339886279405</v>
+        <v>0.008110339886292728</v>
       </c>
       <c r="J16">
-        <v>13.06252439713472</v>
+        <v>13.06252439713467</v>
       </c>
       <c r="K16">
-        <v>0.07981144959207143</v>
+        <v>0.07981144959208564</v>
       </c>
       <c r="L16">
-        <v>8.037706540141329</v>
+        <v>8.037706540141357</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1719151744789968</v>
+        <v>0.1719151744791105</v>
       </c>
       <c r="D17">
-        <v>0.06599379063096222</v>
+        <v>0.0659937906310617</v>
       </c>
       <c r="E17">
-        <v>0.03169208297357962</v>
+        <v>0.03169208297356718</v>
       </c>
       <c r="F17">
         <v>3.736391695845924</v>
       </c>
       <c r="G17">
-        <v>3.042574713860716</v>
+        <v>3.042574713860702</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.007575515496792029</v>
+        <v>0.007575515496780483</v>
       </c>
       <c r="J17">
-        <v>12.41612651123231</v>
+        <v>12.41612651123233</v>
       </c>
       <c r="K17">
-        <v>0.07639320719843923</v>
+        <v>0.07639320719844633</v>
       </c>
       <c r="L17">
-        <v>7.63706767356868</v>
+        <v>7.637067673568652</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1661762969121696</v>
+        <v>0.1661762969122123</v>
       </c>
       <c r="D18">
-        <v>0.06199692681045121</v>
+        <v>0.06199692681035174</v>
       </c>
       <c r="E18">
-        <v>0.03115734733803599</v>
+        <v>0.03115734733800579</v>
       </c>
       <c r="F18">
-        <v>3.59137790963149</v>
+        <v>3.591377909631461</v>
       </c>
       <c r="G18">
-        <v>2.921668606976183</v>
+        <v>2.921668606976112</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.00732210605950101</v>
+        <v>0.007322106059485911</v>
       </c>
       <c r="J18">
-        <v>12.0511589147292</v>
+        <v>12.05115891472923</v>
       </c>
       <c r="K18">
-        <v>0.0744546903279506</v>
+        <v>0.0744546903279435</v>
       </c>
       <c r="L18">
-        <v>7.411041140069869</v>
+        <v>7.411041140069813</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,31 +1064,31 @@
         <v>0.1642620571842173</v>
       </c>
       <c r="D19">
-        <v>0.06068864321419909</v>
+        <v>0.06068864321432699</v>
       </c>
       <c r="E19">
-        <v>0.03097837709162299</v>
+        <v>0.03097837709163187</v>
       </c>
       <c r="F19">
-        <v>3.543383163960584</v>
+        <v>3.543383163960499</v>
       </c>
       <c r="G19">
-        <v>2.881681763173859</v>
+        <v>2.881681763173802</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.007244920524223986</v>
+        <v>0.007244920524250631</v>
       </c>
       <c r="J19">
-        <v>11.92866119579378</v>
+        <v>11.92866119579372</v>
       </c>
       <c r="K19">
-        <v>0.07380268649744082</v>
+        <v>0.07380268649740884</v>
       </c>
       <c r="L19">
-        <v>7.335206841227858</v>
+        <v>7.33520684122783</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1729915965852342</v>
+        <v>0.1729915965859448</v>
       </c>
       <c r="D20">
-        <v>0.06675585336009959</v>
+        <v>0.06675585336030565</v>
       </c>
       <c r="E20">
-        <v>0.03179207012871288</v>
+        <v>0.03179207012870755</v>
       </c>
       <c r="F20">
-        <v>3.763777408182051</v>
+        <v>3.763777408182079</v>
       </c>
       <c r="G20">
-        <v>3.06542218147186</v>
+        <v>3.065422181471916</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.007626666914863023</v>
+        <v>0.007626666914856806</v>
       </c>
       <c r="J20">
-        <v>12.48420639507185</v>
+        <v>12.48420639507202</v>
       </c>
       <c r="K20">
-        <v>0.07675413618869698</v>
+        <v>0.07675413618868987</v>
       </c>
       <c r="L20">
-        <v>7.679244389968375</v>
+        <v>7.679244389968432</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.204728514771233</v>
+        <v>0.2047285147709914</v>
       </c>
       <c r="D21">
-        <v>0.090938356514215</v>
+        <v>0.09093835651414395</v>
       </c>
       <c r="E21">
-        <v>0.03469127712380349</v>
+        <v>0.03469127712382125</v>
       </c>
       <c r="F21">
-        <v>4.59646323810793</v>
+        <v>4.596463238107873</v>
       </c>
       <c r="G21">
-        <v>3.762113852278716</v>
+        <v>3.762113852278674</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.009617716971646928</v>
+        <v>0.009617716971658474</v>
       </c>
       <c r="J21">
-        <v>14.44080486211737</v>
+        <v>14.44080486211735</v>
       </c>
       <c r="K21">
-        <v>0.08703371147903027</v>
+        <v>0.08703371147897698</v>
       </c>
       <c r="L21">
-        <v>8.893349740788636</v>
+        <v>8.893349740788665</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1178,31 +1178,31 @@
         <v>0.2278700328444501</v>
       </c>
       <c r="D22">
-        <v>0.1106015986554567</v>
+        <v>0.1106015986554141</v>
       </c>
       <c r="E22">
-        <v>0.03673866131083692</v>
+        <v>0.03673866131085113</v>
       </c>
       <c r="F22">
-        <v>5.232769126558111</v>
+        <v>5.232769126558139</v>
       </c>
       <c r="G22">
-        <v>4.296800826399021</v>
+        <v>4.296800826399036</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01161195701357798</v>
+        <v>0.01161195701356377</v>
       </c>
       <c r="J22">
         <v>15.80970658830012</v>
       </c>
       <c r="K22">
-        <v>0.09411350127352947</v>
+        <v>0.09411350127351881</v>
       </c>
       <c r="L22">
-        <v>9.745068915649597</v>
+        <v>9.745068915649654</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2152512513459612</v>
+        <v>0.2152512513452365</v>
       </c>
       <c r="D23">
-        <v>0.09967111367191706</v>
+        <v>0.09967111367200232</v>
       </c>
       <c r="E23">
-        <v>0.03562973583032836</v>
+        <v>0.03562973583031592</v>
       </c>
       <c r="F23">
-        <v>4.882866404772159</v>
+        <v>4.882866404772102</v>
       </c>
       <c r="G23">
-        <v>4.002551538535258</v>
+        <v>4.002551538535229</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0.01047109384376999</v>
       </c>
       <c r="J23">
-        <v>15.06902688059554</v>
+        <v>15.06902688059549</v>
       </c>
       <c r="K23">
-        <v>0.09029466017932464</v>
+        <v>0.09029466017936727</v>
       </c>
       <c r="L23">
-        <v>9.283986021613998</v>
+        <v>9.28398602161397</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1725043923598122</v>
+        <v>0.1725043923595138</v>
       </c>
       <c r="D24">
-        <v>0.06641045039580007</v>
+        <v>0.06641045039579296</v>
       </c>
       <c r="E24">
-        <v>0.03174682690561603</v>
+        <v>0.03174682690562847</v>
       </c>
       <c r="F24">
-        <v>3.751375019298393</v>
+        <v>3.751375019298422</v>
       </c>
       <c r="G24">
         <v>3.055074504204313</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.007603374919124661</v>
+        <v>0.007603374919134431</v>
       </c>
       <c r="J24">
-        <v>12.45340702671143</v>
+        <v>12.45340702671149</v>
       </c>
       <c r="K24">
-        <v>0.07659087819863686</v>
+        <v>0.07659087819862975</v>
       </c>
       <c r="L24">
-        <v>7.660163062209591</v>
+        <v>7.660163062209563</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1332491503393811</v>
+        <v>0.1332491503391537</v>
       </c>
       <c r="D25">
-        <v>0.04128937037551594</v>
+        <v>0.04128937037560831</v>
       </c>
       <c r="E25">
-        <v>0.02804235451103487</v>
+        <v>0.02804235451104375</v>
       </c>
       <c r="F25">
         <v>2.793501388374523</v>
       </c>
       <c r="G25">
-        <v>2.259023116938721</v>
+        <v>2.259023116938735</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.006545747365446886</v>
+        <v>0.006545747365453103</v>
       </c>
       <c r="J25">
-        <v>9.887529220249888</v>
+        <v>9.887529220249917</v>
       </c>
       <c r="K25">
-        <v>0.06284068420127653</v>
+        <v>0.06284068420128364</v>
       </c>
       <c r="L25">
-        <v>6.073772250549155</v>
+        <v>6.073772250549183</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
@@ -418,28 +418,28 @@
         <v>0.1078113842995947</v>
       </c>
       <c r="D2">
-        <v>0.02807955547451613</v>
+        <v>0.02807955547474705</v>
       </c>
       <c r="E2">
-        <v>0.02559880918524371</v>
+        <v>0.02559880918521351</v>
       </c>
       <c r="F2">
-        <v>2.22160534959724</v>
+        <v>2.221605349597212</v>
       </c>
       <c r="G2">
-        <v>1.787420617253275</v>
+        <v>1.787420617253261</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.006857054926833861</v>
+        <v>0.00685705492681965</v>
       </c>
       <c r="J2">
-        <v>8.124049666057033</v>
+        <v>8.124049666057118</v>
       </c>
       <c r="K2">
-        <v>0.05322657439985079</v>
+        <v>0.05322657439986145</v>
       </c>
       <c r="L2">
         <v>4.987260301922106</v>
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09197290338357789</v>
+        <v>0.09197290338379105</v>
       </c>
       <c r="D3">
-        <v>0.02122984316470422</v>
+        <v>0.02122984316490673</v>
       </c>
       <c r="E3">
-        <v>0.02407470246549615</v>
+        <v>0.02407470246549259</v>
       </c>
       <c r="F3">
         <v>1.888623421526532</v>
       </c>
       <c r="G3">
-        <v>1.514614565532227</v>
+        <v>1.514614565532241</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.007541881484761426</v>
+        <v>0.007541881484756985</v>
       </c>
       <c r="J3">
-        <v>6.977529258335522</v>
+        <v>6.977529258335579</v>
       </c>
       <c r="K3">
-        <v>0.04690766142250169</v>
+        <v>0.04690766142249636</v>
       </c>
       <c r="L3">
-        <v>4.282596780522866</v>
+        <v>4.282596780522823</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08275900915846535</v>
+        <v>0.08275900915823797</v>
       </c>
       <c r="D4">
-        <v>0.01778674785796497</v>
+        <v>0.01778674785795076</v>
       </c>
       <c r="E4">
-        <v>0.02319265681416383</v>
+        <v>0.02319265681417093</v>
       </c>
       <c r="F4">
         <v>1.704395384505773</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.008147647654817014</v>
+        <v>0.008147647654825008</v>
       </c>
       <c r="J4">
-        <v>6.290419394100383</v>
+        <v>6.290419394100439</v>
       </c>
       <c r="K4">
-        <v>0.04309558561017646</v>
+        <v>0.04309558561018001</v>
       </c>
       <c r="L4">
-        <v>3.860983107219027</v>
+        <v>3.860983107219042</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07911103429022148</v>
+        <v>0.07911103429046307</v>
       </c>
       <c r="D5">
-        <v>0.01654284389093164</v>
+        <v>0.0165428438909494</v>
       </c>
       <c r="E5">
-        <v>0.02284533869874572</v>
+        <v>0.02284533869875283</v>
       </c>
       <c r="F5">
-        <v>1.633600290269328</v>
+        <v>1.633600290269314</v>
       </c>
       <c r="G5">
-        <v>1.306889099936924</v>
+        <v>1.306889099936953</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.008435262639061136</v>
+        <v>0.008435262639042485</v>
       </c>
       <c r="J5">
-        <v>6.013795564222647</v>
+        <v>6.013795564222704</v>
       </c>
       <c r="K5">
-        <v>0.04155563130540152</v>
+        <v>0.04155563130539441</v>
       </c>
       <c r="L5">
-        <v>3.691398953083933</v>
+        <v>3.691398953083919</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.078511173085829</v>
+        <v>0.07851117308581479</v>
       </c>
       <c r="D6">
-        <v>0.01634506921160295</v>
+        <v>0.01634506921149992</v>
       </c>
       <c r="E6">
-        <v>0.02278836221487879</v>
+        <v>0.02278836221486458</v>
       </c>
       <c r="F6">
         <v>1.622082344025245</v>
       </c>
       <c r="G6">
-        <v>1.297537854427247</v>
+        <v>1.297537854427262</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.008485331540487806</v>
+        <v>0.008485331540483365</v>
       </c>
       <c r="J6">
-        <v>5.968044054762771</v>
+        <v>5.9680440547628</v>
       </c>
       <c r="K6">
-        <v>0.04130064584669668</v>
+        <v>0.04130064584670201</v>
       </c>
       <c r="L6">
         <v>3.663359733291784</v>
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0827094050474102</v>
+        <v>0.08270940504743862</v>
       </c>
       <c r="D7">
-        <v>0.01776936628195713</v>
+        <v>0.01776936628192871</v>
       </c>
       <c r="E7">
-        <v>0.02318792536459391</v>
+        <v>0.02318792536461167</v>
       </c>
       <c r="F7">
-        <v>1.703424253539922</v>
+        <v>1.703424253539936</v>
       </c>
       <c r="G7">
-        <v>1.363638917951022</v>
+        <v>1.36363891795105</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.008151368451032148</v>
+        <v>0.008151368451039254</v>
       </c>
       <c r="J7">
-        <v>6.286676097964005</v>
+        <v>6.286676097963976</v>
       </c>
       <c r="K7">
-        <v>0.04307476684805778</v>
+        <v>0.04307476684806311</v>
       </c>
       <c r="L7">
-        <v>3.858687681751988</v>
+        <v>3.858687681752002</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.10222986330227</v>
+        <v>0.1022298633025116</v>
       </c>
       <c r="D8">
-        <v>0.02553778570472431</v>
+        <v>0.02553778570471366</v>
       </c>
       <c r="E8">
-        <v>0.02506122536217248</v>
+        <v>0.0250612253621636</v>
       </c>
       <c r="F8">
-        <v>2.102061971931391</v>
+        <v>2.10206197193142</v>
       </c>
       <c r="G8">
-        <v>1.689303885525462</v>
+        <v>1.689303885525476</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.007050867147382789</v>
+        <v>0.007050867147401441</v>
       </c>
       <c r="J8">
-        <v>7.724662801802424</v>
+        <v>7.724662801802452</v>
       </c>
       <c r="K8">
-        <v>0.05103141441160197</v>
+        <v>0.05103141441162151</v>
       </c>
       <c r="L8">
-        <v>4.741633722761406</v>
+        <v>4.741633722761463</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.145808344684724</v>
+        <v>0.1458083446844256</v>
       </c>
       <c r="D9">
-        <v>0.04872953129842728</v>
+        <v>0.04872953129851965</v>
       </c>
       <c r="E9">
-        <v>0.02923887757793509</v>
+        <v>0.02923887757791732</v>
       </c>
       <c r="F9">
-        <v>3.090694138307271</v>
+        <v>3.090694138307299</v>
       </c>
       <c r="G9">
-        <v>2.50529015117732</v>
+        <v>2.505290151177306</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.006698554483373087</v>
+        <v>0.006698554483365982</v>
       </c>
       <c r="J9">
-        <v>10.72741332556254</v>
+        <v>10.72741332556248</v>
       </c>
       <c r="K9">
-        <v>0.06737339031383627</v>
+        <v>0.06737339031383982</v>
       </c>
       <c r="L9">
-        <v>6.59233186503576</v>
+        <v>6.592331865035675</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.183412280806337</v>
+        <v>0.1834122808063086</v>
       </c>
       <c r="D10">
-        <v>0.07433305937075119</v>
+        <v>0.07433305937065171</v>
       </c>
       <c r="E10">
-        <v>0.03275469753959293</v>
+        <v>0.03275469753961424</v>
       </c>
       <c r="F10">
-        <v>4.031868275376866</v>
+        <v>4.031868275376894</v>
       </c>
       <c r="G10">
-        <v>3.289318311479761</v>
+        <v>3.289318311479732</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.008179286088743076</v>
+        <v>0.008179286088693338</v>
       </c>
       <c r="J10">
         <v>13.1372880637912</v>
       </c>
       <c r="K10">
-        <v>0.08020555025558807</v>
+        <v>0.08020555025559517</v>
       </c>
       <c r="L10">
-        <v>8.084071780533151</v>
+        <v>8.084071780533122</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,31 +760,31 @@
         <v>0.202546911564184</v>
       </c>
       <c r="D11">
-        <v>0.08917177040216728</v>
+        <v>0.08917177040216018</v>
       </c>
       <c r="E11">
-        <v>0.03449521268786171</v>
+        <v>0.03449521268785105</v>
       </c>
       <c r="F11">
-        <v>4.537710421064361</v>
+        <v>4.537710421064304</v>
       </c>
       <c r="G11">
-        <v>3.712838517713152</v>
+        <v>3.712838517713138</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.00945232652457495</v>
+        <v>0.00945232652459449</v>
       </c>
       <c r="J11">
-        <v>14.30932502873301</v>
+        <v>14.30932502873293</v>
       </c>
       <c r="K11">
-        <v>0.08634873719944736</v>
+        <v>0.08634873719942604</v>
       </c>
       <c r="L11">
-        <v>8.811644493223127</v>
+        <v>8.811644493223156</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2101894167106764</v>
+        <v>0.2101894167108895</v>
       </c>
       <c r="D12">
-        <v>0.09542666783359266</v>
+        <v>0.09542666783348608</v>
       </c>
       <c r="E12">
-        <v>0.03517981741245535</v>
+        <v>0.03517981741241982</v>
       </c>
       <c r="F12">
         <v>4.744476300559342</v>
       </c>
       <c r="G12">
-        <v>3.886324100695134</v>
+        <v>3.886324100695177</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01004920337778703</v>
+        <v>0.01004920337777993</v>
       </c>
       <c r="J12">
-        <v>14.76805011344243</v>
+        <v>14.76805011344254</v>
       </c>
       <c r="K12">
-        <v>0.08873483728124398</v>
+        <v>0.08873483728129372</v>
       </c>
       <c r="L12">
-        <v>9.096784907247866</v>
+        <v>9.096784907247894</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2085236521170373</v>
+        <v>0.2085236521164973</v>
       </c>
       <c r="D13">
-        <v>0.09404756526594582</v>
+        <v>0.09404756526607372</v>
       </c>
       <c r="E13">
-        <v>0.03503113849431827</v>
+        <v>0.03503113849432182</v>
       </c>
       <c r="F13">
         <v>4.699184728563978</v>
       </c>
       <c r="G13">
-        <v>3.848305105132582</v>
+        <v>3.848305105132567</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.009914957812818592</v>
+        <v>0.009914957812812375</v>
       </c>
       <c r="J13">
-        <v>14.66851036421622</v>
+        <v>14.66851036421625</v>
       </c>
       <c r="K13">
         <v>0.08821796413347727</v>
       </c>
       <c r="L13">
-        <v>9.03489358726469</v>
+        <v>9.034893587264747</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.203166951038213</v>
+        <v>0.203166951038682</v>
       </c>
       <c r="D14">
-        <v>0.08967231475194382</v>
+        <v>0.0896723147519225</v>
       </c>
       <c r="E14">
-        <v>0.03455098805017798</v>
+        <v>0.03455098805018153</v>
       </c>
       <c r="F14">
-        <v>4.554386652966599</v>
+        <v>4.554386652966542</v>
       </c>
       <c r="G14">
-        <v>3.726822982553969</v>
+        <v>3.726822982553955</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.009498922940053944</v>
+        <v>0.009498922940057497</v>
       </c>
       <c r="J14">
-        <v>14.34673698678762</v>
+        <v>14.34673698678765</v>
       </c>
       <c r="K14">
-        <v>0.08654373038405438</v>
+        <v>0.08654373038406149</v>
       </c>
       <c r="L14">
-        <v>8.834891558609456</v>
+        <v>8.834891558609485</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1999413510216783</v>
+        <v>0.1999413510219199</v>
       </c>
       <c r="D15">
-        <v>0.08708177192417565</v>
+        <v>0.08708177192428224</v>
       </c>
       <c r="E15">
-        <v>0.03426038876698456</v>
+        <v>0.03426038876691528</v>
       </c>
       <c r="F15">
-        <v>4.467825129970549</v>
+        <v>4.467825129970521</v>
       </c>
       <c r="G15">
-        <v>3.654248497235258</v>
+        <v>3.654248497235244</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.009260096702012</v>
+        <v>0.009260096702008447</v>
       </c>
       <c r="J15">
-        <v>14.15172919513049</v>
+        <v>14.1517291951304</v>
       </c>
       <c r="K15">
-        <v>0.08552658196632024</v>
+        <v>0.08552658196629892</v>
       </c>
       <c r="L15">
-        <v>8.713732945011941</v>
+        <v>8.713732945011827</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -950,10 +950,10 @@
         <v>0.1822106258779002</v>
       </c>
       <c r="D16">
-        <v>0.07344095179934129</v>
+        <v>0.07344095179921339</v>
       </c>
       <c r="E16">
-        <v>0.03264419901764803</v>
+        <v>0.03264419901764626</v>
       </c>
       <c r="F16">
         <v>4.000681858312561</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.008110339886292728</v>
+        <v>0.008110339886279405</v>
       </c>
       <c r="J16">
-        <v>13.06252439713467</v>
+        <v>13.06252439713472</v>
       </c>
       <c r="K16">
-        <v>0.07981144959208564</v>
+        <v>0.07981144959207143</v>
       </c>
       <c r="L16">
-        <v>8.037706540141357</v>
+        <v>8.037706540141329</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1719151744791105</v>
+        <v>0.1719151744789968</v>
       </c>
       <c r="D17">
-        <v>0.0659937906310617</v>
+        <v>0.06599379063096222</v>
       </c>
       <c r="E17">
-        <v>0.03169208297356718</v>
+        <v>0.03169208297357962</v>
       </c>
       <c r="F17">
         <v>3.736391695845924</v>
       </c>
       <c r="G17">
-        <v>3.042574713860702</v>
+        <v>3.042574713860716</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.007575515496780483</v>
+        <v>0.007575515496792029</v>
       </c>
       <c r="J17">
-        <v>12.41612651123233</v>
+        <v>12.41612651123231</v>
       </c>
       <c r="K17">
-        <v>0.07639320719844633</v>
+        <v>0.07639320719843923</v>
       </c>
       <c r="L17">
-        <v>7.637067673568652</v>
+        <v>7.63706767356868</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1661762969122123</v>
+        <v>0.1661762969121696</v>
       </c>
       <c r="D18">
-        <v>0.06199692681035174</v>
+        <v>0.06199692681045121</v>
       </c>
       <c r="E18">
-        <v>0.03115734733800579</v>
+        <v>0.03115734733803599</v>
       </c>
       <c r="F18">
-        <v>3.591377909631461</v>
+        <v>3.59137790963149</v>
       </c>
       <c r="G18">
-        <v>2.921668606976112</v>
+        <v>2.921668606976183</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.007322106059485911</v>
+        <v>0.00732210605950101</v>
       </c>
       <c r="J18">
-        <v>12.05115891472923</v>
+        <v>12.0511589147292</v>
       </c>
       <c r="K18">
-        <v>0.0744546903279435</v>
+        <v>0.0744546903279506</v>
       </c>
       <c r="L18">
-        <v>7.411041140069813</v>
+        <v>7.411041140069869</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,31 +1064,31 @@
         <v>0.1642620571842173</v>
       </c>
       <c r="D19">
-        <v>0.06068864321432699</v>
+        <v>0.06068864321419909</v>
       </c>
       <c r="E19">
-        <v>0.03097837709163187</v>
+        <v>0.03097837709162299</v>
       </c>
       <c r="F19">
-        <v>3.543383163960499</v>
+        <v>3.543383163960584</v>
       </c>
       <c r="G19">
-        <v>2.881681763173802</v>
+        <v>2.881681763173859</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.007244920524250631</v>
+        <v>0.007244920524223986</v>
       </c>
       <c r="J19">
-        <v>11.92866119579372</v>
+        <v>11.92866119579378</v>
       </c>
       <c r="K19">
-        <v>0.07380268649740884</v>
+        <v>0.07380268649744082</v>
       </c>
       <c r="L19">
-        <v>7.33520684122783</v>
+        <v>7.335206841227858</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1729915965859448</v>
+        <v>0.1729915965852342</v>
       </c>
       <c r="D20">
-        <v>0.06675585336030565</v>
+        <v>0.06675585336009959</v>
       </c>
       <c r="E20">
-        <v>0.03179207012870755</v>
+        <v>0.03179207012871288</v>
       </c>
       <c r="F20">
-        <v>3.763777408182079</v>
+        <v>3.763777408182051</v>
       </c>
       <c r="G20">
-        <v>3.065422181471916</v>
+        <v>3.06542218147186</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.007626666914856806</v>
+        <v>0.007626666914863023</v>
       </c>
       <c r="J20">
-        <v>12.48420639507202</v>
+        <v>12.48420639507185</v>
       </c>
       <c r="K20">
-        <v>0.07675413618868987</v>
+        <v>0.07675413618869698</v>
       </c>
       <c r="L20">
-        <v>7.679244389968432</v>
+        <v>7.679244389968375</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2047285147709914</v>
+        <v>0.204728514771233</v>
       </c>
       <c r="D21">
-        <v>0.09093835651414395</v>
+        <v>0.090938356514215</v>
       </c>
       <c r="E21">
-        <v>0.03469127712382125</v>
+        <v>0.03469127712380349</v>
       </c>
       <c r="F21">
-        <v>4.596463238107873</v>
+        <v>4.59646323810793</v>
       </c>
       <c r="G21">
-        <v>3.762113852278674</v>
+        <v>3.762113852278716</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.009617716971658474</v>
+        <v>0.009617716971646928</v>
       </c>
       <c r="J21">
-        <v>14.44080486211735</v>
+        <v>14.44080486211737</v>
       </c>
       <c r="K21">
-        <v>0.08703371147897698</v>
+        <v>0.08703371147903027</v>
       </c>
       <c r="L21">
-        <v>8.893349740788665</v>
+        <v>8.893349740788636</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1178,31 +1178,31 @@
         <v>0.2278700328444501</v>
       </c>
       <c r="D22">
-        <v>0.1106015986554141</v>
+        <v>0.1106015986554567</v>
       </c>
       <c r="E22">
-        <v>0.03673866131085113</v>
+        <v>0.03673866131083692</v>
       </c>
       <c r="F22">
-        <v>5.232769126558139</v>
+        <v>5.232769126558111</v>
       </c>
       <c r="G22">
-        <v>4.296800826399036</v>
+        <v>4.296800826399021</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01161195701356377</v>
+        <v>0.01161195701357798</v>
       </c>
       <c r="J22">
         <v>15.80970658830012</v>
       </c>
       <c r="K22">
-        <v>0.09411350127351881</v>
+        <v>0.09411350127352947</v>
       </c>
       <c r="L22">
-        <v>9.745068915649654</v>
+        <v>9.745068915649597</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2152512513452365</v>
+        <v>0.2152512513459612</v>
       </c>
       <c r="D23">
-        <v>0.09967111367200232</v>
+        <v>0.09967111367191706</v>
       </c>
       <c r="E23">
-        <v>0.03562973583031592</v>
+        <v>0.03562973583032836</v>
       </c>
       <c r="F23">
-        <v>4.882866404772102</v>
+        <v>4.882866404772159</v>
       </c>
       <c r="G23">
-        <v>4.002551538535229</v>
+        <v>4.002551538535258</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0.01047109384376999</v>
       </c>
       <c r="J23">
-        <v>15.06902688059549</v>
+        <v>15.06902688059554</v>
       </c>
       <c r="K23">
-        <v>0.09029466017936727</v>
+        <v>0.09029466017932464</v>
       </c>
       <c r="L23">
-        <v>9.28398602161397</v>
+        <v>9.283986021613998</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1725043923595138</v>
+        <v>0.1725043923598122</v>
       </c>
       <c r="D24">
-        <v>0.06641045039579296</v>
+        <v>0.06641045039580007</v>
       </c>
       <c r="E24">
-        <v>0.03174682690562847</v>
+        <v>0.03174682690561603</v>
       </c>
       <c r="F24">
-        <v>3.751375019298422</v>
+        <v>3.751375019298393</v>
       </c>
       <c r="G24">
         <v>3.055074504204313</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.007603374919134431</v>
+        <v>0.007603374919124661</v>
       </c>
       <c r="J24">
-        <v>12.45340702671149</v>
+        <v>12.45340702671143</v>
       </c>
       <c r="K24">
-        <v>0.07659087819862975</v>
+        <v>0.07659087819863686</v>
       </c>
       <c r="L24">
-        <v>7.660163062209563</v>
+        <v>7.660163062209591</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1332491503391537</v>
+        <v>0.1332491503393811</v>
       </c>
       <c r="D25">
-        <v>0.04128937037560831</v>
+        <v>0.04128937037551594</v>
       </c>
       <c r="E25">
-        <v>0.02804235451104375</v>
+        <v>0.02804235451103487</v>
       </c>
       <c r="F25">
         <v>2.793501388374523</v>
       </c>
       <c r="G25">
-        <v>2.259023116938735</v>
+        <v>2.259023116938721</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.006545747365453103</v>
+        <v>0.006545747365446886</v>
       </c>
       <c r="J25">
-        <v>9.887529220249917</v>
+        <v>9.887529220249888</v>
       </c>
       <c r="K25">
-        <v>0.06284068420128364</v>
+        <v>0.06284068420127653</v>
       </c>
       <c r="L25">
-        <v>6.073772250549183</v>
+        <v>6.073772250549155</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1078113842995947</v>
+        <v>0.1078078244328537</v>
       </c>
       <c r="D2">
-        <v>0.02807955547474705</v>
+        <v>0.02789689391554973</v>
       </c>
       <c r="E2">
-        <v>0.02559880918521351</v>
+        <v>0.02556912397400346</v>
       </c>
       <c r="F2">
-        <v>2.221605349597212</v>
+        <v>2.216876954215905</v>
       </c>
       <c r="G2">
-        <v>1.787420617253261</v>
+        <v>0.6019337109631948</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.184281485586069</v>
       </c>
       <c r="I2">
-        <v>0.00685705492681965</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.124049666057118</v>
+        <v>0.006874005986401421</v>
       </c>
       <c r="K2">
-        <v>0.05322657439986145</v>
+        <v>8.123138437282933</v>
       </c>
       <c r="L2">
-        <v>4.987260301922106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.05319188679926157</v>
+      </c>
+      <c r="M2">
+        <v>4.986906579193885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09197290338379105</v>
+        <v>0.09197249122735229</v>
       </c>
       <c r="D3">
-        <v>0.02122984316490673</v>
+        <v>0.0210818331931435</v>
       </c>
       <c r="E3">
-        <v>0.02407470246549259</v>
+        <v>0.02404942728970916</v>
       </c>
       <c r="F3">
-        <v>1.888623421526532</v>
+        <v>1.884652493373295</v>
       </c>
       <c r="G3">
-        <v>1.514614565532241</v>
+        <v>0.5045682325064575</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.009806657978501</v>
       </c>
       <c r="I3">
-        <v>0.007541881484756985</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6.977529258335579</v>
+        <v>0.00755582223340312</v>
       </c>
       <c r="K3">
-        <v>0.04690766142249636</v>
+        <v>6.976923326243593</v>
       </c>
       <c r="L3">
-        <v>4.282596780522823</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.04687922138102785</v>
+      </c>
+      <c r="M3">
+        <v>4.282402996140007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08275900915823797</v>
+        <v>0.0827600034053404</v>
       </c>
       <c r="D4">
-        <v>0.01778674785795076</v>
+        <v>0.0176570952838766</v>
       </c>
       <c r="E4">
-        <v>0.02319265681417093</v>
+        <v>0.02317032019382204</v>
       </c>
       <c r="F4">
-        <v>1.704395384505773</v>
+        <v>1.700841138745886</v>
       </c>
       <c r="G4">
-        <v>1.364428920206521</v>
+        <v>0.4505310371221611</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9141943319073249</v>
       </c>
       <c r="I4">
-        <v>0.008147647654825008</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6.290419394100439</v>
+        <v>0.008159847850244262</v>
       </c>
       <c r="K4">
-        <v>0.04309558561018001</v>
+        <v>6.289964557302</v>
       </c>
       <c r="L4">
-        <v>3.860983107219042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.04307085554473034</v>
+      </c>
+      <c r="M4">
+        <v>3.860864767549089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07911103429046307</v>
+        <v>0.07911250446396423</v>
       </c>
       <c r="D5">
-        <v>0.0165428438909494</v>
+        <v>0.01642007971124926</v>
       </c>
       <c r="E5">
-        <v>0.02284533869875283</v>
+        <v>0.02282425347543082</v>
       </c>
       <c r="F5">
-        <v>1.633600290269314</v>
+        <v>1.630206166345545</v>
       </c>
       <c r="G5">
-        <v>1.306889099936953</v>
+        <v>0.4297207327746548</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8776718102989491</v>
       </c>
       <c r="I5">
-        <v>0.008435262639042485</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.013795564222704</v>
+        <v>0.008446779166519924</v>
       </c>
       <c r="K5">
-        <v>0.04155563130539441</v>
+        <v>6.013395114351539</v>
       </c>
       <c r="L5">
-        <v>3.691398953083919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.04153239168080525</v>
+      </c>
+      <c r="M5">
+        <v>3.69130685559071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07851117308581479</v>
+        <v>0.07851271726130449</v>
       </c>
       <c r="D6">
-        <v>0.01634506921149992</v>
+        <v>0.01622341661110838</v>
       </c>
       <c r="E6">
-        <v>0.02278836221486458</v>
+        <v>0.02276748793015315</v>
       </c>
       <c r="F6">
-        <v>1.622082344025245</v>
+        <v>1.618714285622161</v>
       </c>
       <c r="G6">
-        <v>1.297537854427262</v>
+        <v>0.4263322090200461</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8717428371439695</v>
       </c>
       <c r="I6">
-        <v>0.008485331540483365</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5.9680440547628</v>
+        <v>0.008496736036891939</v>
       </c>
       <c r="K6">
-        <v>0.04130064584670201</v>
+        <v>5.967652250219601</v>
       </c>
       <c r="L6">
-        <v>3.663359733291784</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.04127765267283401</v>
+      </c>
+      <c r="M6">
+        <v>3.663271751517868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08270940504743862</v>
+        <v>0.08271040606726388</v>
       </c>
       <c r="D7">
-        <v>0.01776936628192871</v>
+        <v>0.01763980884154748</v>
       </c>
       <c r="E7">
-        <v>0.02318792536461167</v>
+        <v>0.02316560540781154</v>
       </c>
       <c r="F7">
-        <v>1.703424253539936</v>
+        <v>1.69987220355965</v>
       </c>
       <c r="G7">
-        <v>1.36363891795105</v>
+        <v>0.4502457617470554</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9136924398384281</v>
       </c>
       <c r="I7">
-        <v>0.008151368451039254</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6.286676097963976</v>
+        <v>0.008163559325007341</v>
       </c>
       <c r="K7">
-        <v>0.04307476684806311</v>
+        <v>6.286222021497849</v>
       </c>
       <c r="L7">
-        <v>3.858687681752002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.0430500569579948</v>
+      </c>
+      <c r="M7">
+        <v>3.858569712825215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1022298633025116</v>
+        <v>0.1022275226565199</v>
       </c>
       <c r="D8">
-        <v>0.02553778570471366</v>
+        <v>0.02536777420841929</v>
       </c>
       <c r="E8">
-        <v>0.0250612253621636</v>
+        <v>0.02503301019039306</v>
       </c>
       <c r="F8">
-        <v>2.10206197193142</v>
+        <v>2.097606502805789</v>
       </c>
       <c r="G8">
-        <v>1.689303885525476</v>
+        <v>0.5670143400579946</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.121430823621523</v>
       </c>
       <c r="I8">
-        <v>0.007050867147401441</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7.724662801802452</v>
+        <v>0.007066757259494238</v>
       </c>
       <c r="K8">
-        <v>0.05103141441162151</v>
+        <v>7.723865730133468</v>
       </c>
       <c r="L8">
-        <v>4.741633722761463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.0509989141547571</v>
+      </c>
+      <c r="M8">
+        <v>4.741340709975773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1458083446844256</v>
+        <v>0.1457928947433231</v>
       </c>
       <c r="D9">
-        <v>0.04872953129851965</v>
+        <v>0.0484481841281692</v>
       </c>
       <c r="E9">
-        <v>0.02923887757791732</v>
+        <v>0.02920114969124477</v>
       </c>
       <c r="F9">
-        <v>3.090694138307299</v>
+        <v>3.083925255448122</v>
       </c>
       <c r="G9">
-        <v>2.505290151177306</v>
+        <v>0.8550995228211349</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.646435552594596</v>
       </c>
       <c r="I9">
-        <v>0.006698554483365982</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>10.72741332556248</v>
+        <v>0.006722546272456498</v>
       </c>
       <c r="K9">
-        <v>0.06737339031383982</v>
+        <v>10.72552980315703</v>
       </c>
       <c r="L9">
-        <v>6.592331865035675</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.06732396656581585</v>
+      </c>
+      <c r="M9">
+        <v>6.591436556257293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1834122808063086</v>
+        <v>0.1833776163534537</v>
       </c>
       <c r="D10">
-        <v>0.07433305937065171</v>
+        <v>0.07393145904113396</v>
       </c>
       <c r="E10">
-        <v>0.03275469753961424</v>
+        <v>0.03271158994840739</v>
       </c>
       <c r="F10">
-        <v>4.031868275376894</v>
+        <v>4.022726476393075</v>
       </c>
       <c r="G10">
-        <v>3.289318311479732</v>
+        <v>1.128615031062111</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.154069433067477</v>
       </c>
       <c r="I10">
-        <v>0.008179286088693338</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>13.1372880637912</v>
+        <v>0.00820945785710947</v>
       </c>
       <c r="K10">
-        <v>0.08020555025559517</v>
+        <v>13.13407760112713</v>
       </c>
       <c r="L10">
-        <v>8.084071780533122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.08014130050470314</v>
+      </c>
+      <c r="M10">
+        <v>8.082402270979713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.202546911564184</v>
+        <v>0.2024989051545276</v>
       </c>
       <c r="D11">
-        <v>0.08917177040216018</v>
+        <v>0.0886993612987439</v>
       </c>
       <c r="E11">
-        <v>0.03449521268785105</v>
+        <v>0.03445010789066494</v>
       </c>
       <c r="F11">
-        <v>4.537710421064304</v>
+        <v>4.527200164592813</v>
       </c>
       <c r="G11">
-        <v>3.712838517713138</v>
+        <v>1.275520003065495</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.429062882781508</v>
       </c>
       <c r="I11">
-        <v>0.00945232652459449</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>14.30932502873293</v>
+        <v>0.009485109127052915</v>
       </c>
       <c r="K11">
-        <v>0.08634873719942604</v>
+        <v>14.30527924153409</v>
       </c>
       <c r="L11">
-        <v>8.811644493223156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.08627665519638228</v>
+      </c>
+      <c r="M11">
+        <v>8.809476928662662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2101894167108895</v>
+        <v>0.2101352916313459</v>
       </c>
       <c r="D12">
-        <v>0.09542666783348608</v>
+        <v>0.09492396580480289</v>
       </c>
       <c r="E12">
-        <v>0.03517981741241982</v>
+        <v>0.03513403110739333</v>
       </c>
       <c r="F12">
-        <v>4.744476300559342</v>
+        <v>4.733384585998607</v>
       </c>
       <c r="G12">
-        <v>3.886324100695177</v>
+        <v>1.335560978905846</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.541826334571923</v>
       </c>
       <c r="I12">
-        <v>0.01004920337777993</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>14.76805011344254</v>
+        <v>0.01008289320430045</v>
       </c>
       <c r="K12">
-        <v>0.08873483728129372</v>
+        <v>14.76363674438056</v>
       </c>
       <c r="L12">
-        <v>9.096784907247894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.08865954799340159</v>
+      </c>
+      <c r="M12">
+        <v>9.094396384746517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2085236521164973</v>
+        <v>0.2084709017067468</v>
       </c>
       <c r="D13">
-        <v>0.09404756526607372</v>
+        <v>0.09355156844389967</v>
       </c>
       <c r="E13">
-        <v>0.03503113849432182</v>
+        <v>0.03498549546696594</v>
       </c>
       <c r="F13">
-        <v>4.699184728563978</v>
+        <v>4.688221549105208</v>
       </c>
       <c r="G13">
-        <v>3.848305105132567</v>
+        <v>1.322409342005855</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.517109153665132</v>
       </c>
       <c r="I13">
-        <v>0.009914957812812375</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>14.66851036421625</v>
+        <v>0.009948457243613262</v>
       </c>
       <c r="K13">
-        <v>0.08821796413347727</v>
+        <v>14.66417885146899</v>
       </c>
       <c r="L13">
-        <v>9.034893587264747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.08814337824587071</v>
+      </c>
+      <c r="M13">
+        <v>9.032554352194126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.203166951038682</v>
+        <v>0.2031184659107907</v>
       </c>
       <c r="D14">
-        <v>0.0896723147519225</v>
+        <v>0.08919749235153773</v>
       </c>
       <c r="E14">
-        <v>0.03455098805018153</v>
+        <v>0.03450582562468618</v>
       </c>
       <c r="F14">
-        <v>4.554386652966542</v>
+        <v>4.543829999714347</v>
       </c>
       <c r="G14">
-        <v>3.726822982553955</v>
+        <v>1.28036256991922</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.438150258760842</v>
       </c>
       <c r="I14">
-        <v>0.009498922940057497</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>14.34673698678765</v>
+        <v>0.009531782284797785</v>
       </c>
       <c r="K14">
-        <v>0.08654373038406149</v>
+        <v>14.34266212907119</v>
       </c>
       <c r="L14">
-        <v>8.834891558609485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.08647139002300008</v>
+      </c>
+      <c r="M14">
+        <v>8.832706555176145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1999413510219199</v>
+        <v>0.199895323083453</v>
       </c>
       <c r="D15">
-        <v>0.08708177192428224</v>
+        <v>0.08661942011059409</v>
       </c>
       <c r="E15">
-        <v>0.03426038876691528</v>
+        <v>0.03421553078126749</v>
       </c>
       <c r="F15">
-        <v>4.467825129970521</v>
+        <v>4.457508380912202</v>
       </c>
       <c r="G15">
-        <v>3.654248497235244</v>
+        <v>1.255225957634792</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.390994624934777</v>
       </c>
       <c r="I15">
-        <v>0.009260096702008447</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>14.1517291951304</v>
+        <v>0.009292551019626671</v>
       </c>
       <c r="K15">
-        <v>0.08552658196629892</v>
+        <v>14.14780414964653</v>
       </c>
       <c r="L15">
-        <v>8.713732945011827</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.08545558224876615</v>
+      </c>
+      <c r="M15">
+        <v>8.711637741685763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1822106258779002</v>
+        <v>0.182176711667708</v>
       </c>
       <c r="D16">
-        <v>0.07344095179921339</v>
+        <v>0.07304356977361692</v>
       </c>
       <c r="E16">
-        <v>0.03264419901764626</v>
+        <v>0.03260123183920172</v>
       </c>
       <c r="F16">
-        <v>4.000681858312561</v>
+        <v>3.991622093267893</v>
       </c>
       <c r="G16">
-        <v>3.26325186888127</v>
+        <v>1.11955665257571</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.13715944942993</v>
       </c>
       <c r="I16">
-        <v>0.008110339886279405</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>13.06252439713472</v>
+        <v>0.00814033344341869</v>
       </c>
       <c r="K16">
-        <v>0.07981144959207143</v>
+        <v>13.0593625570788</v>
       </c>
       <c r="L16">
-        <v>8.037706540141329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.07974768358182871</v>
+      </c>
+      <c r="M16">
+        <v>8.036065817368041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1719151744789968</v>
+        <v>0.1718872957488458</v>
       </c>
       <c r="D17">
-        <v>0.06599379063096222</v>
+        <v>0.065631497068388</v>
       </c>
       <c r="E17">
-        <v>0.03169208297357962</v>
+        <v>0.03165039779198864</v>
       </c>
       <c r="F17">
-        <v>3.736391695845924</v>
+        <v>3.728017093743489</v>
       </c>
       <c r="G17">
-        <v>3.042574713860716</v>
+        <v>1.042781831985408</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.99408023193854</v>
       </c>
       <c r="I17">
-        <v>0.007575515496792029</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>12.41612651123231</v>
+        <v>0.007603922681154174</v>
       </c>
       <c r="K17">
-        <v>0.07639320719843923</v>
+        <v>12.4133637011667</v>
       </c>
       <c r="L17">
-        <v>7.63706767356868</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.07633355312845325</v>
+      </c>
+      <c r="M17">
+        <v>7.63566217670936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1661762969121696</v>
+        <v>0.1661514902163219</v>
       </c>
       <c r="D18">
-        <v>0.06199692681045121</v>
+        <v>0.06165339419231941</v>
       </c>
       <c r="E18">
-        <v>0.03115734733803599</v>
+        <v>0.03111644119621459</v>
       </c>
       <c r="F18">
-        <v>3.59137790963149</v>
+        <v>3.58337196857218</v>
       </c>
       <c r="G18">
-        <v>2.921668606976183</v>
+        <v>1.000647377112301</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.915754425783135</v>
       </c>
       <c r="I18">
-        <v>0.00732210605950101</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>12.0511589147292</v>
+        <v>0.007349586604356695</v>
       </c>
       <c r="K18">
-        <v>0.0744546903279506</v>
+        <v>12.04860528193851</v>
       </c>
       <c r="L18">
-        <v>7.411041140069869</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.07439730586883186</v>
+      </c>
+      <c r="M18">
+        <v>7.409758144827066</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1642620571842173</v>
+        <v>0.1642382306790608</v>
       </c>
       <c r="D19">
-        <v>0.06068864321419909</v>
+        <v>0.06035124450743012</v>
       </c>
       <c r="E19">
-        <v>0.03097837709162299</v>
+        <v>0.03093774158932305</v>
       </c>
       <c r="F19">
-        <v>3.543383163960584</v>
+        <v>3.535498156553729</v>
       </c>
       <c r="G19">
-        <v>2.881681763173859</v>
+        <v>0.986700601252565</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.889861069752214</v>
       </c>
       <c r="I19">
-        <v>0.007244920524223986</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>11.92866119579378</v>
+        <v>0.007272085863210265</v>
       </c>
       <c r="K19">
-        <v>0.07380268649744082</v>
+        <v>11.92617528791754</v>
       </c>
       <c r="L19">
-        <v>7.335206841227858</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.07374605598434059</v>
+      </c>
+      <c r="M19">
+        <v>7.333963374527514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1729915965852342</v>
+        <v>0.1729631188755292</v>
       </c>
       <c r="D20">
-        <v>0.06675585336009959</v>
+        <v>0.0663899780823769</v>
       </c>
       <c r="E20">
-        <v>0.03179207012871288</v>
+        <v>0.03175024409461535</v>
       </c>
       <c r="F20">
-        <v>3.763777408182051</v>
+        <v>3.755332620277983</v>
       </c>
       <c r="G20">
-        <v>3.06542218147186</v>
+        <v>1.050738110330883</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.008886777604545</v>
       </c>
       <c r="I20">
-        <v>0.007626666914863023</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>12.48420639507185</v>
+        <v>0.007655244691540553</v>
       </c>
       <c r="K20">
-        <v>0.07675413618869698</v>
+        <v>12.48140331040304</v>
       </c>
       <c r="L20">
-        <v>7.679244389968375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.07669405474780433</v>
+      </c>
+      <c r="M20">
+        <v>7.677815239275077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.204728514771233</v>
+        <v>0.2046788103570378</v>
       </c>
       <c r="D21">
-        <v>0.090938356514215</v>
+        <v>0.09045742189311312</v>
       </c>
       <c r="E21">
-        <v>0.03469127712380349</v>
+        <v>0.03464597141869064</v>
       </c>
       <c r="F21">
-        <v>4.59646323810793</v>
+        <v>4.58578913497206</v>
       </c>
       <c r="G21">
-        <v>3.762113852278716</v>
+        <v>1.292580990133644</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.461084822657028</v>
       </c>
       <c r="I21">
-        <v>0.009617716971646928</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>14.44080486211737</v>
+        <v>0.009650767192824539</v>
       </c>
       <c r="K21">
-        <v>0.08703371147903027</v>
+        <v>14.43665620931205</v>
       </c>
       <c r="L21">
-        <v>8.893349740788636</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.08696071903557367</v>
+      </c>
+      <c r="M21">
+        <v>8.89112044060704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2278700328444501</v>
+        <v>0.2277998045530865</v>
       </c>
       <c r="D22">
-        <v>0.1106015986554567</v>
+        <v>0.1100240146547833</v>
       </c>
       <c r="E22">
-        <v>0.03673866131083692</v>
+        <v>0.03669152252316188</v>
       </c>
       <c r="F22">
-        <v>5.232769126558111</v>
+        <v>5.220247208938559</v>
       </c>
       <c r="G22">
-        <v>4.296800826399021</v>
+        <v>1.477347761901555</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.808859943060554</v>
       </c>
       <c r="I22">
-        <v>0.01161195701357798</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>15.80970658830012</v>
+        <v>0.01164738677998134</v>
       </c>
       <c r="K22">
-        <v>0.09411350127352947</v>
+        <v>15.80436124040125</v>
       </c>
       <c r="L22">
-        <v>9.745068915649597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.09403057871839238</v>
+      </c>
+      <c r="M22">
+        <v>9.742116309234774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2152512513459612</v>
+        <v>0.2151928036889501</v>
       </c>
       <c r="D23">
-        <v>0.09967111367191706</v>
+        <v>0.09914767643898159</v>
       </c>
       <c r="E23">
-        <v>0.03562973583032836</v>
+        <v>0.0355835315084132</v>
       </c>
       <c r="F23">
-        <v>4.882866404772159</v>
+        <v>4.871377751754153</v>
       </c>
       <c r="G23">
-        <v>4.002551538535258</v>
+        <v>1.375745865610682</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.617406508003143</v>
       </c>
       <c r="I23">
-        <v>0.01047109384376999</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>15.06902688059554</v>
+        <v>0.01050533572815127</v>
       </c>
       <c r="K23">
-        <v>0.09029466017932464</v>
+        <v>15.06435866147649</v>
       </c>
       <c r="L23">
-        <v>9.283986021613998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.0902172177045415</v>
+      </c>
+      <c r="M23">
+        <v>9.281443765172327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1725043923598122</v>
+        <v>0.1724761866612567</v>
       </c>
       <c r="D24">
-        <v>0.06641045039580007</v>
+        <v>0.0660461987326002</v>
       </c>
       <c r="E24">
-        <v>0.03174682690561603</v>
+        <v>0.03170506442091892</v>
       </c>
       <c r="F24">
-        <v>3.751375019298393</v>
+        <v>3.742962039614895</v>
       </c>
       <c r="G24">
-        <v>3.055074504204313</v>
+        <v>1.047134914510394</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.002180647334896</v>
       </c>
       <c r="I24">
-        <v>0.007603374919124661</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>12.45340702671143</v>
+        <v>0.007631875613325789</v>
       </c>
       <c r="K24">
-        <v>0.07659087819863686</v>
+        <v>12.45062221202983</v>
       </c>
       <c r="L24">
-        <v>7.660163062209591</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.07653099026055088</v>
+      </c>
+      <c r="M24">
+        <v>7.658744644331051</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1332491503393811</v>
+        <v>0.1332383723153185</v>
       </c>
       <c r="D25">
-        <v>0.04128937037551594</v>
+        <v>0.04104308246429866</v>
       </c>
       <c r="E25">
-        <v>0.02804235451103487</v>
+        <v>0.02800694732077247</v>
       </c>
       <c r="F25">
-        <v>2.793501388374523</v>
+        <v>2.787443515596465</v>
       </c>
       <c r="G25">
-        <v>2.259023116938721</v>
+        <v>0.7686277195858793</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.487520546595306</v>
       </c>
       <c r="I25">
-        <v>0.006545747365446886</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>9.887529220249888</v>
+        <v>0.006567467067263522</v>
       </c>
       <c r="K25">
-        <v>0.06284068420127653</v>
+        <v>9.886005633866404</v>
       </c>
       <c r="L25">
-        <v>6.073772250549155</v>
+        <v>0.062796125831035</v>
+      </c>
+      <c r="M25">
+        <v>6.073081228427839</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1078078244328537</v>
+        <v>0.05960861830143926</v>
       </c>
       <c r="D2">
-        <v>0.02789689391554973</v>
+        <v>0.2717673297711514</v>
       </c>
       <c r="E2">
-        <v>0.02556912397400346</v>
+        <v>0.0391933284689383</v>
       </c>
       <c r="F2">
-        <v>2.216876954215905</v>
+        <v>7.244123520708825</v>
       </c>
       <c r="G2">
-        <v>0.6019337109631948</v>
+        <v>0.0007643686194432342</v>
       </c>
       <c r="H2">
-        <v>1.184281485586069</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006874005986401421</v>
+        <v>0.04162797847334154</v>
       </c>
       <c r="K2">
-        <v>8.123138437282933</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.05319188679926157</v>
+        <v>0.1577951959631037</v>
       </c>
       <c r="M2">
-        <v>4.986906579193885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>6.9145260712462</v>
+      </c>
+      <c r="N2">
+        <v>2.492889398054359</v>
+      </c>
+      <c r="O2">
+        <v>6.169320823750866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09197249122735229</v>
+        <v>0.05955523839936916</v>
       </c>
       <c r="D3">
-        <v>0.0210818331931435</v>
+        <v>0.2288236305408162</v>
       </c>
       <c r="E3">
-        <v>0.02404942728970916</v>
+        <v>0.03586529718437603</v>
       </c>
       <c r="F3">
-        <v>1.884652493373295</v>
+        <v>6.408165917206873</v>
       </c>
       <c r="G3">
-        <v>0.5045682325064575</v>
+        <v>0.0007882690918657643</v>
       </c>
       <c r="H3">
-        <v>1.009806657978501</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00755582223340312</v>
+        <v>0.04606860719418471</v>
       </c>
       <c r="K3">
-        <v>6.976923326243593</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.04687922138102785</v>
+        <v>0.1355164891672231</v>
       </c>
       <c r="M3">
-        <v>4.282402996140007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>6.000775591620226</v>
+      </c>
+      <c r="N3">
+        <v>2.274561415369078</v>
+      </c>
+      <c r="O3">
+        <v>5.431333927690446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0827600034053404</v>
+        <v>0.05976922803164797</v>
       </c>
       <c r="D4">
-        <v>0.0176570952838766</v>
+        <v>0.2040567828448019</v>
       </c>
       <c r="E4">
-        <v>0.02317032019382204</v>
+        <v>0.03387977917672558</v>
       </c>
       <c r="F4">
-        <v>1.700841138745886</v>
+        <v>5.937196374335628</v>
       </c>
       <c r="G4">
-        <v>0.4505310371221611</v>
+        <v>0.0008029136800132896</v>
       </c>
       <c r="H4">
-        <v>0.9141943319073249</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.008159847850244262</v>
+        <v>0.04905293408019595</v>
       </c>
       <c r="K4">
-        <v>6.289964557302</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.04307085554473034</v>
+        <v>0.1223007504872129</v>
       </c>
       <c r="M4">
-        <v>3.860864767549089</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>5.459080613384145</v>
+      </c>
+      <c r="N4">
+        <v>2.14243509977382</v>
+      </c>
+      <c r="O4">
+        <v>5.014551713516937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07911250446396423</v>
+        <v>0.05991100144255057</v>
       </c>
       <c r="D5">
-        <v>0.01642007971124926</v>
+        <v>0.1942856683490817</v>
       </c>
       <c r="E5">
-        <v>0.02282425347543082</v>
+        <v>0.03308184295919148</v>
       </c>
       <c r="F5">
-        <v>1.630206166345545</v>
+        <v>5.754049594701257</v>
       </c>
       <c r="G5">
-        <v>0.4297207327746548</v>
+        <v>0.0008088963676133943</v>
       </c>
       <c r="H5">
-        <v>0.8776718102989491</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.008446779166519924</v>
+        <v>0.05032738912755086</v>
       </c>
       <c r="K5">
-        <v>6.013395114351539</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04153239168080525</v>
+        <v>0.1170055483761274</v>
       </c>
       <c r="M5">
-        <v>3.69130685559071</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5.24223546140496</v>
+      </c>
+      <c r="N5">
+        <v>2.089028289873852</v>
+      </c>
+      <c r="O5">
+        <v>4.852231303563485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07851271726130449</v>
+        <v>0.0599376484958114</v>
       </c>
       <c r="D6">
-        <v>0.01622341661110838</v>
+        <v>0.1926805660027355</v>
       </c>
       <c r="E6">
-        <v>0.02276748793015315</v>
+        <v>0.03294993671342006</v>
       </c>
       <c r="F6">
-        <v>1.618714285622161</v>
+        <v>5.724121225853793</v>
       </c>
       <c r="G6">
-        <v>0.4263322090200461</v>
+        <v>0.000809891259236749</v>
       </c>
       <c r="H6">
-        <v>0.8717428371439695</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.008496736036891939</v>
+        <v>0.0505423680214232</v>
       </c>
       <c r="K6">
-        <v>5.967652250219601</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.04127765267283401</v>
+        <v>0.1161310789359575</v>
       </c>
       <c r="M6">
-        <v>3.663271751517868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5.206439650966303</v>
+      </c>
+      <c r="N6">
+        <v>2.08018514198065</v>
+      </c>
+      <c r="O6">
+        <v>4.825691523386439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08271040606726388</v>
+        <v>0.05977092786068994</v>
       </c>
       <c r="D7">
-        <v>0.01763980884154748</v>
+        <v>0.2039237983300097</v>
       </c>
       <c r="E7">
-        <v>0.02316560540781154</v>
+        <v>0.0338689765857989</v>
       </c>
       <c r="F7">
-        <v>1.69987220355965</v>
+        <v>5.934693029767175</v>
       </c>
       <c r="G7">
-        <v>0.4502457617470554</v>
+        <v>0.0008029942777874255</v>
       </c>
       <c r="H7">
-        <v>0.9136924398384281</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.008163559325007341</v>
+        <v>0.04906989333995249</v>
       </c>
       <c r="K7">
-        <v>6.286222021497849</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0430500569579948</v>
+        <v>0.1222290023529098</v>
       </c>
       <c r="M7">
-        <v>3.858569712825215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5.456141499621879</v>
+      </c>
+      <c r="N7">
+        <v>2.141713132443812</v>
+      </c>
+      <c r="O7">
+        <v>5.012334037079199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1022275226565199</v>
+        <v>0.05953396053300963</v>
       </c>
       <c r="D8">
-        <v>0.02536777420841929</v>
+        <v>0.2565731829441091</v>
       </c>
       <c r="E8">
-        <v>0.02503301019039306</v>
+        <v>0.03803149893516355</v>
       </c>
       <c r="F8">
-        <v>2.097606502805789</v>
+        <v>6.945843851950286</v>
       </c>
       <c r="G8">
-        <v>0.5670143400579946</v>
+        <v>0.0007726310469130067</v>
       </c>
       <c r="H8">
-        <v>1.121430823621523</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.007066757259494238</v>
+        <v>0.04310124010646277</v>
       </c>
       <c r="K8">
-        <v>7.723865730133468</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0509989141547571</v>
+        <v>0.1499995001828864</v>
       </c>
       <c r="M8">
-        <v>4.741340709975773</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>6.594794045831492</v>
+      </c>
+      <c r="N8">
+        <v>2.417177882668483</v>
+      </c>
+      <c r="O8">
+        <v>5.906225423878624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1457928947433231</v>
+        <v>0.06148167949251615</v>
       </c>
       <c r="D9">
-        <v>0.0484481841281692</v>
+        <v>0.3775476454021458</v>
       </c>
       <c r="E9">
-        <v>0.02920114969124477</v>
+        <v>0.04686667524349986</v>
       </c>
       <c r="F9">
-        <v>3.083925255448122</v>
+        <v>9.379059085429873</v>
       </c>
       <c r="G9">
-        <v>0.8550995228211349</v>
+        <v>0.0007114622458457287</v>
       </c>
       <c r="H9">
-        <v>1.646435552594596</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.006722546272456498</v>
+        <v>0.03383504879136368</v>
       </c>
       <c r="K9">
-        <v>10.72552980315703</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.06732396656581585</v>
+        <v>0.209766091732682</v>
       </c>
       <c r="M9">
-        <v>6.591436556257293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>9.040946518653641</v>
+      </c>
+      <c r="N9">
+        <v>2.975349552102784</v>
+      </c>
+      <c r="O9">
+        <v>8.047130524602721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1833776163534537</v>
+        <v>0.06533671998428758</v>
       </c>
       <c r="D10">
-        <v>0.07393145904113396</v>
+        <v>0.4880958386374346</v>
       </c>
       <c r="E10">
-        <v>0.03271158994840739</v>
+        <v>0.05423630598250639</v>
       </c>
       <c r="F10">
-        <v>4.022726476393075</v>
+        <v>11.68582139375582</v>
       </c>
       <c r="G10">
-        <v>1.128615031062111</v>
+        <v>0.0006625767706808413</v>
       </c>
       <c r="H10">
-        <v>2.154069433067477</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.00820945785710947</v>
+        <v>0.0293358613559338</v>
       </c>
       <c r="K10">
-        <v>13.13407760112713</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.08014130050470314</v>
+        <v>0.2604393693989522</v>
       </c>
       <c r="M10">
-        <v>8.082402270979713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>11.09596294573149</v>
+      </c>
+      <c r="N10">
+        <v>3.401167494645563</v>
+      </c>
+      <c r="O10">
+        <v>10.0692570797178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2024989051545276</v>
+        <v>0.06800938519010202</v>
       </c>
       <c r="D11">
-        <v>0.0886993612987439</v>
+        <v>0.5477301000730961</v>
       </c>
       <c r="E11">
-        <v>0.03445010789066494</v>
+        <v>0.05798425495606274</v>
       </c>
       <c r="F11">
-        <v>4.527200164592813</v>
+        <v>12.95073803170015</v>
       </c>
       <c r="G11">
-        <v>1.275520003065495</v>
+        <v>0.0006382393751202634</v>
       </c>
       <c r="H11">
-        <v>2.429062882781508</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.009485109127052915</v>
+        <v>0.02812865412492727</v>
       </c>
       <c r="K11">
-        <v>14.30527924153409</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.08627665519638228</v>
+        <v>0.2864667689045746</v>
       </c>
       <c r="M11">
-        <v>8.809476928662662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>12.14068556669127</v>
+      </c>
+      <c r="N11">
+        <v>3.599804206173246</v>
+      </c>
+      <c r="O11">
+        <v>11.17621903467298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2101352916313459</v>
+        <v>0.06921537238779507</v>
       </c>
       <c r="D12">
-        <v>0.09492396580480289</v>
+        <v>0.5724078245553983</v>
       </c>
       <c r="E12">
-        <v>0.03513403110739333</v>
+        <v>0.05949415354042564</v>
       </c>
       <c r="F12">
-        <v>4.733384585998607</v>
+        <v>13.4771782093884</v>
       </c>
       <c r="G12">
-        <v>1.335560978905846</v>
+        <v>0.0006285226808289437</v>
       </c>
       <c r="H12">
-        <v>2.541826334571923</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01008289320430045</v>
+        <v>0.02784551761275011</v>
       </c>
       <c r="K12">
-        <v>14.76363674438056</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.08865954799340159</v>
+        <v>0.2969947893118245</v>
       </c>
       <c r="M12">
-        <v>9.094396384746517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>12.56072443816456</v>
+      </c>
+      <c r="N12">
+        <v>3.675915123985931</v>
+      </c>
+      <c r="O12">
+        <v>11.63663697374594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2084709017067468</v>
+        <v>0.06894554289089427</v>
       </c>
       <c r="D13">
-        <v>0.09355156844389967</v>
+        <v>0.5669815852949398</v>
       </c>
       <c r="E13">
-        <v>0.03498549546696594</v>
+        <v>0.05916411053415516</v>
       </c>
       <c r="F13">
-        <v>4.688221549105208</v>
+        <v>13.36129336076033</v>
       </c>
       <c r="G13">
-        <v>1.322409342005855</v>
+        <v>0.00063064240889075</v>
       </c>
       <c r="H13">
-        <v>2.517109153665132</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.009948457243613262</v>
+        <v>0.0278974840763091</v>
       </c>
       <c r="K13">
-        <v>14.66417885146899</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.08814337824587071</v>
+        <v>0.2946915770338165</v>
       </c>
       <c r="M13">
-        <v>9.032554352194126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>12.46896721520022</v>
+      </c>
+      <c r="N13">
+        <v>3.659479865758129</v>
+      </c>
+      <c r="O13">
+        <v>11.53529809234755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2031184659107907</v>
+        <v>0.06810420527559558</v>
       </c>
       <c r="D14">
-        <v>0.08919749235153773</v>
+        <v>0.5497120389415784</v>
       </c>
       <c r="E14">
-        <v>0.03450582562468618</v>
+        <v>0.05810637246495531</v>
       </c>
       <c r="F14">
-        <v>4.543829999714347</v>
+        <v>12.99296046293591</v>
       </c>
       <c r="G14">
-        <v>1.28036256991922</v>
+        <v>0.0006374516714737766</v>
       </c>
       <c r="H14">
-        <v>2.438150258760842</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.009531782284797785</v>
+        <v>0.02810143179097224</v>
       </c>
       <c r="K14">
-        <v>14.34266212907119</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.08647139002300008</v>
+        <v>0.2873173966528526</v>
       </c>
       <c r="M14">
-        <v>8.832706555176145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12.17468087779648</v>
+      </c>
+      <c r="N14">
+        <v>3.606046708301221</v>
+      </c>
+      <c r="O14">
+        <v>11.21315178866553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.199895323083453</v>
+        <v>0.06761667005120842</v>
       </c>
       <c r="D15">
-        <v>0.08661942011059409</v>
+        <v>0.539438378268386</v>
       </c>
       <c r="E15">
-        <v>0.03421553078126749</v>
+        <v>0.05747170892165698</v>
       </c>
       <c r="F15">
-        <v>4.457508380912202</v>
+        <v>12.77421049641754</v>
       </c>
       <c r="G15">
-        <v>1.255225957634792</v>
+        <v>0.0006415490428370187</v>
       </c>
       <c r="H15">
-        <v>2.390994624934777</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.009292551019626671</v>
+        <v>0.02825122287013926</v>
       </c>
       <c r="K15">
-        <v>14.14780414964653</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.08545558224876615</v>
+        <v>0.2828982548279413</v>
       </c>
       <c r="M15">
-        <v>8.711637741685763</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>11.99796276750786</v>
+      </c>
+      <c r="N15">
+        <v>3.573440157865377</v>
+      </c>
+      <c r="O15">
+        <v>11.02179602169457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.182176711667708</v>
+        <v>0.065184965223267</v>
       </c>
       <c r="D16">
-        <v>0.07304356977361692</v>
+        <v>0.4844399456104043</v>
       </c>
       <c r="E16">
-        <v>0.03260123183920172</v>
+        <v>0.05400170695127571</v>
       </c>
       <c r="F16">
-        <v>3.991622093267893</v>
+        <v>11.60866425384449</v>
       </c>
       <c r="G16">
-        <v>1.11955665257571</v>
+        <v>0.0006641108956655388</v>
       </c>
       <c r="H16">
-        <v>2.13715944942993</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.00814033344341869</v>
+        <v>0.029435458987356</v>
       </c>
       <c r="K16">
-        <v>13.0593625570788</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.07974768358182871</v>
+        <v>0.2588156043056102</v>
       </c>
       <c r="M16">
-        <v>8.036065817368041</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>11.03051257559798</v>
+      </c>
+      <c r="N16">
+        <v>3.388299361071375</v>
+      </c>
+      <c r="O16">
+        <v>10.00169898510532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1718872957488458</v>
+        <v>0.06396159360483011</v>
       </c>
       <c r="D17">
-        <v>0.065631497068388</v>
+        <v>0.45348999361957</v>
       </c>
       <c r="E17">
-        <v>0.03165039779198864</v>
+        <v>0.05199189963429518</v>
       </c>
       <c r="F17">
-        <v>3.728017093743489</v>
+        <v>10.95757251162109</v>
       </c>
       <c r="G17">
-        <v>1.042781831985408</v>
+        <v>0.0006773088665602811</v>
       </c>
       <c r="H17">
-        <v>1.99408023193854</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.007603922681154174</v>
+        <v>0.03040545094367353</v>
       </c>
       <c r="K17">
-        <v>12.4133637011667</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.07633355312845325</v>
+        <v>0.2449325237346898</v>
       </c>
       <c r="M17">
-        <v>7.63566217670936</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>10.46972864051193</v>
+      </c>
+      <c r="N17">
+        <v>3.276093771279278</v>
+      </c>
+      <c r="O17">
+        <v>9.431418628030229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1661514902163219</v>
+        <v>0.06333937685757007</v>
       </c>
       <c r="D18">
-        <v>0.06165339419231941</v>
+        <v>0.436505893777337</v>
       </c>
       <c r="E18">
-        <v>0.03111644119621459</v>
+        <v>0.05087033115578343</v>
       </c>
       <c r="F18">
-        <v>3.58337196857218</v>
+        <v>10.60201616078837</v>
       </c>
       <c r="G18">
-        <v>1.000647377112301</v>
+        <v>0.0006847187926714085</v>
       </c>
       <c r="H18">
-        <v>1.915754425783135</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.007349586604356695</v>
+        <v>0.03103801161863373</v>
       </c>
       <c r="K18">
-        <v>12.04860528193851</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.07439730586883186</v>
+        <v>0.2372072687781923</v>
       </c>
       <c r="M18">
-        <v>7.409758144827066</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>10.15681265999947</v>
+      </c>
+      <c r="N18">
+        <v>3.212006316036593</v>
+      </c>
+      <c r="O18">
+        <v>9.11983677789425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1642382306790608</v>
+        <v>0.06314137715121149</v>
       </c>
       <c r="D19">
-        <v>0.06035124450743012</v>
+        <v>0.4308800747490693</v>
       </c>
       <c r="E19">
-        <v>0.03093774158932305</v>
+        <v>0.0504958019911772</v>
       </c>
       <c r="F19">
-        <v>3.535498156553729</v>
+        <v>10.48453660778472</v>
       </c>
       <c r="G19">
-        <v>0.986700601252565</v>
+        <v>0.0006872007261254222</v>
       </c>
       <c r="H19">
-        <v>1.889861069752214</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.007272085863210265</v>
+        <v>0.03126387300318356</v>
       </c>
       <c r="K19">
-        <v>11.92617528791754</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.07374605598434059</v>
+        <v>0.2346311752913408</v>
       </c>
       <c r="M19">
-        <v>7.333963374527514</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>10.0523375869555</v>
+      </c>
+      <c r="N19">
+        <v>3.190380226788477</v>
+      </c>
+      <c r="O19">
+        <v>9.016860493373997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1729631188755292</v>
+        <v>0.0640830665451233</v>
       </c>
       <c r="D20">
-        <v>0.0663899780823769</v>
+        <v>0.4566961219837538</v>
       </c>
       <c r="E20">
-        <v>0.03175024409461535</v>
+        <v>0.05220210961604721</v>
       </c>
       <c r="F20">
-        <v>3.755332620277983</v>
+        <v>11.02483590791286</v>
       </c>
       <c r="G20">
-        <v>1.050738110330883</v>
+        <v>0.000675923721282701</v>
       </c>
       <c r="H20">
-        <v>2.008886777604545</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.007655244691540553</v>
+        <v>0.03029418427555086</v>
       </c>
       <c r="K20">
-        <v>12.48140331040304</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.07669405474780433</v>
+        <v>0.2463822209957129</v>
       </c>
       <c r="M20">
-        <v>7.677815239275077</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>10.52838268348361</v>
+      </c>
+      <c r="N20">
+        <v>3.287990545301284</v>
+      </c>
+      <c r="O20">
+        <v>9.490350075670023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2046788103570378</v>
+        <v>0.06834535262073871</v>
       </c>
       <c r="D21">
-        <v>0.09045742189311312</v>
+        <v>0.5547188611485581</v>
       </c>
       <c r="E21">
-        <v>0.03464597141869064</v>
+        <v>0.05841419744830567</v>
       </c>
       <c r="F21">
-        <v>4.58578913497206</v>
+        <v>13.09967006977149</v>
       </c>
       <c r="G21">
-        <v>1.292580990133644</v>
+        <v>0.0006354675253735553</v>
       </c>
       <c r="H21">
-        <v>2.461084822657028</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.009650767192824539</v>
+        <v>0.02803619081712938</v>
       </c>
       <c r="K21">
-        <v>14.43665620931205</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08696071903557367</v>
+        <v>0.2894622794380552</v>
       </c>
       <c r="M21">
-        <v>8.89112044060704</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>12.26035676258087</v>
+      </c>
+      <c r="N21">
+        <v>3.621715286929543</v>
+      </c>
+      <c r="O21">
+        <v>11.30648824744409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2277998045530865</v>
+        <v>0.0723319626174117</v>
       </c>
       <c r="D22">
-        <v>0.1100240146547833</v>
+        <v>0.6318868522928085</v>
       </c>
       <c r="E22">
-        <v>0.03669152252316188</v>
+        <v>0.06304325940676847</v>
       </c>
       <c r="F22">
-        <v>5.220247208938559</v>
+        <v>14.75143136768588</v>
       </c>
       <c r="G22">
-        <v>1.477347761901555</v>
+        <v>0.0006058762928691059</v>
       </c>
       <c r="H22">
-        <v>2.808859943060554</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01164738677998134</v>
+        <v>0.02763581554268413</v>
       </c>
       <c r="K22">
-        <v>15.80436124040125</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.09403057871839238</v>
+        <v>0.3218236685896869</v>
       </c>
       <c r="M22">
-        <v>9.742116309234774</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>13.54474950500071</v>
+      </c>
+      <c r="N22">
+        <v>3.845173743692271</v>
+      </c>
+      <c r="O22">
+        <v>12.7505396555957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2151928036889501</v>
+        <v>0.07005973271927246</v>
       </c>
       <c r="D23">
-        <v>0.09914767643898159</v>
+        <v>0.589070819244796</v>
       </c>
       <c r="E23">
-        <v>0.0355835315084132</v>
+        <v>0.06050093166998138</v>
       </c>
       <c r="F23">
-        <v>4.871377751754153</v>
+        <v>13.83345713448563</v>
       </c>
       <c r="G23">
-        <v>1.375745865610682</v>
+        <v>0.0006220710325163563</v>
       </c>
       <c r="H23">
-        <v>2.617406508003143</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01050533572815127</v>
+        <v>0.02772121426854923</v>
       </c>
       <c r="K23">
-        <v>15.06435866147649</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.0902172177045415</v>
+        <v>0.3040269706512504</v>
       </c>
       <c r="M23">
-        <v>9.281443765172327</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>12.84039535357954</v>
+      </c>
+      <c r="N23">
+        <v>3.725336293234847</v>
+      </c>
+      <c r="O23">
+        <v>11.94815409000267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1724761866612567</v>
+        <v>0.06402789992075242</v>
       </c>
       <c r="D24">
-        <v>0.0660461987326002</v>
+        <v>0.4552441577294815</v>
       </c>
       <c r="E24">
-        <v>0.03170506442091892</v>
+        <v>0.05210697022808297</v>
       </c>
       <c r="F24">
-        <v>3.742962039614895</v>
+        <v>10.99436872373127</v>
       </c>
       <c r="G24">
-        <v>1.047134914510394</v>
+        <v>0.0006765504864084505</v>
       </c>
       <c r="H24">
-        <v>2.002180647334896</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.007631875613325789</v>
+        <v>0.03034425804790608</v>
       </c>
       <c r="K24">
-        <v>12.45062221202983</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.07653099026055088</v>
+        <v>0.2457260299628814</v>
       </c>
       <c r="M24">
-        <v>7.658744644331051</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>10.5018361915767</v>
+      </c>
+      <c r="N24">
+        <v>3.282610714935743</v>
+      </c>
+      <c r="O24">
+        <v>9.463657371114181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1332383723153185</v>
+        <v>0.06061970190313559</v>
       </c>
       <c r="D25">
-        <v>0.04104308246429866</v>
+        <v>0.3420627494726318</v>
       </c>
       <c r="E25">
-        <v>0.02800694732077247</v>
+        <v>0.04436781497809328</v>
       </c>
       <c r="F25">
-        <v>2.787443515596465</v>
+        <v>8.65308676912565</v>
       </c>
       <c r="G25">
-        <v>0.7686277195858793</v>
+        <v>0.0007284198789701171</v>
       </c>
       <c r="H25">
-        <v>1.487520546595306</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.006567467067263522</v>
+        <v>0.03601447389019441</v>
       </c>
       <c r="K25">
-        <v>9.886005633866404</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.062796125831035</v>
+        <v>0.1927500649752645</v>
       </c>
       <c r="M25">
-        <v>6.073081228427839</v>
+        <v>8.346181685686304</v>
+      </c>
+      <c r="N25">
+        <v>2.821995761591609</v>
+      </c>
+      <c r="O25">
+        <v>7.409462742109071</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05960861830143926</v>
+        <v>0.09779564322979439</v>
       </c>
       <c r="D2">
-        <v>0.2717673297711514</v>
+        <v>0.08185701980296756</v>
       </c>
       <c r="E2">
-        <v>0.0391933284689383</v>
+        <v>0.02756866429769289</v>
       </c>
       <c r="F2">
-        <v>7.244123520708825</v>
+        <v>3.938096185577962</v>
       </c>
       <c r="G2">
-        <v>0.0007643686194432342</v>
+        <v>4.290353663100802</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.248863110524496</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04162797847334154</v>
+        <v>0.04053186040963297</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1577951959631037</v>
+        <v>0.0895560529820898</v>
       </c>
       <c r="M2">
-        <v>6.9145260712462</v>
+        <v>4.863687466250809</v>
       </c>
       <c r="N2">
-        <v>2.492889398054359</v>
+        <v>3.109556406502378</v>
       </c>
       <c r="O2">
-        <v>6.169320823750866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05955523839936916</v>
+        <v>0.09497710626506972</v>
       </c>
       <c r="D3">
-        <v>0.2288236305408162</v>
+        <v>0.07044922196880066</v>
       </c>
       <c r="E3">
-        <v>0.03586529718437603</v>
+        <v>0.02812420571295515</v>
       </c>
       <c r="F3">
-        <v>6.408165917206873</v>
+        <v>3.515919917005419</v>
       </c>
       <c r="G3">
-        <v>0.0007882690918657643</v>
+        <v>3.783989791899245</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.023498940388691</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04606860719418471</v>
+        <v>0.04441237510840068</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1355164891672231</v>
+        <v>0.08070812789458159</v>
       </c>
       <c r="M3">
-        <v>6.000775591620226</v>
+        <v>4.238565100680731</v>
       </c>
       <c r="N3">
-        <v>2.274561415369078</v>
+        <v>2.800598740529409</v>
       </c>
       <c r="O3">
-        <v>5.431333927690446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05976922803164797</v>
+        <v>0.09356914192512278</v>
       </c>
       <c r="D4">
-        <v>0.2040567828448019</v>
+        <v>0.06364355327229276</v>
       </c>
       <c r="E4">
-        <v>0.03387977917672558</v>
+        <v>0.0284839604530589</v>
       </c>
       <c r="F4">
-        <v>5.937196374335628</v>
+        <v>3.270819921042687</v>
       </c>
       <c r="G4">
-        <v>0.0008029136800132896</v>
+        <v>3.488658546195296</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.89297903779331</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04905293408019595</v>
+        <v>0.04699189357300337</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1223007504872129</v>
+        <v>0.07532726929571254</v>
       </c>
       <c r="M4">
-        <v>5.459080613384145</v>
+        <v>3.859851133743192</v>
       </c>
       <c r="N4">
-        <v>2.14243509977382</v>
+        <v>2.612405229633993</v>
       </c>
       <c r="O4">
-        <v>5.014551713516937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05991100144255057</v>
+        <v>0.09306888991238083</v>
       </c>
       <c r="D5">
-        <v>0.1942856683490817</v>
+        <v>0.06091066390391831</v>
       </c>
       <c r="E5">
-        <v>0.03308184295919148</v>
+        <v>0.02863529061665382</v>
       </c>
       <c r="F5">
-        <v>5.754049594701257</v>
+        <v>3.174027886237752</v>
       </c>
       <c r="G5">
-        <v>0.0008088963676133943</v>
+        <v>3.371694748268453</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.841514824042804</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05032738912755086</v>
+        <v>0.0480891555832077</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1170055483761274</v>
+        <v>0.07314432643455859</v>
       </c>
       <c r="M5">
-        <v>5.24223546140496</v>
+        <v>3.706580021148611</v>
       </c>
       <c r="N5">
-        <v>2.089028289873852</v>
+        <v>2.536053655438877</v>
       </c>
       <c r="O5">
-        <v>4.852231303563485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0599376484958114</v>
+        <v>0.09299005790973069</v>
       </c>
       <c r="D6">
-        <v>0.1926805660027355</v>
+        <v>0.06045906145529756</v>
       </c>
       <c r="E6">
-        <v>0.03294993671342006</v>
+        <v>0.02866070537293197</v>
       </c>
       <c r="F6">
-        <v>5.724121225853793</v>
+        <v>3.158129788248516</v>
       </c>
       <c r="G6">
-        <v>0.000809891259236749</v>
+        <v>3.352463282768781</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.833066605238201</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0505423680214232</v>
+        <v>0.04827404641808108</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1161310789359575</v>
+        <v>0.07278235673648936</v>
       </c>
       <c r="M6">
-        <v>5.206439650966303</v>
+        <v>3.681187291092073</v>
       </c>
       <c r="N6">
-        <v>2.08018514198065</v>
+        <v>2.52339490607568</v>
       </c>
       <c r="O6">
-        <v>4.825691523386439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05977092786068994</v>
+        <v>0.09356210711879243</v>
       </c>
       <c r="D7">
-        <v>0.2039237983300097</v>
+        <v>0.06360654428237211</v>
       </c>
       <c r="E7">
-        <v>0.0338689765857989</v>
+        <v>0.02848598215880482</v>
       </c>
       <c r="F7">
-        <v>5.934693029767175</v>
+        <v>3.269502612606061</v>
       </c>
       <c r="G7">
-        <v>0.0008029942777874255</v>
+        <v>3.487068073110322</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.892278302611658</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04906989333995249</v>
+        <v>0.04700650924566041</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1222290023529098</v>
+        <v>0.07529779361119182</v>
       </c>
       <c r="M7">
-        <v>5.456141499621879</v>
+        <v>3.857780060995935</v>
       </c>
       <c r="N7">
-        <v>2.141713132443812</v>
+        <v>2.611374203746408</v>
       </c>
       <c r="O7">
-        <v>5.012334037079199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05953396053300963</v>
+        <v>0.09675194552202271</v>
       </c>
       <c r="D8">
-        <v>0.2565731829441091</v>
+        <v>0.07787618728340107</v>
       </c>
       <c r="E8">
-        <v>0.03803149893516355</v>
+        <v>0.02775636862490138</v>
       </c>
       <c r="F8">
-        <v>6.945843851950286</v>
+        <v>3.789301474727978</v>
       </c>
       <c r="G8">
-        <v>0.0007726310469130067</v>
+        <v>4.112183149571308</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.169364985422703</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04310124010646277</v>
+        <v>0.0418268113554241</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1499995001828864</v>
+        <v>0.08649243835036913</v>
       </c>
       <c r="M8">
-        <v>6.594794045831492</v>
+        <v>4.646936039587729</v>
       </c>
       <c r="N8">
-        <v>2.417177882668483</v>
+        <v>3.002689024167069</v>
       </c>
       <c r="O8">
-        <v>5.906225423878624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06148167949251615</v>
+        <v>0.1059722001460131</v>
       </c>
       <c r="D9">
-        <v>0.3775476454021458</v>
+        <v>0.1079532995297754</v>
       </c>
       <c r="E9">
-        <v>0.04686667524349986</v>
+        <v>0.02647153389171297</v>
       </c>
       <c r="F9">
-        <v>9.379059085429873</v>
+        <v>4.945410937270225</v>
       </c>
       <c r="G9">
-        <v>0.0007114622458457287</v>
+        <v>5.490140842011726</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.788544331052321</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03383504879136368</v>
+        <v>0.03341128645003622</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.209766091732682</v>
+        <v>0.1090328553366575</v>
       </c>
       <c r="M9">
-        <v>9.040946518653641</v>
+        <v>6.247436350198967</v>
       </c>
       <c r="N9">
-        <v>2.975349552102784</v>
+        <v>3.784146261599375</v>
       </c>
       <c r="O9">
-        <v>8.047130524602721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06533671998428758</v>
+        <v>0.1152429330820723</v>
       </c>
       <c r="D10">
-        <v>0.4880958386374346</v>
+        <v>0.1322333461263838</v>
       </c>
       <c r="E10">
-        <v>0.05423630598250639</v>
+        <v>0.02561309472621431</v>
       </c>
       <c r="F10">
-        <v>11.68582139375582</v>
+        <v>5.920771089035696</v>
       </c>
       <c r="G10">
-        <v>0.0006625767706808413</v>
+        <v>6.644300690636612</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.312887272182365</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0293358613559338</v>
+        <v>0.02859333188442292</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2604393693989522</v>
+        <v>0.1262625389195122</v>
       </c>
       <c r="M10">
-        <v>11.09596294573149</v>
+        <v>7.477180665945184</v>
       </c>
       <c r="N10">
-        <v>3.401167494645563</v>
+        <v>4.370378502542195</v>
       </c>
       <c r="O10">
-        <v>10.0692570797178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06800938519010202</v>
+        <v>0.1202051181354733</v>
       </c>
       <c r="D11">
-        <v>0.5477301000730961</v>
+        <v>0.1440290735688023</v>
       </c>
       <c r="E11">
-        <v>0.05798425495606274</v>
+        <v>0.02524020393586657</v>
       </c>
       <c r="F11">
-        <v>12.95073803170015</v>
+        <v>6.404523208948376</v>
       </c>
       <c r="G11">
-        <v>0.0006382393751202634</v>
+        <v>7.21476824263857</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.573424062548838</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02812865412492727</v>
+        <v>0.02678632663283942</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2864667689045746</v>
+        <v>0.1343410811580981</v>
       </c>
       <c r="M11">
-        <v>12.14068556669127</v>
+        <v>8.054801311938434</v>
       </c>
       <c r="N11">
-        <v>3.599804206173246</v>
+        <v>4.640653686599023</v>
       </c>
       <c r="O11">
-        <v>11.17621903467298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06921537238779507</v>
+        <v>0.1222135102969588</v>
       </c>
       <c r="D12">
-        <v>0.5724078245553983</v>
+        <v>0.1486349928542268</v>
       </c>
       <c r="E12">
-        <v>0.05949415354042564</v>
+        <v>0.02510144317829521</v>
       </c>
       <c r="F12">
-        <v>13.4771782093884</v>
+        <v>6.594874107416615</v>
       </c>
       <c r="G12">
-        <v>0.0006285226808289437</v>
+        <v>7.43894635526982</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3.676016207563578</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02784551761275011</v>
+        <v>0.02616705553621301</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2969947893118245</v>
+        <v>0.1374455516265698</v>
       </c>
       <c r="M12">
-        <v>12.56072443816456</v>
+        <v>8.276870338433071</v>
       </c>
       <c r="N12">
-        <v>3.675915123985931</v>
+        <v>4.743612907774434</v>
       </c>
       <c r="O12">
-        <v>11.63663697374594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06894554289089427</v>
+        <v>0.1217748000595265</v>
       </c>
       <c r="D13">
-        <v>0.5669815852949398</v>
+        <v>0.1476362440177468</v>
       </c>
       <c r="E13">
-        <v>0.05916411053415516</v>
+        <v>0.02513122056067374</v>
       </c>
       <c r="F13">
-        <v>13.36129336076033</v>
+        <v>6.553533552837962</v>
       </c>
       <c r="G13">
-        <v>0.00063064240889075</v>
+        <v>7.390272383316244</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.653731798498143</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0278974840763091</v>
+        <v>0.02629735499141894</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2946915770338165</v>
+        <v>0.1367747299352118</v>
       </c>
       <c r="M13">
-        <v>12.46896721520022</v>
+        <v>8.228881824785248</v>
       </c>
       <c r="N13">
-        <v>3.659479865758129</v>
+        <v>4.721409879532473</v>
       </c>
       <c r="O13">
-        <v>11.53529809234755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06810420527559558</v>
+        <v>0.1203676104417184</v>
       </c>
       <c r="D14">
-        <v>0.5497120389415784</v>
+        <v>0.1444050063324482</v>
       </c>
       <c r="E14">
-        <v>0.05810637246495531</v>
+        <v>0.02522873954578309</v>
       </c>
       <c r="F14">
-        <v>12.99296046293591</v>
+        <v>6.420030520135953</v>
       </c>
       <c r="G14">
-        <v>0.0006374516714737766</v>
+        <v>7.233037246558922</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3.581780435942676</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02810143179097224</v>
+        <v>0.0267340119119357</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2873173966528526</v>
+        <v>0.1345955076889709</v>
       </c>
       <c r="M14">
-        <v>12.17468087779648</v>
+        <v>8.07299937511371</v>
       </c>
       <c r="N14">
-        <v>3.606046708301221</v>
+        <v>4.649111333453959</v>
       </c>
       <c r="O14">
-        <v>11.21315178866553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06761667005120842</v>
+        <v>0.1195232627286913</v>
       </c>
       <c r="D15">
-        <v>0.539438378268386</v>
+        <v>0.1424449754408954</v>
       </c>
       <c r="E15">
-        <v>0.05747170892165698</v>
+        <v>0.02528878834867143</v>
       </c>
       <c r="F15">
-        <v>12.77421049641754</v>
+        <v>6.339237096527825</v>
       </c>
       <c r="G15">
-        <v>0.0006415490428370187</v>
+        <v>7.137843573320254</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3.538246525209445</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02825122287013926</v>
+        <v>0.02701027063298334</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2828982548279413</v>
+        <v>0.133266939851481</v>
       </c>
       <c r="M15">
-        <v>11.99796276750786</v>
+        <v>7.9779760451475</v>
       </c>
       <c r="N15">
-        <v>3.573440157865377</v>
+        <v>4.604909189257228</v>
       </c>
       <c r="O15">
-        <v>11.02179602169457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.065184965223267</v>
+        <v>0.1149354072509112</v>
       </c>
       <c r="D16">
-        <v>0.4844399456104043</v>
+        <v>0.1314800473288074</v>
       </c>
       <c r="E16">
-        <v>0.05400170695127571</v>
+        <v>0.02563781118520225</v>
       </c>
       <c r="F16">
-        <v>11.60866425384449</v>
+        <v>5.890074770446944</v>
       </c>
       <c r="G16">
-        <v>0.0006641108956655388</v>
+        <v>6.60806278051291</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3.296364669005982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.029435458987356</v>
+        <v>0.02871994039447223</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2588156043056102</v>
+        <v>0.1257402784657273</v>
       </c>
       <c r="M16">
-        <v>11.03051257559798</v>
+        <v>7.439855348397771</v>
       </c>
       <c r="N16">
-        <v>3.388299361071375</v>
+        <v>4.352795450339727</v>
       </c>
       <c r="O16">
-        <v>10.00169898510532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06396159360483011</v>
+        <v>0.1123258508098246</v>
       </c>
       <c r="D17">
-        <v>0.45348999361957</v>
+        <v>0.1249653161790576</v>
       </c>
       <c r="E17">
-        <v>0.05199189963429518</v>
+        <v>0.0258563778634926</v>
       </c>
       <c r="F17">
-        <v>10.95757251162109</v>
+        <v>5.625679135533375</v>
       </c>
       <c r="G17">
-        <v>0.0006773088665602811</v>
+        <v>6.29572496941887</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3.15410242623193</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03040545094367353</v>
+        <v>0.02987348780661847</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2449325237346898</v>
+        <v>0.1211912892379772</v>
       </c>
       <c r="M17">
-        <v>10.46972864051193</v>
+        <v>7.11485344414001</v>
       </c>
       <c r="N17">
-        <v>3.276093771279278</v>
+        <v>4.199114928534101</v>
       </c>
       <c r="O17">
-        <v>9.431418628030229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06333937685757007</v>
+        <v>0.110893414288725</v>
       </c>
       <c r="D18">
-        <v>0.436505893777337</v>
+        <v>0.1212865818124556</v>
       </c>
       <c r="E18">
-        <v>0.05087033115578343</v>
+        <v>0.02598375584251666</v>
       </c>
       <c r="F18">
-        <v>10.60201616078837</v>
+        <v>5.477274190297891</v>
       </c>
       <c r="G18">
-        <v>0.0006847187926714085</v>
+        <v>6.12023545135014</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.074293021667245</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03103801161863373</v>
+        <v>0.03057249250949567</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2372072687781923</v>
+        <v>0.1185967005565089</v>
       </c>
       <c r="M18">
-        <v>10.15681265999947</v>
+        <v>6.929582066711163</v>
       </c>
       <c r="N18">
-        <v>3.212006316036593</v>
+        <v>4.111053775400478</v>
       </c>
       <c r="O18">
-        <v>9.11983677789425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06314137715121149</v>
+        <v>0.1104195915714286</v>
       </c>
       <c r="D19">
-        <v>0.4308800747490693</v>
+        <v>0.1200519500397093</v>
       </c>
       <c r="E19">
-        <v>0.0504958019911772</v>
+        <v>0.02602717219857897</v>
       </c>
       <c r="F19">
-        <v>10.48453660778472</v>
+        <v>5.427619703429031</v>
       </c>
       <c r="G19">
-        <v>0.0006872007261254222</v>
+        <v>6.061489126084211</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.047596886136546</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03126387300318356</v>
+        <v>0.03081500472758947</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2346311752913408</v>
+        <v>0.1177216934457235</v>
       </c>
       <c r="M19">
-        <v>10.0523375869555</v>
+        <v>6.867118688427581</v>
       </c>
       <c r="N19">
-        <v>3.190380226788477</v>
+        <v>4.081292153720142</v>
       </c>
       <c r="O19">
-        <v>9.016860493373997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0640830665451233</v>
+        <v>0.1125964081869597</v>
       </c>
       <c r="D20">
-        <v>0.4566961219837538</v>
+        <v>0.1256515455255425</v>
       </c>
       <c r="E20">
-        <v>0.05220210961604721</v>
+        <v>0.02583293943796505</v>
       </c>
       <c r="F20">
-        <v>11.02483590791286</v>
+        <v>5.653435788693685</v>
       </c>
       <c r="G20">
-        <v>0.000675923721282701</v>
+        <v>6.328532994116074</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.169032888527568</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03029418427555086</v>
+        <v>0.02974695228345148</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2463822209957129</v>
+        <v>0.1216732052298042</v>
       </c>
       <c r="M20">
-        <v>10.52838268348361</v>
+        <v>7.149273913744338</v>
       </c>
       <c r="N20">
-        <v>3.287990545301284</v>
+        <v>4.215439507606902</v>
       </c>
       <c r="O20">
-        <v>9.490350075670023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06834535262073871</v>
+        <v>0.1207772210625961</v>
       </c>
       <c r="D21">
-        <v>0.5547188611485581</v>
+        <v>0.1453500300768553</v>
       </c>
       <c r="E21">
-        <v>0.05841419744830567</v>
+        <v>0.02520003025392725</v>
       </c>
       <c r="F21">
-        <v>13.09967006977149</v>
+        <v>6.459036093110626</v>
       </c>
       <c r="G21">
-        <v>0.0006354675253735553</v>
+        <v>7.278984625236376</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.602800427085413</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02803619081712938</v>
+        <v>0.02660390173345029</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2894622794380552</v>
+        <v>0.1352342681069274</v>
       </c>
       <c r="M21">
-        <v>12.26035676258087</v>
+        <v>8.118688567937824</v>
       </c>
       <c r="N21">
-        <v>3.621715286929543</v>
+        <v>4.670329717631205</v>
       </c>
       <c r="O21">
-        <v>11.30648824744409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0723319626174117</v>
+        <v>0.1268924648528866</v>
       </c>
       <c r="D22">
-        <v>0.6318868522928085</v>
+        <v>0.1590567152507134</v>
       </c>
       <c r="E22">
-        <v>0.06304325940676847</v>
+        <v>0.0248005911959206</v>
       </c>
       <c r="F22">
-        <v>14.75143136768588</v>
+        <v>7.02825308558505</v>
       </c>
       <c r="G22">
-        <v>0.0006058762928691059</v>
+        <v>7.948788404573349</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.909734314889761</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02763581554268413</v>
+        <v>0.0249350505963104</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3218236685896869</v>
+        <v>0.1443686754749791</v>
       </c>
       <c r="M22">
-        <v>13.54474950500071</v>
+        <v>8.772195292047059</v>
       </c>
       <c r="N22">
-        <v>3.845173743692271</v>
+        <v>4.971251181312311</v>
       </c>
       <c r="O22">
-        <v>12.7505396555957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07005973271927246</v>
+        <v>0.123549385978265</v>
       </c>
       <c r="D23">
-        <v>0.589070819244796</v>
+        <v>0.1516522045600794</v>
       </c>
       <c r="E23">
-        <v>0.06050093166998138</v>
+        <v>0.02501251118928671</v>
       </c>
       <c r="F23">
-        <v>13.83345713448563</v>
+        <v>6.719974091696827</v>
       </c>
       <c r="G23">
-        <v>0.0006220710325163563</v>
+        <v>7.58619466501915</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.743461812688736</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02772121426854923</v>
+        <v>0.02578661103687274</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3040269706512504</v>
+        <v>0.1394642363207765</v>
       </c>
       <c r="M23">
-        <v>12.84039535357954</v>
+        <v>8.421289643718154</v>
       </c>
       <c r="N23">
-        <v>3.725336293234847</v>
+        <v>4.810275819367575</v>
       </c>
       <c r="O23">
-        <v>11.94815409000267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06402789992075242</v>
+        <v>0.1124738795118532</v>
       </c>
       <c r="D24">
-        <v>0.4552441577294815</v>
+        <v>0.1253410958000529</v>
       </c>
       <c r="E24">
-        <v>0.05210697022808297</v>
+        <v>0.02584353058268896</v>
       </c>
       <c r="F24">
-        <v>10.99436872373127</v>
+        <v>5.640875894525919</v>
       </c>
       <c r="G24">
-        <v>0.0006765504864084505</v>
+        <v>6.313687901452738</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.162276717258919</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03034425804790608</v>
+        <v>0.02980404813483695</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2457260299628814</v>
+        <v>0.1214552673419789</v>
       </c>
       <c r="M24">
-        <v>10.5018361915767</v>
+        <v>7.133707560362438</v>
       </c>
       <c r="N24">
-        <v>3.282610714935743</v>
+        <v>4.208058263361409</v>
       </c>
       <c r="O24">
-        <v>9.463657371114181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06061970190313559</v>
+        <v>0.1030972799942376</v>
       </c>
       <c r="D25">
-        <v>0.3420627494726318</v>
+        <v>0.099510668437226</v>
       </c>
       <c r="E25">
-        <v>0.04436781497809328</v>
+        <v>0.02680381357202588</v>
       </c>
       <c r="F25">
-        <v>8.65308676912565</v>
+        <v>4.614126437077914</v>
       </c>
       <c r="G25">
-        <v>0.0007284198789701171</v>
+        <v>5.096612465902751</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.610807917063937</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03601447389019441</v>
+        <v>0.03547355957396903</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1927500649752645</v>
+        <v>0.1028441002550835</v>
       </c>
       <c r="M25">
-        <v>8.346181685686304</v>
+        <v>5.806829572769431</v>
       </c>
       <c r="N25">
-        <v>2.821995761591609</v>
+        <v>3.570901952018858</v>
       </c>
       <c r="O25">
-        <v>7.409462742109071</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.09779564322979439</v>
+        <v>0.2639660094405514</v>
       </c>
       <c r="D2">
-        <v>0.08185701980296756</v>
+        <v>0.03008431464012773</v>
       </c>
       <c r="E2">
-        <v>0.02756866429769289</v>
+        <v>0.08058207231805703</v>
       </c>
       <c r="F2">
-        <v>3.938096185577962</v>
+        <v>4.85835963853043</v>
       </c>
       <c r="G2">
-        <v>4.290353663100802</v>
+        <v>4.367075308250691</v>
       </c>
       <c r="H2">
-        <v>2.248863110524496</v>
+        <v>3.085450786152506</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04053186040963297</v>
+        <v>0.1910621582543044</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0895560529820898</v>
+        <v>0.07020582723773572</v>
       </c>
       <c r="M2">
-        <v>4.863687466250809</v>
+        <v>2.87433427438944</v>
       </c>
       <c r="N2">
-        <v>3.109556406502378</v>
+        <v>1.632615970203744</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09497710626506972</v>
+        <v>0.2658623928165156</v>
       </c>
       <c r="D3">
-        <v>0.07044922196880066</v>
+        <v>0.02706873335112192</v>
       </c>
       <c r="E3">
-        <v>0.02812420571295515</v>
+        <v>0.08103786824290626</v>
       </c>
       <c r="F3">
-        <v>3.515919917005419</v>
+        <v>4.815657400014572</v>
       </c>
       <c r="G3">
-        <v>3.783989791899245</v>
+        <v>4.301416495187482</v>
       </c>
       <c r="H3">
-        <v>2.023498940388691</v>
+        <v>3.066546669151961</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04441237510840068</v>
+        <v>0.1940509202052256</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08070812789458159</v>
+        <v>0.06752181952710856</v>
       </c>
       <c r="M3">
-        <v>4.238565100680731</v>
+        <v>2.708876970177528</v>
       </c>
       <c r="N3">
-        <v>2.800598740529409</v>
+        <v>1.533838066853178</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.09356914192512278</v>
+        <v>0.2671615440885518</v>
       </c>
       <c r="D4">
-        <v>0.06364355327229276</v>
+        <v>0.02520786711099987</v>
       </c>
       <c r="E4">
-        <v>0.0284839604530589</v>
+        <v>0.08133518622017721</v>
       </c>
       <c r="F4">
-        <v>3.270819921042687</v>
+        <v>4.79283999696014</v>
       </c>
       <c r="G4">
-        <v>3.488658546195296</v>
+        <v>4.264406422905779</v>
       </c>
       <c r="H4">
-        <v>1.89297903779331</v>
+        <v>3.056969932811683</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04699189357300337</v>
+        <v>0.1959858181991603</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.07532726929571254</v>
+        <v>0.06586231183701585</v>
       </c>
       <c r="M4">
-        <v>3.859851133743192</v>
+        <v>2.607939853945012</v>
       </c>
       <c r="N4">
-        <v>2.612405229633993</v>
+        <v>1.473612757440065</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09306888991238083</v>
+        <v>0.2677247577389323</v>
       </c>
       <c r="D5">
-        <v>0.06091066390391831</v>
+        <v>0.02444706695980869</v>
       </c>
       <c r="E5">
-        <v>0.02863529061665382</v>
+        <v>0.08146074684253524</v>
       </c>
       <c r="F5">
-        <v>3.174027886237752</v>
+        <v>4.784390761278246</v>
       </c>
       <c r="G5">
-        <v>3.371694748268453</v>
+        <v>4.250147876761645</v>
       </c>
       <c r="H5">
-        <v>1.841514824042804</v>
+        <v>3.053574582634837</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0480891555832077</v>
+        <v>0.1967993422925955</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07314432643455859</v>
+        <v>0.06518314329569819</v>
       </c>
       <c r="M5">
-        <v>3.706580021148611</v>
+        <v>2.566972050634305</v>
       </c>
       <c r="N5">
-        <v>2.536053655438877</v>
+        <v>1.449179955565853</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09299005790973069</v>
+        <v>0.2678203177645599</v>
       </c>
       <c r="D6">
-        <v>0.06045906145529756</v>
+        <v>0.02432058251478963</v>
       </c>
       <c r="E6">
-        <v>0.02866070537293197</v>
+        <v>0.08148186223762188</v>
       </c>
       <c r="F6">
-        <v>3.158129788248516</v>
+        <v>4.78303886722702</v>
       </c>
       <c r="G6">
-        <v>3.352463282768781</v>
+        <v>4.247829764269255</v>
       </c>
       <c r="H6">
-        <v>1.833066605238201</v>
+        <v>3.053041327790879</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04827404641808108</v>
+        <v>0.1969359379726825</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07278235673648936</v>
+        <v>0.06507019211174736</v>
       </c>
       <c r="M6">
-        <v>3.681187291092073</v>
+        <v>2.560179349432389</v>
       </c>
       <c r="N6">
-        <v>2.52339490607568</v>
+        <v>1.445129601598779</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.09356210711879243</v>
+        <v>0.2671690030482878</v>
       </c>
       <c r="D7">
-        <v>0.06360654428237211</v>
+        <v>0.02519761693587697</v>
       </c>
       <c r="E7">
-        <v>0.02848598215880482</v>
+        <v>0.08133686173938681</v>
       </c>
       <c r="F7">
-        <v>3.269502612606061</v>
+        <v>4.79272261823013</v>
       </c>
       <c r="G7">
-        <v>3.487068073110322</v>
+        <v>4.264210803388949</v>
       </c>
       <c r="H7">
-        <v>1.892278302611658</v>
+        <v>3.056922092442704</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04700650924566041</v>
+        <v>0.1959966883645814</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.07529779361119182</v>
+        <v>0.06585316410983211</v>
       </c>
       <c r="M7">
-        <v>3.857780060995935</v>
+        <v>2.607386679648897</v>
       </c>
       <c r="N7">
-        <v>2.611374203746408</v>
+        <v>1.473282801137316</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09675194552202271</v>
+        <v>0.2645918580388837</v>
       </c>
       <c r="D8">
-        <v>0.07787618728340107</v>
+        <v>0.02904638008860161</v>
       </c>
       <c r="E8">
-        <v>0.02775636862490138</v>
+        <v>0.08073561429898302</v>
       </c>
       <c r="F8">
-        <v>3.789301474727978</v>
+        <v>4.842925916399821</v>
       </c>
       <c r="G8">
-        <v>4.112183149571308</v>
+        <v>4.343745590777189</v>
       </c>
       <c r="H8">
-        <v>2.169364985422703</v>
+        <v>3.078509184871479</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0418268113554241</v>
+        <v>0.1920719400256328</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.08649243835036913</v>
+        <v>0.06928276460065774</v>
       </c>
       <c r="M8">
-        <v>4.646936039587729</v>
+        <v>2.817148918684211</v>
       </c>
       <c r="N8">
-        <v>3.002689024167069</v>
+        <v>1.598470765887726</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1059722001460131</v>
+        <v>0.2606115414623176</v>
       </c>
       <c r="D9">
-        <v>0.1079532995297754</v>
+        <v>0.03652709839960266</v>
       </c>
       <c r="E9">
-        <v>0.02647153389171297</v>
+        <v>0.07969457155952409</v>
       </c>
       <c r="F9">
-        <v>4.945410937270225</v>
+        <v>4.968672640468412</v>
       </c>
       <c r="G9">
-        <v>5.490140842011726</v>
+        <v>4.526297903403076</v>
       </c>
       <c r="H9">
-        <v>2.788544331052321</v>
+        <v>3.137111477127519</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03341128645003622</v>
+        <v>0.1851696389831243</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1090328553366575</v>
+        <v>0.07591761970255817</v>
       </c>
       <c r="M9">
-        <v>6.247436350198967</v>
+        <v>3.233695531430726</v>
       </c>
       <c r="N9">
-        <v>3.784146261599375</v>
+        <v>1.847231265031951</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1152429330820723</v>
+        <v>0.2583476271657617</v>
       </c>
       <c r="D10">
-        <v>0.1322333461263838</v>
+        <v>0.04199276000359475</v>
       </c>
       <c r="E10">
-        <v>0.02561309472621431</v>
+        <v>0.07901312733583055</v>
       </c>
       <c r="F10">
-        <v>5.920771089035696</v>
+        <v>5.078147359784737</v>
       </c>
       <c r="G10">
-        <v>6.644300690636612</v>
+        <v>4.67715724733165</v>
       </c>
       <c r="H10">
-        <v>3.312887272182365</v>
+        <v>3.190318987449643</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02859333188442292</v>
+        <v>0.1805857628663006</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1262625389195122</v>
+        <v>0.08073863405235926</v>
       </c>
       <c r="M10">
-        <v>7.477180665945184</v>
+        <v>3.542960667412558</v>
       </c>
       <c r="N10">
-        <v>4.370378502542195</v>
+        <v>2.031872847528945</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1202051181354733</v>
+        <v>0.2574624834315813</v>
       </c>
       <c r="D11">
-        <v>0.1440290735688023</v>
+        <v>0.04447490886450112</v>
       </c>
       <c r="E11">
-        <v>0.02524020393586657</v>
+        <v>0.07872107811131812</v>
       </c>
       <c r="F11">
-        <v>6.404523208948376</v>
+        <v>5.131761301000694</v>
       </c>
       <c r="G11">
-        <v>7.21476824263857</v>
+        <v>4.749540778319044</v>
       </c>
       <c r="H11">
-        <v>3.573424062548838</v>
+        <v>3.216781620519782</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02678632663283942</v>
+        <v>0.17860693267383</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1343410811580981</v>
+        <v>0.082920589811593</v>
       </c>
       <c r="M11">
-        <v>8.054801311938434</v>
+        <v>3.684370617306712</v>
       </c>
       <c r="N11">
-        <v>4.640653686599023</v>
+        <v>2.116256887906047</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1222135102969588</v>
+        <v>0.2571482296436898</v>
       </c>
       <c r="D12">
-        <v>0.1486349928542268</v>
+        <v>0.04541440966421817</v>
       </c>
       <c r="E12">
-        <v>0.02510144317829521</v>
+        <v>0.07861305493339898</v>
       </c>
       <c r="F12">
-        <v>6.594874107416615</v>
+        <v>5.152619985033766</v>
       </c>
       <c r="G12">
-        <v>7.43894635526982</v>
+        <v>4.777500383453798</v>
       </c>
       <c r="H12">
-        <v>3.676016207563578</v>
+        <v>3.227131333591103</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02616705553621301</v>
+        <v>0.1778729666272802</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1374455516265698</v>
+        <v>0.08374525995144211</v>
       </c>
       <c r="M12">
-        <v>8.276870338433071</v>
+        <v>3.738023689916673</v>
       </c>
       <c r="N12">
-        <v>4.743612907774434</v>
+        <v>2.148264802010601</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1217748000595265</v>
+        <v>0.2572149769608387</v>
       </c>
       <c r="D13">
-        <v>0.1476362440177468</v>
+        <v>0.04521208796326448</v>
       </c>
       <c r="E13">
-        <v>0.02513122056067374</v>
+        <v>0.07863620554728978</v>
       </c>
       <c r="F13">
-        <v>6.553533552837962</v>
+        <v>5.148102827080976</v>
       </c>
       <c r="G13">
-        <v>7.390272383316244</v>
+        <v>4.771454191076771</v>
       </c>
       <c r="H13">
-        <v>3.653731798498143</v>
+        <v>3.224887642995611</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02629735499141894</v>
+        <v>0.1780303543854629</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1367747299352118</v>
+        <v>0.08356772292530223</v>
       </c>
       <c r="M13">
-        <v>8.228881824785248</v>
+        <v>3.726463903413645</v>
       </c>
       <c r="N13">
-        <v>4.721409879532473</v>
+        <v>2.141368984626183</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1203676104417184</v>
+        <v>0.2574362093951947</v>
       </c>
       <c r="D14">
-        <v>0.1444050063324482</v>
+        <v>0.04455220989376585</v>
       </c>
       <c r="E14">
-        <v>0.02522873954578309</v>
+        <v>0.07871213954354062</v>
       </c>
       <c r="F14">
-        <v>6.420030520135953</v>
+        <v>5.13346616353482</v>
       </c>
       <c r="G14">
-        <v>7.233037246558922</v>
+        <v>4.751829964328692</v>
       </c>
       <c r="H14">
-        <v>3.581780435942676</v>
+        <v>3.217626482071353</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0267340119119357</v>
+        <v>0.1785462402968605</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1345955076889709</v>
+        <v>0.08298846768526147</v>
       </c>
       <c r="M14">
-        <v>8.07299937511371</v>
+        <v>3.688782598536477</v>
       </c>
       <c r="N14">
-        <v>4.649111333453959</v>
+        <v>2.118889140069939</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1195232627286913</v>
+        <v>0.2575744500983888</v>
       </c>
       <c r="D15">
-        <v>0.1424449754408954</v>
+        <v>0.04414796396801535</v>
       </c>
       <c r="E15">
-        <v>0.02528878834867143</v>
+        <v>0.07875898561962824</v>
       </c>
       <c r="F15">
-        <v>6.339237096527825</v>
+        <v>5.124573462053149</v>
       </c>
       <c r="G15">
-        <v>7.137843573320254</v>
+        <v>4.739881404086816</v>
       </c>
       <c r="H15">
-        <v>3.538246525209445</v>
+        <v>3.213221767361688</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02701027063298334</v>
+        <v>0.1788642396901547</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.133266939851481</v>
+        <v>0.08263345060466776</v>
       </c>
       <c r="M15">
-        <v>7.9779760451475</v>
+        <v>3.665715286153556</v>
       </c>
       <c r="N15">
-        <v>4.604909189257228</v>
+        <v>2.105126480948854</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1149354072509112</v>
+        <v>0.2584083957537757</v>
       </c>
       <c r="D16">
-        <v>0.1314800473288074</v>
+        <v>0.04183047551114782</v>
       </c>
       <c r="E16">
-        <v>0.02563781118520225</v>
+        <v>0.07903257358916882</v>
       </c>
       <c r="F16">
-        <v>5.890074770446944</v>
+        <v>5.074720967151364</v>
       </c>
       <c r="G16">
-        <v>6.60806278051291</v>
+        <v>4.672503200949052</v>
       </c>
       <c r="H16">
-        <v>3.296364669005982</v>
+        <v>3.188635386735541</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02871994039447223</v>
+        <v>0.1807172313680638</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1257402784657273</v>
+        <v>0.08059581494804036</v>
       </c>
       <c r="M16">
-        <v>7.439855348397771</v>
+        <v>3.533733765366776</v>
       </c>
       <c r="N16">
-        <v>4.352795450339727</v>
+        <v>2.026365775755608</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1123258508098246</v>
+        <v>0.2589571455425386</v>
       </c>
       <c r="D17">
-        <v>0.1249653161790576</v>
+        <v>0.04040781344255606</v>
       </c>
       <c r="E17">
-        <v>0.0258563778634926</v>
+        <v>0.07920499902570022</v>
       </c>
       <c r="F17">
-        <v>5.625679135533375</v>
+        <v>5.045120319421272</v>
       </c>
       <c r="G17">
-        <v>6.29572496941887</v>
+        <v>4.632137624913923</v>
       </c>
       <c r="H17">
-        <v>3.15410242623193</v>
+        <v>3.174133755485798</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02987348780661847</v>
+        <v>0.1818812850067442</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1211912892379772</v>
+        <v>0.07934294573273348</v>
       </c>
       <c r="M17">
-        <v>7.11485344414001</v>
+        <v>3.452952785516743</v>
       </c>
       <c r="N17">
-        <v>4.199114928534101</v>
+        <v>1.978146618604143</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.110893414288725</v>
+        <v>0.2592863864585979</v>
       </c>
       <c r="D18">
-        <v>0.1212865818124556</v>
+        <v>0.03958912938220749</v>
       </c>
       <c r="E18">
-        <v>0.02598375584251666</v>
+        <v>0.07930586311211218</v>
       </c>
       <c r="F18">
-        <v>5.477274190297891</v>
+        <v>5.028453255732899</v>
       </c>
       <c r="G18">
-        <v>6.12023545135014</v>
+        <v>4.609273456927724</v>
       </c>
       <c r="H18">
-        <v>3.074293021667245</v>
+        <v>3.166005105025931</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03057249250949567</v>
+        <v>0.1825608280276398</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1185967005565089</v>
+        <v>0.07862127829977084</v>
       </c>
       <c r="M18">
-        <v>6.929582066711163</v>
+        <v>3.406557804610287</v>
       </c>
       <c r="N18">
-        <v>4.111053775400478</v>
+        <v>1.95044905782396</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1104195915714286</v>
+        <v>0.25940019648624</v>
       </c>
       <c r="D19">
-        <v>0.1200519500397093</v>
+        <v>0.03931186209575799</v>
       </c>
       <c r="E19">
-        <v>0.02602717219857897</v>
+        <v>0.07934030446305851</v>
       </c>
       <c r="F19">
-        <v>5.427619703429031</v>
+        <v>5.02287140038473</v>
       </c>
       <c r="G19">
-        <v>6.061489126084211</v>
+        <v>4.601592398288631</v>
       </c>
       <c r="H19">
-        <v>3.047596886136546</v>
+        <v>3.163289222309515</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03081500472758947</v>
+        <v>0.1827926266402784</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1177216934457235</v>
+        <v>0.07837675333303196</v>
       </c>
       <c r="M19">
-        <v>6.867118688427581</v>
+        <v>3.390860955847842</v>
       </c>
       <c r="N19">
-        <v>4.081292153720142</v>
+        <v>1.941077542019116</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1125964081869597</v>
+        <v>0.2588973202784359</v>
       </c>
       <c r="D20">
-        <v>0.1256515455255425</v>
+        <v>0.04055929909578992</v>
       </c>
       <c r="E20">
-        <v>0.02583293943796505</v>
+        <v>0.07918646926044914</v>
       </c>
       <c r="F20">
-        <v>5.653435788693685</v>
+        <v>5.048234204563471</v>
       </c>
       <c r="G20">
-        <v>6.328532994116074</v>
+        <v>4.636398004054172</v>
       </c>
       <c r="H20">
-        <v>3.169032888527568</v>
+        <v>3.175655476481325</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02974695228345148</v>
+        <v>0.1817563329657279</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1216732052298042</v>
+        <v>0.07947642439368252</v>
       </c>
       <c r="M20">
-        <v>7.149273913744338</v>
+        <v>3.461545009857787</v>
       </c>
       <c r="N20">
-        <v>4.215439507606902</v>
+        <v>1.983275837640548</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1207772210625961</v>
+        <v>0.2573706590329721</v>
       </c>
       <c r="D21">
-        <v>0.1453500300768553</v>
+        <v>0.04474604251393544</v>
       </c>
       <c r="E21">
-        <v>0.02520003025392725</v>
+        <v>0.07868976623718638</v>
       </c>
       <c r="F21">
-        <v>6.459036093110626</v>
+        <v>5.137750146099251</v>
       </c>
       <c r="G21">
-        <v>7.278984625236376</v>
+        <v>4.757579086010765</v>
       </c>
       <c r="H21">
-        <v>3.602800427085413</v>
+        <v>3.219750301477745</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02660390173345029</v>
+        <v>0.1783942942541934</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1352342681069274</v>
+        <v>0.08315865200263772</v>
       </c>
       <c r="M21">
-        <v>8.118688567937824</v>
+        <v>3.699847681798303</v>
       </c>
       <c r="N21">
-        <v>4.670329717631205</v>
+        <v>2.125490582881014</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1268924648528866</v>
+        <v>0.2564949574311584</v>
       </c>
       <c r="D22">
-        <v>0.1590567152507134</v>
+        <v>0.04747986681279315</v>
       </c>
       <c r="E22">
-        <v>0.0248005911959206</v>
+        <v>0.07838011429287217</v>
       </c>
       <c r="F22">
-        <v>7.02825308558505</v>
+        <v>5.19950003393069</v>
       </c>
       <c r="G22">
-        <v>7.948788404573349</v>
+        <v>4.839985504770027</v>
       </c>
       <c r="H22">
-        <v>3.909734314889761</v>
+        <v>3.250487836107709</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0249350505963104</v>
+        <v>0.1762866546714026</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1443686754749791</v>
+        <v>0.08555594518030318</v>
       </c>
       <c r="M22">
-        <v>8.772195292047059</v>
+        <v>3.856199717318475</v>
       </c>
       <c r="N22">
-        <v>4.971251181312311</v>
+        <v>2.218746910143693</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.123549385978265</v>
+        <v>0.2569511267792279</v>
       </c>
       <c r="D23">
-        <v>0.1516522045600794</v>
+        <v>0.04602094078728669</v>
       </c>
       <c r="E23">
-        <v>0.02501251118928671</v>
+        <v>0.07854401493753826</v>
       </c>
       <c r="F23">
-        <v>6.719974091696827</v>
+        <v>5.166243283081769</v>
       </c>
       <c r="G23">
-        <v>7.58619466501915</v>
+        <v>4.795707022583429</v>
       </c>
       <c r="H23">
-        <v>3.743461812688736</v>
+        <v>3.233905644756589</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02578661103687274</v>
+        <v>0.1774033139341249</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1394642363207765</v>
+        <v>0.08427730664405431</v>
       </c>
       <c r="M23">
-        <v>8.421289643718154</v>
+        <v>3.772696037472514</v>
       </c>
       <c r="N23">
-        <v>4.810275819367575</v>
+        <v>2.168946634029794</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1124738795118532</v>
+        <v>0.2589243244388655</v>
       </c>
       <c r="D24">
-        <v>0.1253410958000529</v>
+        <v>0.0404908148641141</v>
       </c>
       <c r="E24">
-        <v>0.02584353058268896</v>
+        <v>0.0791948411642025</v>
       </c>
       <c r="F24">
-        <v>5.640875894525919</v>
+        <v>5.046825325199165</v>
       </c>
       <c r="G24">
-        <v>6.313687901452738</v>
+        <v>4.634470820411707</v>
       </c>
       <c r="H24">
-        <v>3.162276717258919</v>
+        <v>3.174966857206186</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02980404813483695</v>
+        <v>0.1818127916659016</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1214552673419789</v>
+        <v>0.07941608297864633</v>
       </c>
       <c r="M24">
-        <v>7.133707560362438</v>
+        <v>3.457660318595259</v>
       </c>
       <c r="N24">
-        <v>4.208058263361409</v>
+        <v>1.980956841910626</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1030972799942376</v>
+        <v>0.2615727913831307</v>
       </c>
       <c r="D25">
-        <v>0.099510668437226</v>
+        <v>0.03450945954260476</v>
       </c>
       <c r="E25">
-        <v>0.02680381357202588</v>
+        <v>0.07996150155171833</v>
       </c>
       <c r="F25">
-        <v>4.614126437077914</v>
+        <v>4.931686806852071</v>
       </c>
       <c r="G25">
-        <v>5.096612465902751</v>
+        <v>4.474012380041131</v>
       </c>
       <c r="H25">
-        <v>2.610807917063937</v>
+        <v>3.119492374518245</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03547355957396903</v>
+        <v>0.1869515608369205</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1028441002550835</v>
+        <v>0.07413225084246733</v>
       </c>
       <c r="M25">
-        <v>5.806829572769431</v>
+        <v>3.120446151292953</v>
       </c>
       <c r="N25">
-        <v>3.570901952018858</v>
+        <v>1.779597273740279</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2639660094405514</v>
+        <v>0.09779564323052625</v>
       </c>
       <c r="D2">
-        <v>0.03008431464012773</v>
+        <v>0.08185701980296045</v>
       </c>
       <c r="E2">
-        <v>0.08058207231805703</v>
+        <v>0.02756866429771954</v>
       </c>
       <c r="F2">
-        <v>4.85835963853043</v>
+        <v>3.938096185577962</v>
       </c>
       <c r="G2">
-        <v>4.367075308250691</v>
+        <v>4.290353663100888</v>
       </c>
       <c r="H2">
-        <v>3.085450786152506</v>
+        <v>2.248863110524496</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1910621582543044</v>
+        <v>0.04053186040968271</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.07020582723773572</v>
+        <v>0.08955605298226743</v>
       </c>
       <c r="M2">
-        <v>2.87433427438944</v>
+        <v>4.863687466250781</v>
       </c>
       <c r="N2">
-        <v>1.632615970203744</v>
+        <v>3.109556406502378</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2658623928165156</v>
+        <v>0.0949771062650413</v>
       </c>
       <c r="D3">
-        <v>0.02706873335112192</v>
+        <v>0.07044922196853776</v>
       </c>
       <c r="E3">
-        <v>0.08103786824290626</v>
+        <v>0.02812420571295249</v>
       </c>
       <c r="F3">
-        <v>4.815657400014572</v>
+        <v>3.515919917005448</v>
       </c>
       <c r="G3">
-        <v>4.301416495187482</v>
+        <v>3.783989791899273</v>
       </c>
       <c r="H3">
-        <v>3.066546669151961</v>
+        <v>2.023498940388691</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1940509202052256</v>
+        <v>0.04441237510829055</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06752181952710856</v>
+        <v>0.08070812789466686</v>
       </c>
       <c r="M3">
-        <v>2.708876970177528</v>
+        <v>4.238565100680731</v>
       </c>
       <c r="N3">
-        <v>1.533838066853178</v>
+        <v>2.800598740529267</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2671615440885518</v>
+        <v>0.09356914192536436</v>
       </c>
       <c r="D4">
-        <v>0.02520786711099987</v>
+        <v>0.06364355327241356</v>
       </c>
       <c r="E4">
-        <v>0.08133518622017721</v>
+        <v>0.02848396045307133</v>
       </c>
       <c r="F4">
-        <v>4.79283999696014</v>
+        <v>3.270819921042659</v>
       </c>
       <c r="G4">
-        <v>4.264406422905779</v>
+        <v>3.488658546195325</v>
       </c>
       <c r="H4">
-        <v>3.056969932811683</v>
+        <v>1.89297903779331</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1959858181991603</v>
+        <v>0.0469918935729261</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06586231183701585</v>
+        <v>0.07532726929581912</v>
       </c>
       <c r="M4">
-        <v>2.607939853945012</v>
+        <v>3.859851133743163</v>
       </c>
       <c r="N4">
-        <v>1.473612757440065</v>
+        <v>2.612405229633879</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2677247577389323</v>
+        <v>0.09306888991213924</v>
       </c>
       <c r="D5">
-        <v>0.02444706695980869</v>
+        <v>0.06091066390379751</v>
       </c>
       <c r="E5">
-        <v>0.08146074684253524</v>
+        <v>0.0286352906166556</v>
       </c>
       <c r="F5">
-        <v>4.784390761278246</v>
+        <v>3.174027886237724</v>
       </c>
       <c r="G5">
-        <v>4.250147876761645</v>
+        <v>3.371694748268396</v>
       </c>
       <c r="H5">
-        <v>3.053574582634837</v>
+        <v>1.841514824042804</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1967993422925955</v>
+        <v>0.04808915558322546</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06518314329569819</v>
+        <v>0.0731443264345728</v>
       </c>
       <c r="M5">
-        <v>2.566972050634305</v>
+        <v>3.706580021148596</v>
       </c>
       <c r="N5">
-        <v>1.449179955565853</v>
+        <v>2.536053655438906</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2678203177645599</v>
+        <v>0.0929900579097378</v>
       </c>
       <c r="D6">
-        <v>0.02432058251478963</v>
+        <v>0.06045906145518387</v>
       </c>
       <c r="E6">
-        <v>0.08148186223762188</v>
+        <v>0.02866070537293375</v>
       </c>
       <c r="F6">
-        <v>4.78303886722702</v>
+        <v>3.158129788248544</v>
       </c>
       <c r="G6">
-        <v>4.247829764269255</v>
+        <v>3.352463282768781</v>
       </c>
       <c r="H6">
-        <v>3.053041327790879</v>
+        <v>1.833066605238344</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1969359379726825</v>
+        <v>0.04827404641808464</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.06507019211174736</v>
+        <v>0.07278235673642541</v>
       </c>
       <c r="M6">
-        <v>2.560179349432389</v>
+        <v>3.681187291092073</v>
       </c>
       <c r="N6">
-        <v>1.445129601598779</v>
+        <v>2.52339490607568</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2671690030482878</v>
+        <v>0.09356210711883506</v>
       </c>
       <c r="D7">
-        <v>0.02519761693587697</v>
+        <v>0.06360654428237211</v>
       </c>
       <c r="E7">
-        <v>0.08133686173938681</v>
+        <v>0.02848598215880482</v>
       </c>
       <c r="F7">
-        <v>4.79272261823013</v>
+        <v>3.269502612606146</v>
       </c>
       <c r="G7">
-        <v>4.264210803388949</v>
+        <v>3.48706807311035</v>
       </c>
       <c r="H7">
-        <v>3.056922092442704</v>
+        <v>1.892278302611544</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1959966883645814</v>
+        <v>0.04700650924569771</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06585316410983211</v>
+        <v>0.0752977936111634</v>
       </c>
       <c r="M7">
-        <v>2.607386679648897</v>
+        <v>3.85778006099595</v>
       </c>
       <c r="N7">
-        <v>1.473282801137316</v>
+        <v>2.611374203746408</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2645918580388837</v>
+        <v>0.09675194552203692</v>
       </c>
       <c r="D8">
-        <v>0.02904638008860161</v>
+        <v>0.07787618728353607</v>
       </c>
       <c r="E8">
-        <v>0.08073561429898302</v>
+        <v>0.02775636862487474</v>
       </c>
       <c r="F8">
-        <v>4.842925916399821</v>
+        <v>3.789301474728006</v>
       </c>
       <c r="G8">
-        <v>4.343745590777189</v>
+        <v>4.112183149571337</v>
       </c>
       <c r="H8">
-        <v>3.078509184871479</v>
+        <v>2.169364985422618</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1920719400256328</v>
+        <v>0.04182681135537258</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06928276460065774</v>
+        <v>0.08649243835026965</v>
       </c>
       <c r="M8">
-        <v>2.817148918684211</v>
+        <v>4.646936039587644</v>
       </c>
       <c r="N8">
-        <v>1.598470765887726</v>
+        <v>3.002689024167069</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2606115414623176</v>
+        <v>0.1059722001460273</v>
       </c>
       <c r="D9">
-        <v>0.03652709839960266</v>
+        <v>0.1079532995297257</v>
       </c>
       <c r="E9">
-        <v>0.07969457155952409</v>
+        <v>0.02647153389175738</v>
       </c>
       <c r="F9">
-        <v>4.968672640468412</v>
+        <v>4.945410937270225</v>
       </c>
       <c r="G9">
-        <v>4.526297903403076</v>
+        <v>5.490140842011726</v>
       </c>
       <c r="H9">
-        <v>3.137111477127519</v>
+        <v>2.788544331052378</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1851696389831243</v>
+        <v>0.03341128645013569</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.07591761970255817</v>
+        <v>0.1090328553365723</v>
       </c>
       <c r="M9">
-        <v>3.233695531430726</v>
+        <v>6.247436350198967</v>
       </c>
       <c r="N9">
-        <v>1.847231265031951</v>
+        <v>3.784146261599375</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2583476271657617</v>
+        <v>0.1152429330824134</v>
       </c>
       <c r="D10">
-        <v>0.04199276000359475</v>
+        <v>0.1322333461266112</v>
       </c>
       <c r="E10">
-        <v>0.07901312733583055</v>
+        <v>0.02561309472617257</v>
       </c>
       <c r="F10">
-        <v>5.078147359784737</v>
+        <v>5.920771089035753</v>
       </c>
       <c r="G10">
-        <v>4.67715724733165</v>
+        <v>6.644300690636328</v>
       </c>
       <c r="H10">
-        <v>3.190318987449643</v>
+        <v>3.312887272182365</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1805857628663006</v>
+        <v>0.02859333188453306</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.08073863405235926</v>
+        <v>0.1262625389196259</v>
       </c>
       <c r="M10">
-        <v>3.542960667412558</v>
+        <v>7.477180665945099</v>
       </c>
       <c r="N10">
-        <v>2.031872847528945</v>
+        <v>4.370378502542138</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2574624834315813</v>
+        <v>0.1202051181354875</v>
       </c>
       <c r="D11">
-        <v>0.04447490886450112</v>
+        <v>0.1440290735685892</v>
       </c>
       <c r="E11">
-        <v>0.07872107811131812</v>
+        <v>0.02524020393584792</v>
       </c>
       <c r="F11">
-        <v>5.131761301000694</v>
+        <v>6.404523208948348</v>
       </c>
       <c r="G11">
-        <v>4.749540778319044</v>
+        <v>7.21476824263857</v>
       </c>
       <c r="H11">
-        <v>3.216781620519782</v>
+        <v>3.573424062548838</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.17860693267383</v>
+        <v>0.02678632663287139</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.082920589811593</v>
+        <v>0.1343410811581194</v>
       </c>
       <c r="M11">
-        <v>3.684370617306712</v>
+        <v>8.054801311938434</v>
       </c>
       <c r="N11">
-        <v>2.116256887906047</v>
+        <v>4.640653686599023</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2571482296436898</v>
+        <v>0.1222135102973851</v>
       </c>
       <c r="D12">
-        <v>0.04541440966421817</v>
+        <v>0.1486349928539994</v>
       </c>
       <c r="E12">
-        <v>0.07861305493339898</v>
+        <v>0.02510144317824636</v>
       </c>
       <c r="F12">
-        <v>5.152619985033766</v>
+        <v>6.594874107416672</v>
       </c>
       <c r="G12">
-        <v>4.777500383453798</v>
+        <v>7.438946355269877</v>
       </c>
       <c r="H12">
-        <v>3.227131333591103</v>
+        <v>3.676016207563578</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1778729666272802</v>
+        <v>0.0261670555361011</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.08374525995144211</v>
+        <v>0.1374455516265556</v>
       </c>
       <c r="M12">
-        <v>3.738023689916673</v>
+        <v>8.276870338433071</v>
       </c>
       <c r="N12">
-        <v>2.148264802010601</v>
+        <v>4.743612907774434</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2572149769608387</v>
+        <v>0.1217748000591428</v>
       </c>
       <c r="D13">
-        <v>0.04521208796326448</v>
+        <v>0.1476362440175336</v>
       </c>
       <c r="E13">
-        <v>0.07863620554728978</v>
+        <v>0.0251312205606693</v>
       </c>
       <c r="F13">
-        <v>5.148102827080976</v>
+        <v>6.553533552838019</v>
       </c>
       <c r="G13">
-        <v>4.771454191076771</v>
+        <v>7.390272383316301</v>
       </c>
       <c r="H13">
-        <v>3.224887642995611</v>
+        <v>3.653731798498086</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1780303543854629</v>
+        <v>0.02629735499158947</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.08356772292530223</v>
+        <v>0.1367747299352828</v>
       </c>
       <c r="M13">
-        <v>3.726463903413645</v>
+        <v>8.228881824785276</v>
       </c>
       <c r="N13">
-        <v>2.141368984626183</v>
+        <v>4.721409879532416</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2574362093951947</v>
+        <v>0.120367610442301</v>
       </c>
       <c r="D14">
-        <v>0.04455220989376585</v>
+        <v>0.1444050063320503</v>
       </c>
       <c r="E14">
-        <v>0.07871213954354062</v>
+        <v>0.02522873954582039</v>
       </c>
       <c r="F14">
-        <v>5.13346616353482</v>
+        <v>6.420030520136009</v>
       </c>
       <c r="G14">
-        <v>4.751829964328692</v>
+        <v>7.233037246559036</v>
       </c>
       <c r="H14">
-        <v>3.217626482071353</v>
+        <v>3.581780435942733</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1785462402968605</v>
+        <v>0.02673401191181313</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.08298846768526147</v>
+        <v>0.1345955076889425</v>
       </c>
       <c r="M14">
-        <v>3.688782598536477</v>
+        <v>8.072999375113767</v>
       </c>
       <c r="N14">
-        <v>2.118889140069939</v>
+        <v>4.649111333453959</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2575744500983888</v>
+        <v>0.1195232627290324</v>
       </c>
       <c r="D15">
-        <v>0.04414796396801535</v>
+        <v>0.1424449754416344</v>
       </c>
       <c r="E15">
-        <v>0.07875898561962824</v>
+        <v>0.0252887883486661</v>
       </c>
       <c r="F15">
-        <v>5.124573462053149</v>
+        <v>6.339237096527853</v>
       </c>
       <c r="G15">
-        <v>4.739881404086816</v>
+        <v>7.137843573320254</v>
       </c>
       <c r="H15">
-        <v>3.213221767361688</v>
+        <v>3.538246525209445</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1788642396901547</v>
+        <v>0.02701027063285188</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.08263345060466776</v>
+        <v>0.1332669398514597</v>
       </c>
       <c r="M15">
-        <v>3.665715286153556</v>
+        <v>7.977976045147528</v>
       </c>
       <c r="N15">
-        <v>2.105126480948854</v>
+        <v>4.604909189257228</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2584083957537757</v>
+        <v>0.1149354072508828</v>
       </c>
       <c r="D16">
-        <v>0.04183047551114782</v>
+        <v>0.1314800473288074</v>
       </c>
       <c r="E16">
-        <v>0.07903257358916882</v>
+        <v>0.02563781118521913</v>
       </c>
       <c r="F16">
-        <v>5.074720967151364</v>
+        <v>5.890074770446944</v>
       </c>
       <c r="G16">
-        <v>4.672503200949052</v>
+        <v>6.608062780512853</v>
       </c>
       <c r="H16">
-        <v>3.188635386735541</v>
+        <v>3.296364669006039</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1807172313680638</v>
+        <v>0.0287199403943692</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.08059581494804036</v>
+        <v>0.1257402784657273</v>
       </c>
       <c r="M16">
-        <v>3.533733765366776</v>
+        <v>7.439855348397742</v>
       </c>
       <c r="N16">
-        <v>2.026365775755608</v>
+        <v>4.352795450339698</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2589571455425386</v>
+        <v>0.1123258508098246</v>
       </c>
       <c r="D17">
-        <v>0.04040781344255606</v>
+        <v>0.1249653161790576</v>
       </c>
       <c r="E17">
-        <v>0.07920499902570022</v>
+        <v>0.02585637786342421</v>
       </c>
       <c r="F17">
-        <v>5.045120319421272</v>
+        <v>5.625679135533431</v>
       </c>
       <c r="G17">
-        <v>4.632137624913923</v>
+        <v>6.295724969418757</v>
       </c>
       <c r="H17">
-        <v>3.174133755485798</v>
+        <v>3.15410242623193</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1818812850067442</v>
+        <v>0.0298734878064959</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.07934294573273348</v>
+        <v>0.1211912892380695</v>
       </c>
       <c r="M17">
-        <v>3.452952785516743</v>
+        <v>7.11485344414001</v>
       </c>
       <c r="N17">
-        <v>1.978146618604143</v>
+        <v>4.199114928534158</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2592863864585979</v>
+        <v>0.1108934142883697</v>
       </c>
       <c r="D18">
-        <v>0.03958912938220749</v>
+        <v>0.1212865818123845</v>
       </c>
       <c r="E18">
-        <v>0.07930586311211218</v>
+        <v>0.0259837558424767</v>
       </c>
       <c r="F18">
-        <v>5.028453255732899</v>
+        <v>5.477274190297862</v>
       </c>
       <c r="G18">
-        <v>4.609273456927724</v>
+        <v>6.12023545135014</v>
       </c>
       <c r="H18">
-        <v>3.166005105025931</v>
+        <v>3.074293021667188</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1825608280276398</v>
+        <v>0.0305724925096218</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.07862127829977084</v>
+        <v>0.1185967005566226</v>
       </c>
       <c r="M18">
-        <v>3.406557804610287</v>
+        <v>6.92958206671122</v>
       </c>
       <c r="N18">
-        <v>1.95044905782396</v>
+        <v>4.111053775400478</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.25940019648624</v>
+        <v>0.110419591571798</v>
       </c>
       <c r="D19">
-        <v>0.03931186209575799</v>
+        <v>0.1200519500401072</v>
       </c>
       <c r="E19">
-        <v>0.07934030446305851</v>
+        <v>0.02602717219862516</v>
       </c>
       <c r="F19">
-        <v>5.02287140038473</v>
+        <v>5.427619703429031</v>
       </c>
       <c r="G19">
-        <v>4.601592398288631</v>
+        <v>6.061489126084155</v>
       </c>
       <c r="H19">
-        <v>3.163289222309515</v>
+        <v>3.047596886136546</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1827926266402784</v>
+        <v>0.03081500472749532</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.07837675333303196</v>
+        <v>0.1177216934456382</v>
       </c>
       <c r="M19">
-        <v>3.390860955847842</v>
+        <v>6.86711868842761</v>
       </c>
       <c r="N19">
-        <v>1.941077542019116</v>
+        <v>4.081292153720085</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2588973202784359</v>
+        <v>0.1125964081867323</v>
       </c>
       <c r="D20">
-        <v>0.04055929909578992</v>
+        <v>0.1256515455257414</v>
       </c>
       <c r="E20">
-        <v>0.07918646926044914</v>
+        <v>0.02583293943792064</v>
       </c>
       <c r="F20">
-        <v>5.048234204563471</v>
+        <v>5.653435788693685</v>
       </c>
       <c r="G20">
-        <v>4.636398004054172</v>
+        <v>6.328532994116188</v>
       </c>
       <c r="H20">
-        <v>3.175655476481325</v>
+        <v>3.169032888527568</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1817563329657279</v>
+        <v>0.02974695228343904</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.07947642439368252</v>
+        <v>0.1216732052300102</v>
       </c>
       <c r="M20">
-        <v>3.461545009857787</v>
+        <v>7.149273913744281</v>
       </c>
       <c r="N20">
-        <v>1.983275837640548</v>
+        <v>4.215439507606789</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2573706590329721</v>
+        <v>0.120777221062383</v>
       </c>
       <c r="D21">
-        <v>0.04474604251393544</v>
+        <v>0.1453500300770258</v>
       </c>
       <c r="E21">
-        <v>0.07868976623718638</v>
+        <v>0.02520003025392725</v>
       </c>
       <c r="F21">
-        <v>5.137750146099251</v>
+        <v>6.459036093110626</v>
       </c>
       <c r="G21">
-        <v>4.757579086010765</v>
+        <v>7.278984625236376</v>
       </c>
       <c r="H21">
-        <v>3.219750301477745</v>
+        <v>3.602800427085413</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1783942942541934</v>
+        <v>0.0266039017334716</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08315865200263772</v>
+        <v>0.1352342681071548</v>
       </c>
       <c r="M21">
-        <v>3.699847681798303</v>
+        <v>8.118688567937795</v>
       </c>
       <c r="N21">
-        <v>2.125490582881014</v>
+        <v>4.670329717631319</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2564949574311584</v>
+        <v>0.1268924648524745</v>
       </c>
       <c r="D22">
-        <v>0.04747986681279315</v>
+        <v>0.1590567152507703</v>
       </c>
       <c r="E22">
-        <v>0.07838011429287217</v>
+        <v>0.02480059119592415</v>
       </c>
       <c r="F22">
-        <v>5.19950003393069</v>
+        <v>7.028253085585021</v>
       </c>
       <c r="G22">
-        <v>4.839985504770027</v>
+        <v>7.948788404573293</v>
       </c>
       <c r="H22">
-        <v>3.250487836107709</v>
+        <v>3.909734314889647</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1762866546714026</v>
+        <v>0.02493505059603685</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.08555594518030318</v>
+        <v>0.1443686754750928</v>
       </c>
       <c r="M22">
-        <v>3.856199717318475</v>
+        <v>8.772195292047059</v>
       </c>
       <c r="N22">
-        <v>2.218746910143693</v>
+        <v>4.971251181312311</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2569511267792279</v>
+        <v>0.123549385978265</v>
       </c>
       <c r="D23">
-        <v>0.04602094078728669</v>
+        <v>0.1516522045599089</v>
       </c>
       <c r="E23">
-        <v>0.07854401493753826</v>
+        <v>0.02501251118934444</v>
       </c>
       <c r="F23">
-        <v>5.166243283081769</v>
+        <v>6.71997409169677</v>
       </c>
       <c r="G23">
-        <v>4.795707022583429</v>
+        <v>7.58619466501915</v>
       </c>
       <c r="H23">
-        <v>3.233905644756589</v>
+        <v>3.743461812688679</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1774033139341249</v>
+        <v>0.025786611036823</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.08427730664405431</v>
+        <v>0.1394642363208192</v>
       </c>
       <c r="M23">
-        <v>3.772696037472514</v>
+        <v>8.421289643718126</v>
       </c>
       <c r="N23">
-        <v>2.168946634029794</v>
+        <v>4.810275819367632</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2589243244388655</v>
+        <v>0.1124738795120663</v>
       </c>
       <c r="D24">
-        <v>0.0404908148641141</v>
+        <v>0.1253410958002661</v>
       </c>
       <c r="E24">
-        <v>0.0791948411642025</v>
+        <v>0.02584353058274047</v>
       </c>
       <c r="F24">
-        <v>5.046825325199165</v>
+        <v>5.640875894525948</v>
       </c>
       <c r="G24">
-        <v>4.634470820411707</v>
+        <v>6.313687901452681</v>
       </c>
       <c r="H24">
-        <v>3.174966857206186</v>
+        <v>3.162276717258919</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1818127916659016</v>
+        <v>0.02980404813482451</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.07941608297864633</v>
+        <v>0.1214552673420428</v>
       </c>
       <c r="M24">
-        <v>3.457660318595259</v>
+        <v>7.133707560362438</v>
       </c>
       <c r="N24">
-        <v>1.980956841910626</v>
+        <v>4.20805826336138</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2615727913831307</v>
+        <v>0.1030972799943584</v>
       </c>
       <c r="D25">
-        <v>0.03450945954260476</v>
+        <v>0.09951066843782286</v>
       </c>
       <c r="E25">
-        <v>0.07996150155171833</v>
+        <v>0.02680381357213246</v>
       </c>
       <c r="F25">
-        <v>4.931686806852071</v>
+        <v>4.614126437077886</v>
       </c>
       <c r="G25">
-        <v>4.474012380041131</v>
+        <v>5.096612465902638</v>
       </c>
       <c r="H25">
-        <v>3.119492374518245</v>
+        <v>2.610807917063937</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1869515608369205</v>
+        <v>0.03547355957386422</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.07413225084246733</v>
+        <v>0.1028441002551688</v>
       </c>
       <c r="M25">
-        <v>3.120446151292953</v>
+        <v>5.806829572769345</v>
       </c>
       <c r="N25">
-        <v>1.779597273740279</v>
+        <v>3.570901952018971</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.09779564323052625</v>
+        <v>0.1396145910401856</v>
       </c>
       <c r="D2">
-        <v>0.08185701980296045</v>
+        <v>0.05457160709709896</v>
       </c>
       <c r="E2">
-        <v>0.02756866429771954</v>
+        <v>0.05542475849695183</v>
       </c>
       <c r="F2">
-        <v>3.938096185577962</v>
+        <v>1.014325814400394</v>
       </c>
       <c r="G2">
-        <v>4.290353663100888</v>
+        <v>0.8189495822599042</v>
       </c>
       <c r="H2">
-        <v>2.248863110524496</v>
+        <v>4.050205691963349E-05</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003180825481299721</v>
       </c>
       <c r="J2">
-        <v>0.04053186040968271</v>
+        <v>0.5312676515225832</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7501704467504098</v>
       </c>
       <c r="L2">
-        <v>0.08955605298226743</v>
+        <v>0.07450370344942175</v>
       </c>
       <c r="M2">
-        <v>4.863687466250781</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>3.109556406502378</v>
+        <v>0.05069870502474449</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>2.480041136738265</v>
+      </c>
+      <c r="P2">
+        <v>4.197353051556718</v>
+      </c>
+      <c r="Q2">
+        <v>2.79723201973772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0949771062650413</v>
+        <v>0.1334105925218552</v>
       </c>
       <c r="D3">
-        <v>0.07044922196853776</v>
+        <v>0.05388038013607144</v>
       </c>
       <c r="E3">
-        <v>0.02812420571295249</v>
+        <v>0.05488741490694204</v>
       </c>
       <c r="F3">
-        <v>3.515919917005448</v>
+        <v>0.9364163718506404</v>
       </c>
       <c r="G3">
-        <v>3.783989791899273</v>
+        <v>0.7418757682853823</v>
       </c>
       <c r="H3">
-        <v>2.023498940388691</v>
+        <v>7.617588833030986E-05</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001712658451411997</v>
       </c>
       <c r="J3">
-        <v>0.04441237510829055</v>
+        <v>0.4981510210538147</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6926392805023411</v>
       </c>
       <c r="L3">
-        <v>0.08070812789466686</v>
+        <v>0.07318769583240536</v>
       </c>
       <c r="M3">
-        <v>4.238565100680731</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.800598740529267</v>
+        <v>0.05140750355853108</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>2.169283680359626</v>
+      </c>
+      <c r="P3">
+        <v>3.743401270670972</v>
+      </c>
+      <c r="Q3">
+        <v>2.56421662396545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.09356914192536436</v>
+        <v>0.1294864353496905</v>
       </c>
       <c r="D4">
-        <v>0.06364355327241356</v>
+        <v>0.05349419236686614</v>
       </c>
       <c r="E4">
-        <v>0.02848396045307133</v>
+        <v>0.05454746597827675</v>
       </c>
       <c r="F4">
-        <v>3.270819921042659</v>
+        <v>0.8890470505022137</v>
       </c>
       <c r="G4">
-        <v>3.488658546195325</v>
+        <v>0.6948640946800282</v>
       </c>
       <c r="H4">
-        <v>1.89297903779331</v>
+        <v>0.0003359270971776684</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001079476932368983</v>
       </c>
       <c r="J4">
-        <v>0.0469918935729261</v>
+        <v>0.4780507102831564</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6574540696810658</v>
       </c>
       <c r="L4">
-        <v>0.07532726929581912</v>
+        <v>0.07233860467656589</v>
       </c>
       <c r="M4">
-        <v>3.859851133743163</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.612405229633879</v>
+        <v>0.05184828201824665</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>1.977339340268387</v>
+      </c>
+      <c r="P4">
+        <v>3.464886239477806</v>
+      </c>
+      <c r="Q4">
+        <v>2.422283875484737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09306888991213924</v>
+        <v>0.1276534412410015</v>
       </c>
       <c r="D5">
-        <v>0.06091066390379751</v>
+        <v>0.05335593801638794</v>
       </c>
       <c r="E5">
-        <v>0.0286352906166556</v>
+        <v>0.05439631503134557</v>
       </c>
       <c r="F5">
-        <v>3.174027886237724</v>
+        <v>0.8692202950136121</v>
       </c>
       <c r="G5">
-        <v>3.371694748268396</v>
+        <v>0.6751374928461473</v>
       </c>
       <c r="H5">
-        <v>1.841514824042804</v>
+        <v>0.0004998191660601226</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0009452750014307121</v>
       </c>
       <c r="J5">
-        <v>0.04808915558322546</v>
+        <v>0.4695952109859149</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6424303355984691</v>
       </c>
       <c r="L5">
-        <v>0.0731443264345728</v>
+        <v>0.07197072228498358</v>
       </c>
       <c r="M5">
-        <v>3.706580021148596</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.536053655438906</v>
+        <v>0.0520258680933976</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1.898052513458325</v>
+      </c>
+      <c r="P5">
+        <v>3.3519018625733</v>
+      </c>
+      <c r="Q5">
+        <v>2.36268246181848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0929900579097378</v>
+        <v>0.1270983891298272</v>
       </c>
       <c r="D6">
-        <v>0.06045906145518387</v>
+        <v>0.05334562268145859</v>
       </c>
       <c r="E6">
-        <v>0.02866070537293375</v>
+        <v>0.05435899314499082</v>
       </c>
       <c r="F6">
-        <v>3.158129788248544</v>
+        <v>0.8651622027993895</v>
       </c>
       <c r="G6">
-        <v>3.352463282768781</v>
+        <v>0.6710848993113103</v>
       </c>
       <c r="H6">
-        <v>1.833066605238344</v>
+        <v>0.0005321543969682985</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00100749199002248</v>
       </c>
       <c r="J6">
-        <v>0.04827404641808464</v>
+        <v>0.4678039858638243</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6390626858148067</v>
       </c>
       <c r="L6">
-        <v>0.07278235673642541</v>
+        <v>0.07189527595579065</v>
       </c>
       <c r="M6">
-        <v>3.681187291092073</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.52339490607568</v>
+        <v>0.05205163312800698</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1.88390573069367</v>
+      </c>
+      <c r="P6">
+        <v>3.333713326222693</v>
+      </c>
+      <c r="Q6">
+        <v>2.350327457429728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.09356210711883506</v>
+        <v>0.1287793791758247</v>
       </c>
       <c r="D7">
-        <v>0.06360654428237211</v>
+        <v>0.05352539788802346</v>
       </c>
       <c r="E7">
-        <v>0.02848598215880482</v>
+        <v>0.05451278212844413</v>
       </c>
       <c r="F7">
-        <v>3.269502612606146</v>
+        <v>0.8866662035736397</v>
       </c>
       <c r="G7">
-        <v>3.48706807311035</v>
+        <v>0.6924594197939342</v>
       </c>
       <c r="H7">
-        <v>1.892278302611544</v>
+        <v>0.0003416651251682001</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0012813832715457</v>
       </c>
       <c r="J7">
-        <v>0.04700650924569771</v>
+        <v>0.4768683912012932</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6548570056094789</v>
       </c>
       <c r="L7">
-        <v>0.0752977936111634</v>
+        <v>0.07229669072709743</v>
       </c>
       <c r="M7">
-        <v>3.85778006099595</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2.611374203746408</v>
+        <v>0.0518395611486584</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1.973629252774941</v>
+      </c>
+      <c r="P7">
+        <v>3.464924404507343</v>
+      </c>
+      <c r="Q7">
+        <v>2.414709162389727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09675194552203692</v>
+        <v>0.1365907016438968</v>
       </c>
       <c r="D8">
-        <v>0.07787618728353607</v>
+        <v>0.0543693953948079</v>
       </c>
       <c r="E8">
-        <v>0.02775636862487474</v>
+        <v>0.05519926208319692</v>
       </c>
       <c r="F8">
-        <v>3.789301474728006</v>
+        <v>0.9845456015929841</v>
       </c>
       <c r="G8">
-        <v>4.112183149571337</v>
+        <v>0.7894522781427895</v>
       </c>
       <c r="H8">
-        <v>2.169364985422618</v>
+        <v>1.208855203271852E-06</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002851884121336745</v>
       </c>
       <c r="J8">
-        <v>0.04182681135537258</v>
+        <v>0.518377043200104</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7271116361237802</v>
       </c>
       <c r="L8">
-        <v>0.08649243835026965</v>
+        <v>0.07401139915915905</v>
       </c>
       <c r="M8">
-        <v>4.646936039587644</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>3.002689024167069</v>
+        <v>0.05092596241245051</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>2.369604611414246</v>
+      </c>
+      <c r="P8">
+        <v>4.042873894695333</v>
+      </c>
+      <c r="Q8">
+        <v>2.707613202795358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1059722001460273</v>
+        <v>0.1522536191589339</v>
       </c>
       <c r="D9">
-        <v>0.1079532995297257</v>
+        <v>0.05628419460579792</v>
       </c>
       <c r="E9">
-        <v>0.02647153389175738</v>
+        <v>0.05653342032777786</v>
       </c>
       <c r="F9">
-        <v>4.945410937270225</v>
+        <v>1.184482446396444</v>
       </c>
       <c r="G9">
-        <v>5.490140842011726</v>
+        <v>0.9864355914015306</v>
       </c>
       <c r="H9">
-        <v>2.788544331052378</v>
+        <v>0.001375039980453518</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.007943061380289329</v>
       </c>
       <c r="J9">
-        <v>0.03341128645013569</v>
+        <v>0.6037497320283194</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8744913474597809</v>
       </c>
       <c r="L9">
-        <v>0.1090328553365723</v>
+        <v>0.07712331866344774</v>
       </c>
       <c r="M9">
-        <v>6.247436350198967</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>3.784146261599375</v>
+        <v>0.04920498680428054</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>3.141644275770389</v>
+      </c>
+      <c r="P9">
+        <v>5.17547836100772</v>
+      </c>
+      <c r="Q9">
+        <v>3.304610940658819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1152429330824134</v>
+        <v>0.1614878995898721</v>
       </c>
       <c r="D10">
-        <v>0.1322333461266112</v>
+        <v>0.05716893901496434</v>
       </c>
       <c r="E10">
-        <v>0.02561309472617257</v>
+        <v>0.0568321324110479</v>
       </c>
       <c r="F10">
-        <v>5.920771089035753</v>
+        <v>1.321000884075232</v>
       </c>
       <c r="G10">
-        <v>6.644300690636328</v>
+        <v>1.122521383177968</v>
       </c>
       <c r="H10">
-        <v>3.312887272182365</v>
+        <v>0.003883856851117695</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01331329627191202</v>
       </c>
       <c r="J10">
-        <v>0.02859333188453306</v>
+        <v>0.6625431092955409</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9737941332689672</v>
       </c>
       <c r="L10">
-        <v>0.1262625389196259</v>
+        <v>0.07897826938605812</v>
       </c>
       <c r="M10">
-        <v>7.477180665945099</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>4.370378502542138</v>
+        <v>0.04808804685824297</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>3.679589783476729</v>
+      </c>
+      <c r="P10">
+        <v>6.023550870062991</v>
+      </c>
+      <c r="Q10">
+        <v>3.716636477331747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1202051181354875</v>
+        <v>0.152816461685731</v>
       </c>
       <c r="D11">
-        <v>0.1440290735685892</v>
+        <v>0.05152405636140145</v>
       </c>
       <c r="E11">
-        <v>0.02524020393584792</v>
+        <v>0.05344206836111998</v>
       </c>
       <c r="F11">
-        <v>6.404523208948348</v>
+        <v>1.271695950067809</v>
       </c>
       <c r="G11">
-        <v>7.21476824263857</v>
+        <v>1.094877128280388</v>
       </c>
       <c r="H11">
-        <v>3.573424062548838</v>
+        <v>0.02266976337082838</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0154037307369741</v>
       </c>
       <c r="J11">
-        <v>0.02678632663287139</v>
+        <v>0.6450011694001887</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.9375730753690164</v>
       </c>
       <c r="L11">
-        <v>0.1343410811581194</v>
+        <v>0.08218938824001043</v>
       </c>
       <c r="M11">
-        <v>8.054801311938434</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>4.640653686599023</v>
+        <v>0.05329825259726917</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>3.725394466623584</v>
+      </c>
+      <c r="P11">
+        <v>6.53024422880344</v>
+      </c>
+      <c r="Q11">
+        <v>3.621500604084474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1222135102973851</v>
+        <v>0.1453847610455412</v>
       </c>
       <c r="D12">
-        <v>0.1486349928539994</v>
+        <v>0.04708743784767933</v>
       </c>
       <c r="E12">
-        <v>0.02510144317824636</v>
+        <v>0.0533534473870283</v>
       </c>
       <c r="F12">
-        <v>6.594874107416672</v>
+        <v>1.204448815489329</v>
       </c>
       <c r="G12">
-        <v>7.438946355269877</v>
+        <v>1.045827149455576</v>
       </c>
       <c r="H12">
-        <v>3.676016207563578</v>
+        <v>0.06118044100424669</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01565387874868307</v>
       </c>
       <c r="J12">
-        <v>0.0261670555361011</v>
+        <v>0.6191225399853266</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.8898281340170868</v>
       </c>
       <c r="L12">
-        <v>0.1374455516265556</v>
+        <v>0.09062365445647202</v>
       </c>
       <c r="M12">
-        <v>8.276870338433071</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>4.743612907774434</v>
+        <v>0.06468490220407119</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>3.652406657454179</v>
+      </c>
+      <c r="P12">
+        <v>6.780456770284729</v>
+      </c>
+      <c r="Q12">
+        <v>3.463417144843561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1217748000591428</v>
+        <v>0.1374485393711531</v>
       </c>
       <c r="D13">
-        <v>0.1476362440175336</v>
+        <v>0.04338002394748131</v>
       </c>
       <c r="E13">
-        <v>0.0251312205606693</v>
+        <v>0.05568679830948753</v>
       </c>
       <c r="F13">
-        <v>6.553533552838019</v>
+        <v>1.116335243093005</v>
       </c>
       <c r="G13">
-        <v>7.390272383316301</v>
+        <v>0.9741784739881467</v>
       </c>
       <c r="H13">
-        <v>3.653731798498086</v>
+        <v>0.116421881050826</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0147320210328914</v>
       </c>
       <c r="J13">
-        <v>0.02629735499158947</v>
+        <v>0.5836661966513788</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8268174080138664</v>
       </c>
       <c r="L13">
-        <v>0.1367747299352828</v>
+        <v>0.1033231041225591</v>
       </c>
       <c r="M13">
-        <v>8.228881824785276</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>4.721409879532416</v>
+        <v>0.08121220760974524</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>3.480335672885545</v>
+      </c>
+      <c r="P13">
+        <v>6.847645026258533</v>
+      </c>
+      <c r="Q13">
+        <v>3.237289380070195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.120367610442301</v>
+        <v>0.1316851313997844</v>
       </c>
       <c r="D14">
-        <v>0.1444050063320503</v>
+        <v>0.04121762376524707</v>
       </c>
       <c r="E14">
-        <v>0.02522873954582039</v>
+        <v>0.05874617237643953</v>
       </c>
       <c r="F14">
-        <v>6.420030520136009</v>
+        <v>1.045277681291822</v>
       </c>
       <c r="G14">
-        <v>7.233037246559036</v>
+        <v>0.91368816672815</v>
       </c>
       <c r="H14">
-        <v>3.581780435942733</v>
+        <v>0.1652919117200042</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01366073779775157</v>
       </c>
       <c r="J14">
-        <v>0.02673401191181313</v>
+        <v>0.5544295034969196</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.7756005287040963</v>
       </c>
       <c r="L14">
-        <v>0.1345955076889425</v>
+        <v>0.1148335637076734</v>
       </c>
       <c r="M14">
-        <v>8.072999375113767</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>4.649111333453959</v>
+        <v>0.09572005650780113</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>3.315012369761547</v>
+      </c>
+      <c r="P14">
+        <v>6.811956175511227</v>
+      </c>
+      <c r="Q14">
+        <v>3.047800627411505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1195232627290324</v>
+        <v>0.129943206508802</v>
       </c>
       <c r="D15">
-        <v>0.1424449754416344</v>
+        <v>0.04078077575629102</v>
       </c>
       <c r="E15">
-        <v>0.0252887883486661</v>
+        <v>0.05963652635299788</v>
       </c>
       <c r="F15">
-        <v>6.339237096527853</v>
+        <v>1.022953610016245</v>
       </c>
       <c r="G15">
-        <v>7.137843573320254</v>
+        <v>0.8935423297293568</v>
       </c>
       <c r="H15">
-        <v>3.538246525209445</v>
+        <v>0.1775823236718281</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01325099024829424</v>
       </c>
       <c r="J15">
-        <v>0.02701027063285188</v>
+        <v>0.5449861517816998</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.7591453296084154</v>
       </c>
       <c r="L15">
-        <v>0.1332669398514597</v>
+        <v>0.1177638486941675</v>
       </c>
       <c r="M15">
-        <v>7.977976045147528</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>4.604909189257228</v>
+        <v>0.09927322598318256</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>3.253238008712543</v>
+      </c>
+      <c r="P15">
+        <v>6.764074706805502</v>
+      </c>
+      <c r="Q15">
+        <v>2.98529214707375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1149354072508828</v>
+        <v>0.1275086173076758</v>
       </c>
       <c r="D16">
-        <v>0.1314800473288074</v>
+        <v>0.04121557412527999</v>
       </c>
       <c r="E16">
-        <v>0.02563781118521913</v>
+        <v>0.0589187974214731</v>
       </c>
       <c r="F16">
-        <v>5.890074770446944</v>
+        <v>0.9823877490081685</v>
       </c>
       <c r="G16">
-        <v>6.608062780512853</v>
+        <v>0.8495022839729245</v>
       </c>
       <c r="H16">
-        <v>3.296364669006039</v>
+        <v>0.1637827880038429</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01113431722018365</v>
       </c>
       <c r="J16">
-        <v>0.0287199403943692</v>
+        <v>0.5267392983878239</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7290378018413222</v>
       </c>
       <c r="L16">
-        <v>0.1257402784657273</v>
+        <v>0.1139970526089797</v>
       </c>
       <c r="M16">
-        <v>7.439855348397742</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>4.352795450339698</v>
+        <v>0.09565028131331132</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>3.060042575662081</v>
+      </c>
+      <c r="P16">
+        <v>6.381200220542098</v>
+      </c>
+      <c r="Q16">
+        <v>2.853539548488158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1123258508098246</v>
+        <v>0.1285422508526857</v>
       </c>
       <c r="D17">
-        <v>0.1249653161790576</v>
+        <v>0.0426432173002258</v>
       </c>
       <c r="E17">
-        <v>0.02585637786342421</v>
+        <v>0.05651946000565378</v>
       </c>
       <c r="F17">
-        <v>5.625679135533431</v>
+        <v>0.9887141138865019</v>
       </c>
       <c r="G17">
-        <v>6.295724969418757</v>
+        <v>0.8476251903963146</v>
       </c>
       <c r="H17">
-        <v>3.15410242623193</v>
+        <v>0.1254694212840519</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01012644800172069</v>
       </c>
       <c r="J17">
-        <v>0.0298734878064959</v>
+        <v>0.5281982497615729</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7328585491628274</v>
       </c>
       <c r="L17">
-        <v>0.1211912892380695</v>
+        <v>0.1045371380270232</v>
       </c>
       <c r="M17">
-        <v>7.11485344414001</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>4.199114928534158</v>
+        <v>0.08474316666655923</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>2.999058170687618</v>
+      </c>
+      <c r="P17">
+        <v>6.107690063103178</v>
+      </c>
+      <c r="Q17">
+        <v>2.852492589403852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1108934142883697</v>
+        <v>0.13346632708285</v>
       </c>
       <c r="D18">
-        <v>0.1212865818123845</v>
+        <v>0.04536526653340545</v>
       </c>
       <c r="E18">
-        <v>0.0259837558424767</v>
+        <v>0.05373093455073175</v>
       </c>
       <c r="F18">
-        <v>5.477274190297862</v>
+        <v>1.037942729590199</v>
       </c>
       <c r="G18">
-        <v>6.12023545135014</v>
+        <v>0.8835008548710874</v>
       </c>
       <c r="H18">
-        <v>3.074293021667188</v>
+        <v>0.07253646893866517</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.009645518280175125</v>
       </c>
       <c r="J18">
-        <v>0.0305724925096218</v>
+        <v>0.5475439553702159</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7683547954916961</v>
       </c>
       <c r="L18">
-        <v>0.1185967005566226</v>
+        <v>0.0918847633192108</v>
       </c>
       <c r="M18">
-        <v>6.92958206671122</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>4.111053775400478</v>
+        <v>0.06968082223437122</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>3.046662903520215</v>
+      </c>
+      <c r="P18">
+        <v>5.896523884215185</v>
+      </c>
+      <c r="Q18">
+        <v>2.968975463726167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.110419591571798</v>
+        <v>0.1409614660794603</v>
       </c>
       <c r="D19">
-        <v>0.1200519500401072</v>
+        <v>0.04942796476509415</v>
       </c>
       <c r="E19">
-        <v>0.02602717219862516</v>
+        <v>0.05279720740286886</v>
       </c>
       <c r="F19">
-        <v>5.427619703429031</v>
+        <v>1.115568921774894</v>
       </c>
       <c r="G19">
-        <v>6.061489126084155</v>
+        <v>0.9440557960765261</v>
       </c>
       <c r="H19">
-        <v>3.047596886136546</v>
+        <v>0.02761588135955861</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01007909281565489</v>
       </c>
       <c r="J19">
-        <v>0.03081500472749532</v>
+        <v>0.5782262583468736</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.8234301501888339</v>
       </c>
       <c r="L19">
-        <v>0.1177216934456382</v>
+        <v>0.08190127250516355</v>
       </c>
       <c r="M19">
-        <v>6.86711868842761</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>4.081292153720085</v>
+        <v>0.05642482553432338</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>3.173566496017386</v>
+      </c>
+      <c r="P19">
+        <v>5.755211585779136</v>
+      </c>
+      <c r="Q19">
+        <v>3.161558680742331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1125964081867323</v>
+        <v>0.1569238057843592</v>
       </c>
       <c r="D20">
-        <v>0.1256515455257414</v>
+        <v>0.05699517203497706</v>
       </c>
       <c r="E20">
-        <v>0.02583293943792064</v>
+        <v>0.05663380235798599</v>
       </c>
       <c r="F20">
-        <v>5.653435788693685</v>
+        <v>1.277689988702534</v>
       </c>
       <c r="G20">
-        <v>6.328532994116188</v>
+        <v>1.079376681784012</v>
       </c>
       <c r="H20">
-        <v>3.169032888527568</v>
+        <v>0.003069283077417051</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01237234975901025</v>
       </c>
       <c r="J20">
-        <v>0.02974695228343904</v>
+        <v>0.6434064052821782</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.939658831977205</v>
       </c>
       <c r="L20">
-        <v>0.1216732052300102</v>
+        <v>0.07839580516065658</v>
       </c>
       <c r="M20">
-        <v>7.149273913744281</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>4.215439507606789</v>
+        <v>0.04831883844705498</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>3.529428246055502</v>
+      </c>
+      <c r="P20">
+        <v>5.806283419427871</v>
+      </c>
+      <c r="Q20">
+        <v>3.584994861406926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.120777221062383</v>
+        <v>0.1665086008521683</v>
       </c>
       <c r="D21">
-        <v>0.1453500300770258</v>
+        <v>0.05890132803504855</v>
       </c>
       <c r="E21">
-        <v>0.02520003025392725</v>
+        <v>0.05787151528909273</v>
       </c>
       <c r="F21">
-        <v>6.459036093110626</v>
+        <v>1.404487452297758</v>
       </c>
       <c r="G21">
-        <v>7.278984625236376</v>
+        <v>1.201604805926365</v>
       </c>
       <c r="H21">
-        <v>3.602800427085413</v>
+        <v>0.005471522162674214</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01713032974518214</v>
       </c>
       <c r="J21">
-        <v>0.0266039017334716</v>
+        <v>0.6974312210606683</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.031838427305601</v>
       </c>
       <c r="L21">
-        <v>0.1352342681071548</v>
+        <v>0.08016563908668844</v>
       </c>
       <c r="M21">
-        <v>8.118688567937795</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>4.670329717631319</v>
+        <v>0.04733535953329993</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>3.976095149211801</v>
+      </c>
+      <c r="P21">
+        <v>6.436430235955129</v>
+      </c>
+      <c r="Q21">
+        <v>3.957542413358397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1268924648524745</v>
+        <v>0.1728699715760698</v>
       </c>
       <c r="D22">
-        <v>0.1590567152507703</v>
+        <v>0.05976276827076887</v>
       </c>
       <c r="E22">
-        <v>0.02480059119592415</v>
+        <v>0.05839406086260102</v>
       </c>
       <c r="F22">
-        <v>7.028253085585021</v>
+        <v>1.484623986796748</v>
       </c>
       <c r="G22">
-        <v>7.948788404573293</v>
+        <v>1.279945697780647</v>
       </c>
       <c r="H22">
-        <v>3.909734314889647</v>
+        <v>0.007407349740813696</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02033741674758982</v>
       </c>
       <c r="J22">
-        <v>0.02493505059603685</v>
+        <v>0.7320305871133712</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.091064893872925</v>
       </c>
       <c r="L22">
-        <v>0.1443686754750928</v>
+        <v>0.08121769121318967</v>
       </c>
       <c r="M22">
-        <v>8.772195292047059</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>4.971251181312311</v>
+        <v>0.04675037225272982</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>4.259230860068655</v>
+      </c>
+      <c r="P22">
+        <v>6.853482036103799</v>
+      </c>
+      <c r="Q22">
+        <v>4.196260797730702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.123549385978265</v>
+        <v>0.170290001810443</v>
       </c>
       <c r="D23">
-        <v>0.1516522045599089</v>
+        <v>0.05925757318749092</v>
       </c>
       <c r="E23">
-        <v>0.02501251118934444</v>
+        <v>0.05815051570921792</v>
       </c>
       <c r="F23">
-        <v>6.71997409169677</v>
+        <v>1.444331620599044</v>
       </c>
       <c r="G23">
-        <v>7.58619466501915</v>
+        <v>1.240669241191085</v>
       </c>
       <c r="H23">
-        <v>3.743461812688679</v>
+        <v>0.006357713622492933</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01836721130239116</v>
       </c>
       <c r="J23">
-        <v>0.025786611036823</v>
+        <v>0.7148156260663825</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.062315565819887</v>
       </c>
       <c r="L23">
-        <v>0.1394642363208192</v>
+        <v>0.08069586832718184</v>
       </c>
       <c r="M23">
-        <v>8.421289643718126</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>4.810275819367632</v>
+        <v>0.04707230202698653</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>4.11143434599694</v>
+      </c>
+      <c r="P23">
+        <v>6.628919713810433</v>
+      </c>
+      <c r="Q23">
+        <v>4.076847972405346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1124738795120663</v>
+        <v>0.1591103969201271</v>
       </c>
       <c r="D24">
-        <v>0.1253410958002661</v>
+        <v>0.0575036514089966</v>
       </c>
       <c r="E24">
-        <v>0.02584353058274047</v>
+        <v>0.05717515426333808</v>
       </c>
       <c r="F24">
-        <v>5.640875894525948</v>
+        <v>1.289448309898489</v>
       </c>
       <c r="G24">
-        <v>6.313687901452681</v>
+        <v>1.089233542247968</v>
       </c>
       <c r="H24">
-        <v>3.162276717258919</v>
+        <v>0.003036687551546846</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01201022417600317</v>
       </c>
       <c r="J24">
-        <v>0.02980404813482451</v>
+        <v>0.6483933272813118</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9496707556250499</v>
       </c>
       <c r="L24">
-        <v>0.1214552673420428</v>
+        <v>0.07861218689214267</v>
       </c>
       <c r="M24">
-        <v>7.133707560362438</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>4.20805826336138</v>
+        <v>0.04829264881651296</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>3.544454644181343</v>
+      </c>
+      <c r="P24">
+        <v>5.782671966940313</v>
+      </c>
+      <c r="Q24">
+        <v>3.616326278687609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1030972799943584</v>
+        <v>0.1468686046061691</v>
       </c>
       <c r="D25">
-        <v>0.09951066843782286</v>
+        <v>0.05579103935404106</v>
       </c>
       <c r="E25">
-        <v>0.02680381357213246</v>
+        <v>0.05612222520344323</v>
       </c>
       <c r="F25">
-        <v>4.614126437077886</v>
+        <v>1.126000607259442</v>
       </c>
       <c r="G25">
-        <v>5.096612465902638</v>
+        <v>0.9288358990669252</v>
       </c>
       <c r="H25">
-        <v>2.610807917063937</v>
+        <v>0.0007534330344456386</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.006623407235355927</v>
       </c>
       <c r="J25">
-        <v>0.03547355957386422</v>
+        <v>0.5784507249471176</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8300446697044279</v>
       </c>
       <c r="L25">
-        <v>0.1028441002551688</v>
+        <v>0.07625240849534504</v>
       </c>
       <c r="M25">
-        <v>5.806829572769345</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>3.570901952018971</v>
+        <v>0.04964480251540371</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.928932986313342</v>
+      </c>
+      <c r="P25">
+        <v>4.871680323924011</v>
+      </c>
+      <c r="Q25">
+        <v>3.12936459678275</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1396145910401856</v>
+        <v>0.1035401575713504</v>
       </c>
       <c r="D2">
-        <v>0.05457160709709896</v>
+        <v>0.05582538741626664</v>
       </c>
       <c r="E2">
-        <v>0.05542475849695183</v>
+        <v>0.0532256713313366</v>
       </c>
       <c r="F2">
-        <v>1.014325814400394</v>
+        <v>0.9189142924461464</v>
       </c>
       <c r="G2">
-        <v>0.8189495822599042</v>
+        <v>0.7017155895970291</v>
       </c>
       <c r="H2">
-        <v>4.050205691963349E-05</v>
+        <v>2.273418379084013E-05</v>
       </c>
       <c r="I2">
-        <v>0.003180825481299721</v>
+        <v>0.003202426730305241</v>
       </c>
       <c r="J2">
-        <v>0.5312676515225832</v>
+        <v>0.5279302226890223</v>
       </c>
       <c r="K2">
-        <v>0.7501704467504098</v>
+        <v>0.6402551607805336</v>
       </c>
       <c r="L2">
-        <v>0.07450370344942175</v>
+        <v>0.3044462773003076</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1899453336801855</v>
       </c>
       <c r="N2">
-        <v>0.05069870502474449</v>
+        <v>0.07179357548082033</v>
       </c>
       <c r="O2">
-        <v>2.480041136738265</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.197353051556718</v>
+        <v>0.0554623936093166</v>
       </c>
       <c r="Q2">
-        <v>2.79723201973772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>2.361137794108998</v>
+      </c>
+      <c r="R2">
+        <v>4.268422148026531</v>
+      </c>
+      <c r="S2">
+        <v>2.494495124411003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1334105925218552</v>
+        <v>0.09975244174437847</v>
       </c>
       <c r="D3">
-        <v>0.05388038013607144</v>
+        <v>0.05510253173710211</v>
       </c>
       <c r="E3">
-        <v>0.05488741490694204</v>
+        <v>0.05296391081737095</v>
       </c>
       <c r="F3">
-        <v>0.9364163718506404</v>
+        <v>0.8541301004215569</v>
       </c>
       <c r="G3">
-        <v>0.7418757682853823</v>
+        <v>0.6388495472071156</v>
       </c>
       <c r="H3">
-        <v>7.617588833030986E-05</v>
+        <v>7.918416056762467E-05</v>
       </c>
       <c r="I3">
-        <v>0.001712658451411997</v>
+        <v>0.001914154223455533</v>
       </c>
       <c r="J3">
-        <v>0.4981510210538147</v>
+        <v>0.4985885464731723</v>
       </c>
       <c r="K3">
-        <v>0.6926392805023411</v>
+        <v>0.5971602995384728</v>
       </c>
       <c r="L3">
-        <v>0.07318769583240536</v>
+        <v>0.2976117624864543</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1651524373235844</v>
       </c>
       <c r="N3">
-        <v>0.05140750355853108</v>
+        <v>0.07060007605612162</v>
       </c>
       <c r="O3">
-        <v>2.169283680359626</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.743401270670972</v>
+        <v>0.05670278037556953</v>
       </c>
       <c r="Q3">
-        <v>2.56421662396545</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.069196543015622</v>
+      </c>
+      <c r="R3">
+        <v>3.802591605669903</v>
+      </c>
+      <c r="S3">
+        <v>2.303672263510805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1294864353496905</v>
+        <v>0.09734392339440845</v>
       </c>
       <c r="D4">
-        <v>0.05349419236686614</v>
+        <v>0.05470709284992026</v>
       </c>
       <c r="E4">
-        <v>0.05454746597827675</v>
+        <v>0.05279558416253805</v>
       </c>
       <c r="F4">
-        <v>0.8890470505022137</v>
+        <v>0.8146118628442593</v>
       </c>
       <c r="G4">
-        <v>0.6948640946800282</v>
+        <v>0.6004822706496782</v>
       </c>
       <c r="H4">
-        <v>0.0003359270971776684</v>
+        <v>0.0003097598788333045</v>
       </c>
       <c r="I4">
-        <v>0.001079476932368983</v>
+        <v>0.001329315583047386</v>
       </c>
       <c r="J4">
-        <v>0.4780507102831564</v>
+        <v>0.4805417669288659</v>
       </c>
       <c r="K4">
-        <v>0.6574540696810658</v>
+        <v>0.5706435218452057</v>
       </c>
       <c r="L4">
-        <v>0.07233860467656589</v>
+        <v>0.2931173835842102</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.150699973068587</v>
       </c>
       <c r="N4">
-        <v>0.05184828201824665</v>
+        <v>0.06983045164376733</v>
       </c>
       <c r="O4">
-        <v>1.977339340268387</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3.464886239477806</v>
+        <v>0.05750774265262582</v>
       </c>
       <c r="Q4">
-        <v>2.422283875484737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>1.888654073238769</v>
+      </c>
+      <c r="R4">
+        <v>3.516834292837046</v>
+      </c>
+      <c r="S4">
+        <v>2.186979426165749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1276534412410015</v>
+        <v>0.0962338833763674</v>
       </c>
       <c r="D5">
-        <v>0.05335593801638794</v>
+        <v>0.0545686079187675</v>
       </c>
       <c r="E5">
-        <v>0.05439631503134557</v>
+        <v>0.0527163135521036</v>
       </c>
       <c r="F5">
-        <v>0.8692202950136121</v>
+        <v>0.7979740873456151</v>
       </c>
       <c r="G5">
-        <v>0.6751374928461473</v>
+        <v>0.5843090630909984</v>
       </c>
       <c r="H5">
-        <v>0.0004998191660601226</v>
+        <v>0.0004517122839153842</v>
       </c>
       <c r="I5">
-        <v>0.0009452750014307121</v>
+        <v>0.001212763952043616</v>
       </c>
       <c r="J5">
-        <v>0.4695952109859149</v>
+        <v>0.4728695697188385</v>
       </c>
       <c r="K5">
-        <v>0.6424303355984691</v>
+        <v>0.5591722384966502</v>
       </c>
       <c r="L5">
-        <v>0.07197072228498358</v>
+        <v>0.2909263731501071</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1447961875523376</v>
       </c>
       <c r="N5">
-        <v>0.0520258680933976</v>
+        <v>0.0695012775111068</v>
       </c>
       <c r="O5">
-        <v>1.898052513458325</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>3.3519018625733</v>
+        <v>0.05786105746889136</v>
       </c>
       <c r="Q5">
-        <v>2.36268246181848</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1.814003179911609</v>
+      </c>
+      <c r="R5">
+        <v>3.400910605150472</v>
+      </c>
+      <c r="S5">
+        <v>2.137641957750787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1270983891298272</v>
+        <v>0.0959191650945268</v>
       </c>
       <c r="D6">
-        <v>0.05334562268145859</v>
+        <v>0.05455963233680805</v>
       </c>
       <c r="E6">
-        <v>0.05435899314499082</v>
+        <v>0.05269252959985327</v>
       </c>
       <c r="F6">
-        <v>0.8651622027993895</v>
+        <v>0.7944905746197364</v>
       </c>
       <c r="G6">
-        <v>0.6710848993113103</v>
+        <v>0.5809062815977626</v>
       </c>
       <c r="H6">
-        <v>0.0005321543969682985</v>
+        <v>0.0004796089798644321</v>
       </c>
       <c r="I6">
-        <v>0.00100749199002248</v>
+        <v>0.001293988561253734</v>
       </c>
       <c r="J6">
-        <v>0.4678039858638243</v>
+        <v>0.471217229014826</v>
       </c>
       <c r="K6">
-        <v>0.6390626858148067</v>
+        <v>0.5564737659248848</v>
       </c>
       <c r="L6">
-        <v>0.07189527595579065</v>
+        <v>0.2902111678207007</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1435749901324463</v>
       </c>
       <c r="N6">
-        <v>0.05205163312800698</v>
+        <v>0.06943866500465656</v>
       </c>
       <c r="O6">
-        <v>1.88390573069367</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>3.333713326222693</v>
+        <v>0.05793885392699316</v>
       </c>
       <c r="Q6">
-        <v>2.350327457429728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1.800656546660633</v>
+      </c>
+      <c r="R6">
+        <v>3.382232328470224</v>
+      </c>
+      <c r="S6">
+        <v>2.127150504836152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1287793791758247</v>
+        <v>0.09701218823818003</v>
       </c>
       <c r="D7">
-        <v>0.05352539788802346</v>
+        <v>0.05480994514914528</v>
       </c>
       <c r="E7">
-        <v>0.05451278212844413</v>
+        <v>0.0527720990827043</v>
       </c>
       <c r="F7">
-        <v>0.8866662035736397</v>
+        <v>0.8112989559598986</v>
       </c>
       <c r="G7">
-        <v>0.6924594197939342</v>
+        <v>0.6025737504295421</v>
       </c>
       <c r="H7">
-        <v>0.0003416651251682001</v>
+        <v>0.0003163110944899294</v>
       </c>
       <c r="I7">
-        <v>0.0012813832715457</v>
+        <v>0.001572865612924801</v>
       </c>
       <c r="J7">
-        <v>0.4768683912012932</v>
+        <v>0.4729845906191059</v>
       </c>
       <c r="K7">
-        <v>0.6548570056094789</v>
+        <v>0.5675408166274138</v>
       </c>
       <c r="L7">
-        <v>0.07229669072709743</v>
+        <v>0.2918194286496174</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.149659329434801</v>
       </c>
       <c r="N7">
-        <v>0.0518395611486584</v>
+        <v>0.06979584841754338</v>
       </c>
       <c r="O7">
-        <v>1.973629252774941</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>3.464924404507343</v>
+        <v>0.05756457537697424</v>
       </c>
       <c r="Q7">
-        <v>2.414709162389727</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1.883934742359898</v>
+      </c>
+      <c r="R7">
+        <v>3.517534800446356</v>
+      </c>
+      <c r="S7">
+        <v>2.176123050712846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1365907016438968</v>
+        <v>0.1019148779909109</v>
       </c>
       <c r="D8">
-        <v>0.0543693953948079</v>
+        <v>0.05584503285632181</v>
       </c>
       <c r="E8">
-        <v>0.05519926208319692</v>
+        <v>0.05312217971111588</v>
       </c>
       <c r="F8">
-        <v>0.9845456015929841</v>
+        <v>0.8902013971273703</v>
       </c>
       <c r="G8">
-        <v>0.7894522781427895</v>
+        <v>0.6917146710292315</v>
       </c>
       <c r="H8">
-        <v>1.208855203271852E-06</v>
+        <v>1.692362494587485E-08</v>
       </c>
       <c r="I8">
-        <v>0.002851884121336745</v>
+        <v>0.002991989734128175</v>
       </c>
       <c r="J8">
-        <v>0.518377043200104</v>
+        <v>0.4952804489574731</v>
       </c>
       <c r="K8">
-        <v>0.7271116361237802</v>
+        <v>0.6199406652321429</v>
       </c>
       <c r="L8">
-        <v>0.07401139915915905</v>
+        <v>0.2999227642478317</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1793312754577308</v>
       </c>
       <c r="N8">
-        <v>0.05092596241245051</v>
+        <v>0.07133413016681223</v>
       </c>
       <c r="O8">
-        <v>2.369604611414246</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>4.042873894695333</v>
+        <v>0.05595767926424866</v>
       </c>
       <c r="Q8">
-        <v>2.707613202795358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>2.25346010857136</v>
+      </c>
+      <c r="R8">
+        <v>4.11221320315687</v>
+      </c>
+      <c r="S8">
+        <v>2.407277785830246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1522536191589339</v>
+        <v>0.1113856565573279</v>
       </c>
       <c r="D9">
-        <v>0.05628419460579792</v>
+        <v>0.05796007797967206</v>
       </c>
       <c r="E9">
-        <v>0.05653342032777786</v>
+        <v>0.05378278051801155</v>
       </c>
       <c r="F9">
-        <v>1.184482446396444</v>
+        <v>1.054901419946717</v>
       </c>
       <c r="G9">
-        <v>0.9864355914015306</v>
+        <v>0.8566558520052467</v>
       </c>
       <c r="H9">
-        <v>0.001375039980453518</v>
+        <v>0.00104886854052455</v>
       </c>
       <c r="I9">
-        <v>0.007943061380289329</v>
+        <v>0.007179711676399414</v>
       </c>
       <c r="J9">
-        <v>0.6037497320283194</v>
+        <v>0.56360089444442</v>
       </c>
       <c r="K9">
-        <v>0.8744913474597809</v>
+        <v>0.7291155705555425</v>
       </c>
       <c r="L9">
-        <v>0.07712331866344774</v>
+        <v>0.3162537369808618</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2460291709531219</v>
       </c>
       <c r="N9">
-        <v>0.04920498680428054</v>
+        <v>0.07413446991067696</v>
       </c>
       <c r="O9">
-        <v>3.141644275770389</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>5.17547836100772</v>
+        <v>0.05306954642957962</v>
       </c>
       <c r="Q9">
-        <v>3.304610940658819</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>2.976423831185755</v>
+      </c>
+      <c r="R9">
+        <v>5.275407307960052</v>
+      </c>
+      <c r="S9">
+        <v>2.890666370763824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1614878995898721</v>
+        <v>0.1175204182429681</v>
       </c>
       <c r="D10">
-        <v>0.05716893901496434</v>
+        <v>0.05939065860702541</v>
       </c>
       <c r="E10">
-        <v>0.0568321324110479</v>
+        <v>0.05375981333709445</v>
       </c>
       <c r="F10">
-        <v>1.321000884075232</v>
+        <v>1.159437104252291</v>
       </c>
       <c r="G10">
-        <v>1.122521383177968</v>
+        <v>0.9961577645660356</v>
       </c>
       <c r="H10">
-        <v>0.003883856851117695</v>
+        <v>0.003051659458196632</v>
       </c>
       <c r="I10">
-        <v>0.01331329627191202</v>
+        <v>0.01149386726874813</v>
       </c>
       <c r="J10">
-        <v>0.6625431092955409</v>
+        <v>0.5728774403984573</v>
       </c>
       <c r="K10">
-        <v>0.9737941332689672</v>
+        <v>0.7965423199954742</v>
       </c>
       <c r="L10">
-        <v>0.07897826938605812</v>
+        <v>0.3222593975060519</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.293857117223439</v>
       </c>
       <c r="N10">
-        <v>0.04808804685824297</v>
+        <v>0.07613490156985758</v>
       </c>
       <c r="O10">
-        <v>3.679589783476729</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>6.023550870062991</v>
+        <v>0.05056791138288208</v>
       </c>
       <c r="Q10">
-        <v>3.716636477331747</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>3.472210400596921</v>
+      </c>
+      <c r="R10">
+        <v>6.149922218269126</v>
+      </c>
+      <c r="S10">
+        <v>3.197350145984558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.152816461685731</v>
+        <v>0.1158960024702562</v>
       </c>
       <c r="D11">
-        <v>0.05152405636140145</v>
+        <v>0.05394869880512942</v>
       </c>
       <c r="E11">
-        <v>0.05344206836111998</v>
+        <v>0.05121585803500317</v>
       </c>
       <c r="F11">
-        <v>1.271695950067809</v>
+        <v>1.099429891148645</v>
       </c>
       <c r="G11">
-        <v>1.094877128280388</v>
+        <v>1.026944146250031</v>
       </c>
       <c r="H11">
-        <v>0.02266976337082838</v>
+        <v>0.02170620232709197</v>
       </c>
       <c r="I11">
-        <v>0.0154037307369741</v>
+        <v>0.01325912912910621</v>
       </c>
       <c r="J11">
-        <v>0.6450011694001887</v>
+        <v>0.4848973722968708</v>
       </c>
       <c r="K11">
-        <v>0.9375730753690164</v>
+        <v>0.7543855992496091</v>
       </c>
       <c r="L11">
-        <v>0.08218938824001043</v>
+        <v>0.299173122924266</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2867818581237742</v>
       </c>
       <c r="N11">
-        <v>0.05329825259726917</v>
+        <v>0.08276207995816165</v>
       </c>
       <c r="O11">
-        <v>3.725394466623584</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>6.53024422880344</v>
+        <v>0.0484041849743555</v>
       </c>
       <c r="Q11">
-        <v>3.621500604084474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>3.5015588667804</v>
+      </c>
+      <c r="R11">
+        <v>6.672076239824548</v>
+      </c>
+      <c r="S11">
+        <v>3.059603305192439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1453847610455412</v>
+        <v>0.1140941614773716</v>
       </c>
       <c r="D12">
-        <v>0.04708743784767933</v>
+        <v>0.04919053934640516</v>
       </c>
       <c r="E12">
-        <v>0.0533534473870283</v>
+        <v>0.05174890929848619</v>
       </c>
       <c r="F12">
-        <v>1.204448815489329</v>
+        <v>1.034237254894336</v>
       </c>
       <c r="G12">
-        <v>1.045827149455576</v>
+        <v>1.00915121762236</v>
       </c>
       <c r="H12">
-        <v>0.06118044100424669</v>
+        <v>0.06021824729404557</v>
       </c>
       <c r="I12">
-        <v>0.01565387874868307</v>
+        <v>0.01342471559837932</v>
       </c>
       <c r="J12">
-        <v>0.6191225399853266</v>
+        <v>0.4348544704160844</v>
       </c>
       <c r="K12">
-        <v>0.8898281340170868</v>
+        <v>0.7111489556048198</v>
       </c>
       <c r="L12">
-        <v>0.09062365445647202</v>
+        <v>0.2811652546210226</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2728040779773409</v>
       </c>
       <c r="N12">
-        <v>0.06468490220407119</v>
+        <v>0.09390766931996808</v>
       </c>
       <c r="O12">
-        <v>3.652406657454179</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>6.780456770284729</v>
+        <v>0.05381940642194571</v>
       </c>
       <c r="Q12">
-        <v>3.463417144843561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>3.428111065941067</v>
+      </c>
+      <c r="R12">
+        <v>6.927024219018051</v>
+      </c>
+      <c r="S12">
+        <v>2.902742909776009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1374485393711531</v>
+        <v>0.1115998223942158</v>
       </c>
       <c r="D13">
-        <v>0.04338002394748131</v>
+        <v>0.04473180745562644</v>
       </c>
       <c r="E13">
-        <v>0.05568679830948753</v>
+        <v>0.05468404331024423</v>
       </c>
       <c r="F13">
-        <v>1.116335243093005</v>
+        <v>0.9604776763101484</v>
       </c>
       <c r="G13">
-        <v>0.9741784739881467</v>
+        <v>0.9386556581755343</v>
       </c>
       <c r="H13">
-        <v>0.116421881050826</v>
+        <v>0.1155753707657254</v>
       </c>
       <c r="I13">
-        <v>0.0147320210328914</v>
+        <v>0.01271347932140898</v>
       </c>
       <c r="J13">
-        <v>0.5836661966513788</v>
+        <v>0.417154566887433</v>
       </c>
       <c r="K13">
-        <v>0.8268174080138664</v>
+        <v>0.6628203707732183</v>
       </c>
       <c r="L13">
-        <v>0.1033231041225591</v>
+        <v>0.264931319654572</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2523053518779648</v>
       </c>
       <c r="N13">
-        <v>0.08121220760974524</v>
+        <v>0.1089534300267054</v>
       </c>
       <c r="O13">
-        <v>3.480335672885545</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>6.847645026258533</v>
+        <v>0.06545537742724505</v>
       </c>
       <c r="Q13">
-        <v>3.237289380070195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>3.270785942519794</v>
+      </c>
+      <c r="R13">
+        <v>6.988656909180577</v>
+      </c>
+      <c r="S13">
+        <v>2.720522853033799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1316851313997844</v>
+        <v>0.1096487690653354</v>
       </c>
       <c r="D14">
-        <v>0.04121762376524707</v>
+        <v>0.04194574189293476</v>
       </c>
       <c r="E14">
-        <v>0.05874617237643953</v>
+        <v>0.05820311708005832</v>
       </c>
       <c r="F14">
-        <v>1.045277681291822</v>
+        <v>0.904458627717446</v>
       </c>
       <c r="G14">
-        <v>0.91368816672815</v>
+        <v>0.8669655643104619</v>
       </c>
       <c r="H14">
-        <v>0.1652919117200042</v>
+        <v>0.1645668516581793</v>
       </c>
       <c r="I14">
-        <v>0.01366073779775157</v>
+        <v>0.0119254545756684</v>
       </c>
       <c r="J14">
-        <v>0.5544295034969196</v>
+        <v>0.4171782797661336</v>
       </c>
       <c r="K14">
-        <v>0.7756005287040963</v>
+        <v>0.6260868701424727</v>
       </c>
       <c r="L14">
-        <v>0.1148335637076734</v>
+        <v>0.2539775702625064</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2349584767549615</v>
       </c>
       <c r="N14">
-        <v>0.09572005650780113</v>
+        <v>0.1219094874067252</v>
       </c>
       <c r="O14">
-        <v>3.315012369761547</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>6.811956175511227</v>
+        <v>0.07720056568756206</v>
       </c>
       <c r="Q14">
-        <v>3.047800627411505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>3.122241091394613</v>
+      </c>
+      <c r="R14">
+        <v>6.944442321151143</v>
+      </c>
+      <c r="S14">
+        <v>2.579377307873671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.129943206508802</v>
+        <v>0.1089668581321135</v>
       </c>
       <c r="D15">
-        <v>0.04078077575629102</v>
+        <v>0.04132220340795811</v>
       </c>
       <c r="E15">
-        <v>0.05963652635299788</v>
+        <v>0.05923407872768571</v>
       </c>
       <c r="F15">
-        <v>1.022953610016245</v>
+        <v>0.8880353529429357</v>
       </c>
       <c r="G15">
-        <v>0.8935423297293568</v>
+        <v>0.8392671946944148</v>
       </c>
       <c r="H15">
-        <v>0.1775823236718281</v>
+        <v>0.1769114779985443</v>
       </c>
       <c r="I15">
-        <v>0.01325099024829424</v>
+        <v>0.0116656812498066</v>
       </c>
       <c r="J15">
-        <v>0.5449861517816998</v>
+        <v>0.4222211521688308</v>
       </c>
       <c r="K15">
-        <v>0.7591453296084154</v>
+        <v>0.6151067603887199</v>
       </c>
       <c r="L15">
-        <v>0.1177638486941675</v>
+        <v>0.2512490281413875</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2290727988372865</v>
       </c>
       <c r="N15">
-        <v>0.09927322598318256</v>
+        <v>0.1251310399134695</v>
       </c>
       <c r="O15">
-        <v>3.253238008712543</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>6.764074706805502</v>
+        <v>0.08036325876167183</v>
       </c>
       <c r="Q15">
-        <v>2.98529214707375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>3.067427927013625</v>
+      </c>
+      <c r="R15">
+        <v>6.892458863407342</v>
+      </c>
+      <c r="S15">
+        <v>2.536514345677119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1275086173076758</v>
+        <v>0.1066760016952228</v>
       </c>
       <c r="D16">
-        <v>0.04121557412527999</v>
+        <v>0.04141252433786846</v>
       </c>
       <c r="E16">
-        <v>0.0589187974214731</v>
+        <v>0.05871039915215448</v>
       </c>
       <c r="F16">
-        <v>0.9823877490081685</v>
+        <v>0.8666029435802187</v>
       </c>
       <c r="G16">
-        <v>0.8495022839729245</v>
+        <v>0.7564089640020484</v>
       </c>
       <c r="H16">
-        <v>0.1637827880038429</v>
+        <v>0.1633417066244363</v>
       </c>
       <c r="I16">
-        <v>0.01113431722018365</v>
+        <v>0.01009081427772074</v>
       </c>
       <c r="J16">
-        <v>0.5267392983878239</v>
+        <v>0.4671191911201333</v>
       </c>
       <c r="K16">
-        <v>0.7290378018413222</v>
+        <v>0.6014522929772497</v>
       </c>
       <c r="L16">
-        <v>0.1139970526089797</v>
+        <v>0.2528190066078437</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2155251743355606</v>
       </c>
       <c r="N16">
-        <v>0.09565028131331132</v>
+        <v>0.1207815812168604</v>
       </c>
       <c r="O16">
-        <v>3.060042575662081</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>6.381200220542098</v>
+        <v>0.07895332007021949</v>
       </c>
       <c r="Q16">
-        <v>2.853539548488158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>2.899113718918514</v>
+      </c>
+      <c r="R16">
+        <v>6.492110434022379</v>
+      </c>
+      <c r="S16">
+        <v>2.471612498896349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1285422508526857</v>
+        <v>0.105820118482538</v>
       </c>
       <c r="D17">
-        <v>0.0426432173002258</v>
+        <v>0.04287878244730159</v>
       </c>
       <c r="E17">
-        <v>0.05651946000565378</v>
+        <v>0.05612800080713054</v>
       </c>
       <c r="F17">
-        <v>0.9887141138865019</v>
+        <v>0.8784820350355176</v>
       </c>
       <c r="G17">
-        <v>0.8476251903963146</v>
+        <v>0.7365374505268818</v>
       </c>
       <c r="H17">
-        <v>0.1254694212840519</v>
+        <v>0.1251286643106084</v>
       </c>
       <c r="I17">
-        <v>0.01012644800172069</v>
+        <v>0.009331870464236225</v>
       </c>
       <c r="J17">
-        <v>0.5281982497615729</v>
+        <v>0.4953894285294211</v>
       </c>
       <c r="K17">
-        <v>0.7328585491628274</v>
+        <v>0.6094403905403851</v>
       </c>
       <c r="L17">
-        <v>0.1045371380270232</v>
+        <v>0.2597125357930352</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2137832055558846</v>
       </c>
       <c r="N17">
-        <v>0.08474316666655923</v>
+        <v>0.1101168890646598</v>
       </c>
       <c r="O17">
-        <v>2.999058170687618</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>6.107690063103178</v>
+        <v>0.07103302842629589</v>
       </c>
       <c r="Q17">
-        <v>2.852492589403852</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>2.846723717266642</v>
+      </c>
+      <c r="R17">
+        <v>6.211136505709021</v>
+      </c>
+      <c r="S17">
+        <v>2.491724021348006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.13346632708285</v>
+        <v>0.1064822424067238</v>
       </c>
       <c r="D18">
-        <v>0.04536526653340545</v>
+        <v>0.04585749166974651</v>
       </c>
       <c r="E18">
-        <v>0.05373093455073175</v>
+        <v>0.05282104540329691</v>
       </c>
       <c r="F18">
-        <v>1.037942729590199</v>
+        <v>0.9244941632939714</v>
       </c>
       <c r="G18">
-        <v>0.8835008548710874</v>
+        <v>0.7596885507868478</v>
       </c>
       <c r="H18">
-        <v>0.07253646893866517</v>
+        <v>0.07221633506367198</v>
       </c>
       <c r="I18">
-        <v>0.009645518280175125</v>
+        <v>0.008865654337503415</v>
       </c>
       <c r="J18">
-        <v>0.5475439553702159</v>
+        <v>0.5238937235744459</v>
       </c>
       <c r="K18">
-        <v>0.7683547954916961</v>
+        <v>0.6404846107093363</v>
       </c>
       <c r="L18">
-        <v>0.0918847633192108</v>
+        <v>0.2734198195122843</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2230885644103466</v>
       </c>
       <c r="N18">
-        <v>0.06968082223437122</v>
+        <v>0.09553835943345135</v>
       </c>
       <c r="O18">
-        <v>3.046662903520215</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>5.896523884215185</v>
+        <v>0.06003441800891807</v>
       </c>
       <c r="Q18">
-        <v>2.968975463726167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>2.892572929308443</v>
+      </c>
+      <c r="R18">
+        <v>5.998319831784102</v>
+      </c>
+      <c r="S18">
+        <v>2.600654798255562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1409614660794603</v>
+        <v>0.1085912718233439</v>
       </c>
       <c r="D19">
-        <v>0.04942796476509415</v>
+        <v>0.05032697689872734</v>
       </c>
       <c r="E19">
-        <v>0.05279720740286886</v>
+        <v>0.05113233029697062</v>
       </c>
       <c r="F19">
-        <v>1.115568921774894</v>
+        <v>0.993102536213371</v>
       </c>
       <c r="G19">
-        <v>0.9440557960765261</v>
+        <v>0.8090495625612277</v>
       </c>
       <c r="H19">
-        <v>0.02761588135955861</v>
+        <v>0.02724573570518629</v>
       </c>
       <c r="I19">
-        <v>0.01007909281565489</v>
+        <v>0.009251380889450544</v>
       </c>
       <c r="J19">
-        <v>0.5782262583468736</v>
+        <v>0.5537069940872215</v>
       </c>
       <c r="K19">
-        <v>0.8234301501888339</v>
+        <v>0.6854320617192826</v>
       </c>
       <c r="L19">
-        <v>0.08190127250516355</v>
+        <v>0.2907392435505685</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2396303188138447</v>
       </c>
       <c r="N19">
-        <v>0.05642482553432338</v>
+        <v>0.08310387674614006</v>
       </c>
       <c r="O19">
-        <v>3.173566496017386</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>5.755211585779136</v>
+        <v>0.0518094751589846</v>
       </c>
       <c r="Q19">
-        <v>3.161558680742331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>3.01068782065532</v>
+      </c>
+      <c r="R19">
+        <v>5.859255610117543</v>
+      </c>
+      <c r="S19">
+        <v>2.767012083713297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1569238057843592</v>
+        <v>0.1149151673693982</v>
       </c>
       <c r="D20">
-        <v>0.05699517203497706</v>
+        <v>0.05882339170853967</v>
       </c>
       <c r="E20">
-        <v>0.05663380235798599</v>
+        <v>0.05364041550907306</v>
       </c>
       <c r="F20">
-        <v>1.277689988702534</v>
+        <v>1.129247872738944</v>
       </c>
       <c r="G20">
-        <v>1.079376681784012</v>
+        <v>0.9367749238313081</v>
       </c>
       <c r="H20">
-        <v>0.003069283077417051</v>
+        <v>0.002409303085837866</v>
       </c>
       <c r="I20">
-        <v>0.01237234975901025</v>
+        <v>0.01106703809100029</v>
       </c>
       <c r="J20">
-        <v>0.6434064052821782</v>
+        <v>0.5894585919112387</v>
       </c>
       <c r="K20">
-        <v>0.939658831977205</v>
+        <v>0.774643316209044</v>
       </c>
       <c r="L20">
-        <v>0.07839580516065658</v>
+        <v>0.3192133652525229</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2794205573283861</v>
       </c>
       <c r="N20">
-        <v>0.04831883844705498</v>
+        <v>0.07562391686137016</v>
       </c>
       <c r="O20">
-        <v>3.529428246055502</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>5.806283419427871</v>
+        <v>0.05134061785046029</v>
       </c>
       <c r="Q20">
-        <v>3.584994861406926</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>3.337877246365352</v>
+      </c>
+      <c r="R20">
+        <v>5.923005896110681</v>
+      </c>
+      <c r="S20">
+        <v>3.109890244280621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1665086008521683</v>
+        <v>0.1211732943833539</v>
       </c>
       <c r="D21">
-        <v>0.05890132803504855</v>
+        <v>0.06271089421401399</v>
       </c>
       <c r="E21">
-        <v>0.05787151528909273</v>
+        <v>0.0546111830306959</v>
       </c>
       <c r="F21">
-        <v>1.404487452297758</v>
+        <v>1.206967657140822</v>
       </c>
       <c r="G21">
-        <v>1.201604805926365</v>
+        <v>1.14649128802688</v>
       </c>
       <c r="H21">
-        <v>0.005471522162674214</v>
+        <v>0.004206758563467861</v>
       </c>
       <c r="I21">
-        <v>0.01713032974518214</v>
+        <v>0.01463441443665925</v>
       </c>
       <c r="J21">
-        <v>0.6974312210606683</v>
+        <v>0.4933624046933289</v>
       </c>
       <c r="K21">
-        <v>1.031838427305601</v>
+        <v>0.8240633496276644</v>
       </c>
       <c r="L21">
-        <v>0.08016563908668844</v>
+        <v>0.3228083013830272</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3162002434790594</v>
       </c>
       <c r="N21">
-        <v>0.04733535953329993</v>
+        <v>0.07673657515948751</v>
       </c>
       <c r="O21">
-        <v>3.976095149211801</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>6.436430235955129</v>
+        <v>0.0506279843909061</v>
       </c>
       <c r="Q21">
-        <v>3.957542413358397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>3.726455337180695</v>
+      </c>
+      <c r="R21">
+        <v>6.588406307281787</v>
+      </c>
+      <c r="S21">
+        <v>3.317244369509467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1728699715760698</v>
+        <v>0.1254865869593544</v>
       </c>
       <c r="D22">
-        <v>0.05976276827076887</v>
+        <v>0.0650349591280559</v>
       </c>
       <c r="E22">
-        <v>0.05839406086260102</v>
+        <v>0.05506076565532503</v>
       </c>
       <c r="F22">
-        <v>1.484623986796748</v>
+        <v>1.25320025596865</v>
       </c>
       <c r="G22">
-        <v>1.279945697780647</v>
+        <v>1.294647514906899</v>
       </c>
       <c r="H22">
-        <v>0.007407349740813696</v>
+        <v>0.005664106158802806</v>
       </c>
       <c r="I22">
-        <v>0.02033741674758982</v>
+        <v>0.01687464003597938</v>
       </c>
       <c r="J22">
-        <v>0.7320305871133712</v>
+        <v>0.4300373270971107</v>
       </c>
       <c r="K22">
-        <v>1.091064893872925</v>
+        <v>0.8541170314333826</v>
       </c>
       <c r="L22">
-        <v>0.08121769121318967</v>
+        <v>0.3242464098885449</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3399163729856909</v>
       </c>
       <c r="N22">
-        <v>0.04675037225272982</v>
+        <v>0.07754395843016315</v>
       </c>
       <c r="O22">
-        <v>4.259230860068655</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>6.853482036103799</v>
+        <v>0.04978590751223422</v>
       </c>
       <c r="Q22">
-        <v>4.196260797730702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>3.969799541050222</v>
+      </c>
+      <c r="R22">
+        <v>7.029739692463579</v>
+      </c>
+      <c r="S22">
+        <v>3.44137715227393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.170290001810443</v>
+        <v>0.1234315976015523</v>
       </c>
       <c r="D23">
-        <v>0.05925757318749092</v>
+        <v>0.06352485491892423</v>
       </c>
       <c r="E23">
-        <v>0.05815051570921792</v>
+        <v>0.05482098576707273</v>
       </c>
       <c r="F23">
-        <v>1.444331620599044</v>
+        <v>1.233825779828393</v>
       </c>
       <c r="G23">
-        <v>1.240669241191085</v>
+        <v>1.204796677263118</v>
       </c>
       <c r="H23">
-        <v>0.006357713622492933</v>
+        <v>0.004885525344337727</v>
       </c>
       <c r="I23">
-        <v>0.01836721130239116</v>
+        <v>0.01538058320944735</v>
       </c>
       <c r="J23">
-        <v>0.7148156260663825</v>
+        <v>0.4777875163597827</v>
       </c>
       <c r="K23">
-        <v>1.062315565819887</v>
+        <v>0.8426926419787648</v>
       </c>
       <c r="L23">
-        <v>0.08069586832718184</v>
+        <v>0.3250938712567049</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3290940969139911</v>
       </c>
       <c r="N23">
-        <v>0.04707230202698653</v>
+        <v>0.07714256272422837</v>
       </c>
       <c r="O23">
-        <v>4.11143434599694</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>6.628919713810433</v>
+        <v>0.05013663136838087</v>
       </c>
       <c r="Q23">
-        <v>4.076847972405346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>3.846362322257519</v>
+      </c>
+      <c r="R23">
+        <v>6.790187791504309</v>
+      </c>
+      <c r="S23">
+        <v>3.392943433552972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1591103969201271</v>
+        <v>0.1157490182890637</v>
       </c>
       <c r="D24">
-        <v>0.0575036514089966</v>
+        <v>0.05936303564499568</v>
       </c>
       <c r="E24">
-        <v>0.05717515426333808</v>
+        <v>0.05408182961518415</v>
       </c>
       <c r="F24">
-        <v>1.289448309898489</v>
+        <v>1.139983190981539</v>
       </c>
       <c r="G24">
-        <v>1.089233542247968</v>
+        <v>0.9446187022083024</v>
       </c>
       <c r="H24">
-        <v>0.003036687551546846</v>
+        <v>0.002364263292072954</v>
       </c>
       <c r="I24">
-        <v>0.01201022417600317</v>
+        <v>0.01059120167280447</v>
       </c>
       <c r="J24">
-        <v>0.6483933272813118</v>
+        <v>0.5950856693754787</v>
       </c>
       <c r="K24">
-        <v>0.9496707556250499</v>
+        <v>0.7832669157911241</v>
       </c>
       <c r="L24">
-        <v>0.07861218689214267</v>
+        <v>0.322580873827448</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2825482609442247</v>
       </c>
       <c r="N24">
-        <v>0.04829264881651296</v>
+        <v>0.07549674620674462</v>
       </c>
       <c r="O24">
-        <v>3.544454644181343</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>5.782671966940313</v>
+        <v>0.05180188822090503</v>
       </c>
       <c r="Q24">
-        <v>3.616326278687609</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3.35212308453643</v>
+      </c>
+      <c r="R24">
+        <v>5.899356457434862</v>
+      </c>
+      <c r="S24">
+        <v>3.138225841204019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1468686046061691</v>
+        <v>0.1082857716291326</v>
       </c>
       <c r="D25">
-        <v>0.05579103935404106</v>
+        <v>0.05731004969899445</v>
       </c>
       <c r="E25">
-        <v>0.05612222520344323</v>
+        <v>0.05355104264477228</v>
       </c>
       <c r="F25">
-        <v>1.126000607259442</v>
+        <v>1.008047236736786</v>
       </c>
       <c r="G25">
-        <v>0.9288358990669252</v>
+        <v>0.801897420795342</v>
       </c>
       <c r="H25">
-        <v>0.0007534330344456386</v>
+        <v>0.0005635773770389374</v>
       </c>
       <c r="I25">
-        <v>0.006623407235355927</v>
+        <v>0.006269210283842419</v>
       </c>
       <c r="J25">
-        <v>0.5784507249471176</v>
+        <v>0.5523546097596039</v>
       </c>
       <c r="K25">
-        <v>0.8300446697044279</v>
+        <v>0.6968042721816019</v>
       </c>
       <c r="L25">
-        <v>0.07625240849534504</v>
+        <v>0.3110175481631643</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.226261532740196</v>
       </c>
       <c r="N25">
-        <v>0.04964480251540371</v>
+        <v>0.07339501953628691</v>
       </c>
       <c r="O25">
-        <v>2.928932986313342</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>4.871680323924011</v>
+        <v>0.05391293304497946</v>
       </c>
       <c r="Q25">
-        <v>3.12936459678275</v>
+        <v>2.779007300871413</v>
+      </c>
+      <c r="R25">
+        <v>4.962255251420572</v>
+      </c>
+      <c r="S25">
+        <v>2.753440633188063</v>
       </c>
     </row>
   </sheetData>
